--- a/AAII_Financials/Quarterly/NRIS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NRIS_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>

--- a/AAII_Financials/Quarterly/NRIS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NRIS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
   <si>
     <t>NRIS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,89 +665,97 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43982</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43890</v>
+      </c>
+      <c r="F7" s="2">
         <v>43799</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43708</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43616</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43524</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43434</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43343</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43251</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43159</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43069</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42978</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42886</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42794</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42704</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="3">
+        <v>100</v>
+      </c>
+      <c r="F8" s="3">
         <v>200</v>
       </c>
-      <c r="E8" s="3">
-        <v>100</v>
-      </c>
-      <c r="F8" s="3">
-        <v>100</v>
-      </c>
       <c r="G8" s="3">
         <v>100</v>
       </c>
@@ -764,10 +772,10 @@
         <v>100</v>
       </c>
       <c r="L8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N8" s="3">
         <v>0</v>
@@ -779,15 +787,21 @@
         <v>0</v>
       </c>
       <c r="Q8" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E9" s="3">
         <v>200</v>
@@ -796,10 +810,10 @@
         <v>200</v>
       </c>
       <c r="G9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I9" s="3">
         <v>100</v>
@@ -811,10 +825,10 @@
         <v>100</v>
       </c>
       <c r="L9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N9" s="3">
         <v>0</v>
@@ -826,27 +840,33 @@
         <v>0</v>
       </c>
       <c r="Q9" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="R9" s="3">
+        <v>0</v>
+      </c>
+      <c r="S9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="3">
-        <v>0</v>
+      <c r="D10" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E10" s="3">
         <v>-100</v>
       </c>
       <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
         <v>-100</v>
       </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
       <c r="H10" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I10" s="3">
         <v>0</v>
@@ -875,8 +895,14 @@
       <c r="Q10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3">
+        <v>0</v>
+      </c>
+      <c r="S10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -894,8 +920,10 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -941,8 +969,14 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,16 +1022,22 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
+      <c r="E14" s="3">
+        <v>1300</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
@@ -1005,58 +1045,64 @@
       <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>900</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>8</v>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E15" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="F15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G15" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H15" s="3">
         <v>0</v>
       </c>
       <c r="I15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J15" s="3">
         <v>0</v>
@@ -1082,8 +1128,14 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,102 +1150,116 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E17" s="3">
-        <v>500</v>
+        <v>2200</v>
       </c>
       <c r="F17" s="3">
         <v>400</v>
       </c>
       <c r="G17" s="3">
+        <v>500</v>
+      </c>
+      <c r="H17" s="3">
         <v>400</v>
       </c>
-      <c r="H17" s="3">
-        <v>300</v>
-      </c>
       <c r="I17" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="J17" s="3">
         <v>300</v>
       </c>
       <c r="K17" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="L17" s="3">
+        <v>300</v>
+      </c>
+      <c r="M17" s="3">
+        <v>100</v>
+      </c>
+      <c r="N17" s="3">
         <v>400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-300</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-200</v>
       </c>
       <c r="J18" s="3">
         <v>-200</v>
       </c>
       <c r="K18" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="L18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
         <v>-400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-1800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,13 +1277,15 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
+      <c r="D20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1250,63 +1318,75 @@
         <v>0</v>
       </c>
       <c r="O20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
       <c r="Q20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F21" s="3">
         <v>-100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-200</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-200</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-100</v>
       </c>
       <c r="I21" s="3">
         <v>-200</v>
       </c>
       <c r="J21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K21" s="3">
         <v>-200</v>
       </c>
-      <c r="K21" s="3">
-        <v>0</v>
-      </c>
       <c r="L21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M21" s="3">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3">
         <v>-400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-1800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1346,14 +1426,20 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-      <c r="P22" s="3" t="s">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q22" s="3" t="s">
+      <c r="S22" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1361,46 +1447,52 @@
         <v>-200</v>
       </c>
       <c r="E23" s="3">
-        <v>-300</v>
+        <v>-2000</v>
       </c>
       <c r="F23" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="G23" s="3">
         <v>-300</v>
       </c>
       <c r="H23" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="I23" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="J23" s="3">
         <v>-200</v>
       </c>
       <c r="K23" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="L23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
         <v>-400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-1800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1446,8 +1538,14 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,8 +1591,14 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1502,46 +1606,52 @@
         <v>-200</v>
       </c>
       <c r="E26" s="3">
-        <v>-300</v>
+        <v>-2000</v>
       </c>
       <c r="F26" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="G26" s="3">
         <v>-300</v>
       </c>
       <c r="H26" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="I26" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="J26" s="3">
         <v>-200</v>
       </c>
       <c r="K26" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="L26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
         <v>-400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-1800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1549,46 +1659,52 @@
         <v>-200</v>
       </c>
       <c r="E27" s="3">
-        <v>-300</v>
+        <v>-2000</v>
       </c>
       <c r="F27" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="G27" s="3">
         <v>-300</v>
       </c>
       <c r="H27" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="I27" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="J27" s="3">
         <v>-200</v>
       </c>
       <c r="K27" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="L27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
         <v>-400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-1800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1750,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1681,8 +1803,14 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1856,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,13 +1909,19 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
+      <c r="D32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -1814,16 +1954,22 @@
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1831,46 +1977,52 @@
         <v>-200</v>
       </c>
       <c r="E33" s="3">
-        <v>-300</v>
+        <v>-2000</v>
       </c>
       <c r="F33" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="G33" s="3">
         <v>-300</v>
       </c>
       <c r="H33" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="I33" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="J33" s="3">
         <v>-200</v>
       </c>
       <c r="K33" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="L33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
         <v>-400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-1800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,8 +2068,14 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1925,98 +2083,110 @@
         <v>-200</v>
       </c>
       <c r="E35" s="3">
-        <v>-300</v>
+        <v>-2000</v>
       </c>
       <c r="F35" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="G35" s="3">
         <v>-300</v>
       </c>
       <c r="H35" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="I35" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="J35" s="3">
         <v>-200</v>
       </c>
       <c r="K35" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="L35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
         <v>-400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-1800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43982</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43890</v>
+      </c>
+      <c r="F38" s="2">
         <v>43799</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43708</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43616</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43524</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43434</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43343</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43251</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43159</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43069</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42978</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42886</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42794</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42704</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2204,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,8 +2225,10 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2062,7 +2236,7 @@
         <v>100</v>
       </c>
       <c r="E41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F41" s="3">
         <v>100</v>
@@ -2077,31 +2251,37 @@
         <v>100</v>
       </c>
       <c r="J41" s="3">
+        <v>100</v>
+      </c>
+      <c r="K41" s="3">
+        <v>100</v>
+      </c>
+      <c r="L41" s="3">
         <v>200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>600</v>
       </c>
-      <c r="N41" s="3">
-        <v>100</v>
-      </c>
-      <c r="O41" s="3">
-        <v>100</v>
-      </c>
       <c r="P41" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>100</v>
+      </c>
+      <c r="R41" s="3">
         <v>500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2147,16 +2327,22 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F43" s="3">
         <v>100</v>
@@ -2168,19 +2354,19 @@
         <v>100</v>
       </c>
       <c r="I43" s="3">
+        <v>100</v>
+      </c>
+      <c r="J43" s="3">
+        <v>100</v>
+      </c>
+      <c r="K43" s="3">
         <v>200</v>
       </c>
-      <c r="J43" s="3">
-        <v>100</v>
-      </c>
-      <c r="K43" s="3">
-        <v>100</v>
-      </c>
       <c r="L43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N43" s="3">
         <v>0</v>
@@ -2194,8 +2380,14 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2241,8 +2433,14 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2271,25 +2469,31 @@
         <v>0</v>
       </c>
       <c r="L45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
+        <v>100</v>
+      </c>
+      <c r="O45" s="3">
         <v>300</v>
       </c>
-      <c r="N45" s="3">
-        <v>100</v>
-      </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q45" s="3">
         <v>400</v>
       </c>
-      <c r="P45" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>100</v>
+      </c>
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2300,43 +2504,49 @@
         <v>200</v>
       </c>
       <c r="F46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G46" s="3">
         <v>200</v>
       </c>
       <c r="H46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I46" s="3">
         <v>200</v>
       </c>
       <c r="J46" s="3">
+        <v>100</v>
+      </c>
+      <c r="K46" s="3">
+        <v>200</v>
+      </c>
+      <c r="L46" s="3">
         <v>300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2382,40 +2592,46 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>600</v>
+      </c>
+      <c r="E48" s="3">
+        <v>700</v>
+      </c>
+      <c r="F48" s="3">
         <v>2600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>2600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>2400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>2500</v>
-      </c>
-      <c r="H48" s="3">
-        <v>2600</v>
-      </c>
-      <c r="I48" s="3">
-        <v>2600</v>
       </c>
       <c r="J48" s="3">
         <v>2600</v>
       </c>
       <c r="K48" s="3">
+        <v>2600</v>
+      </c>
+      <c r="L48" s="3">
+        <v>2600</v>
+      </c>
+      <c r="M48" s="3">
         <v>2700</v>
-      </c>
-      <c r="L48" s="3">
-        <v>900</v>
-      </c>
-      <c r="M48" s="3">
-        <v>900</v>
       </c>
       <c r="N48" s="3">
         <v>900</v>
@@ -2429,8 +2645,14 @@
       <c r="Q48" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>900</v>
+      </c>
+      <c r="S48" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2476,8 +2698,14 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2751,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,8 +2804,14 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2617,8 +2857,14 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,55 +2910,67 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>700</v>
+      </c>
+      <c r="E54" s="3">
+        <v>900</v>
+      </c>
+      <c r="F54" s="3">
         <v>2700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>2800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>2600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>2700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>2700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>2900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>2900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>3000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2988,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,22 +3009,24 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E57" s="3">
         <v>200</v>
       </c>
       <c r="F57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H57" s="3">
         <v>100</v>
@@ -2779,25 +3041,31 @@
         <v>100</v>
       </c>
       <c r="L57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N57" s="3">
+        <v>0</v>
+      </c>
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+      <c r="P57" s="3">
         <v>400</v>
       </c>
-      <c r="O57" s="3">
-        <v>0</v>
-      </c>
-      <c r="P57" s="3">
-        <v>0</v>
-      </c>
       <c r="Q57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2826,25 +3094,31 @@
         <v>0</v>
       </c>
       <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
         <v>800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>300</v>
       </c>
-      <c r="O58" s="3">
-        <v>100</v>
-      </c>
-      <c r="P58" s="3" t="s">
+      <c r="Q58" s="3">
+        <v>100</v>
+      </c>
+      <c r="R58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q58" s="3" t="s">
+      <c r="S58" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2882,30 +3156,36 @@
         <v>0</v>
       </c>
       <c r="O59" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="P59" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Q59" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3">
+        <v>400</v>
+      </c>
+      <c r="S59" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E60" s="3">
         <v>200</v>
       </c>
       <c r="F60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H60" s="3">
         <v>100</v>
@@ -2920,58 +3200,64 @@
         <v>100</v>
       </c>
       <c r="L60" s="3">
+        <v>100</v>
+      </c>
+      <c r="M60" s="3">
+        <v>100</v>
+      </c>
+      <c r="N60" s="3">
         <v>800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>600</v>
-      </c>
-      <c r="O60" s="3">
-        <v>400</v>
-      </c>
-      <c r="P60" s="3">
-        <v>400</v>
       </c>
       <c r="Q60" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3">
+        <v>400</v>
+      </c>
+      <c r="S60" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E61" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F61" s="3">
         <v>2500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>2400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>2100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>1900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>1700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>1700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>1600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>1600</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -2984,8 +3270,14 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3014,10 +3306,10 @@
         <v>100</v>
       </c>
       <c r="L62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N62" s="3">
         <v>0</v>
@@ -3031,8 +3323,14 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3376,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3429,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,55 +3482,67 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E66" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F66" s="3">
         <v>2800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>2700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>2300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>2000</v>
-      </c>
-      <c r="H66" s="3">
-        <v>1800</v>
-      </c>
-      <c r="I66" s="3">
-        <v>1800</v>
       </c>
       <c r="J66" s="3">
         <v>1800</v>
       </c>
       <c r="K66" s="3">
+        <v>1800</v>
+      </c>
+      <c r="L66" s="3">
+        <v>1800</v>
+      </c>
+      <c r="M66" s="3">
         <v>1700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3560,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3609,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3662,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3715,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,55 +3768,67 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="F72" s="3">
         <v>-6500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-6300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-6000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-5700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-5300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-5100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-4900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-4700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-4700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-2800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-2500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-2200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3874,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3927,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,55 +3980,67 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="F76" s="3">
         <v>-100</v>
       </c>
-      <c r="E76" s="3">
-        <v>100</v>
-      </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
+        <v>100</v>
+      </c>
+      <c r="H76" s="3">
         <v>400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>1000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>1200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>1300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>1000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>1100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,60 +4086,72 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43982</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43890</v>
+      </c>
+      <c r="F80" s="2">
         <v>43799</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43708</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43616</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43524</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43434</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43343</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43251</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43159</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43069</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42978</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42886</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42794</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42704</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3769,46 +4159,52 @@
         <v>-200</v>
       </c>
       <c r="E81" s="3">
-        <v>-300</v>
+        <v>-2000</v>
       </c>
       <c r="F81" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="G81" s="3">
         <v>-300</v>
       </c>
       <c r="H81" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="I81" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="J81" s="3">
         <v>-200</v>
       </c>
       <c r="K81" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="L81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
         <v>-400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-1800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,29 +4222,31 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E83" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="F83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
         <v>200</v>
       </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
       <c r="J83" s="3">
         <v>0</v>
       </c>
@@ -3873,8 +4271,14 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4324,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4377,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4430,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4483,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,8 +4536,14 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4117,46 +4551,52 @@
         <v>-100</v>
       </c>
       <c r="E89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
         <v>-300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,19 +4614,21 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
-      </c>
-      <c r="E91" s="3" t="s">
+      <c r="D91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>8</v>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>8</v>
@@ -4200,29 +4642,35 @@
       <c r="J91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K91" s="3">
+      <c r="K91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M91" s="3">
         <v>-1600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>200</v>
       </c>
-      <c r="M91" s="3" t="s">
+      <c r="O91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N91" s="3" t="s">
+      <c r="P91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-100</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q91" s="3" t="s">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4716,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,8 +4769,14 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4324,46 +4784,52 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-300</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
-      <c r="I94" s="3" t="s">
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J94" s="3" t="s">
+      <c r="L94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-1600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-200</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-100</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4847,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4896,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4949,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +5002,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,8 +5055,14 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4578,46 +5070,52 @@
         <v>100</v>
       </c>
       <c r="E100" s="3">
+        <v>200</v>
+      </c>
+      <c r="F100" s="3">
+        <v>100</v>
+      </c>
+      <c r="G100" s="3">
         <v>400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>100</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>100</v>
+      </c>
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>1600</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>600</v>
       </c>
-      <c r="Q100" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4663,8 +5161,14 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4672,42 +5176,48 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
+        <v>100</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3">
-        <v>100</v>
-      </c>
       <c r="H102" s="3">
         <v>0</v>
       </c>
       <c r="I102" s="3">
+        <v>100</v>
+      </c>
+      <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-300</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>500</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NRIS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NRIS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
   <si>
     <t>NRIS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,100 +665,104 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44074</v>
+      </c>
+      <c r="E7" s="2">
         <v>43982</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43890</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43799</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43708</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43616</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43524</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43434</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43343</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43251</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43159</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43069</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42978</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42886</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42794</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42704</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>8</v>
+      <c r="D8" s="3">
+        <v>100</v>
       </c>
       <c r="E8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F8" s="3">
+        <v>100</v>
+      </c>
+      <c r="G8" s="3">
         <v>200</v>
       </c>
-      <c r="G8" s="3">
-        <v>100</v>
-      </c>
       <c r="H8" s="3">
         <v>100</v>
       </c>
@@ -778,7 +782,7 @@
         <v>100</v>
       </c>
       <c r="N8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O8" s="3">
         <v>0</v>
@@ -793,18 +797,21 @@
         <v>0</v>
       </c>
       <c r="S8" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F9" s="3">
         <v>200</v>
@@ -816,7 +823,7 @@
         <v>200</v>
       </c>
       <c r="I9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J9" s="3">
         <v>100</v>
@@ -831,7 +838,7 @@
         <v>100</v>
       </c>
       <c r="N9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O9" s="3">
         <v>0</v>
@@ -846,30 +853,33 @@
         <v>0</v>
       </c>
       <c r="S9" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="T9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>8</v>
+      <c r="D10" s="3">
+        <v>-100</v>
       </c>
       <c r="E10" s="3">
         <v>-100</v>
       </c>
       <c r="F10" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G10" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H10" s="3">
         <v>-100</v>
       </c>
       <c r="I10" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J10" s="3">
         <v>0</v>
@@ -901,8 +911,11 @@
       <c r="S10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,19 +1045,22 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3">
         <v>1300</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -1051,29 +1071,29 @@
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>900</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>8</v>
+      <c r="Q14" s="3">
+        <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>8</v>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1090,22 +1113,22 @@
         <v>0</v>
       </c>
       <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
         <v>600</v>
       </c>
-      <c r="F15" s="3">
-        <v>100</v>
-      </c>
       <c r="G15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H15" s="3">
         <v>0</v>
       </c>
       <c r="I15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,31 +1178,32 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>300</v>
+      </c>
+      <c r="E17" s="3">
         <v>200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>500</v>
-      </c>
-      <c r="H17" s="3">
-        <v>400</v>
       </c>
       <c r="I17" s="3">
         <v>400</v>
       </c>
       <c r="J17" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K17" s="3">
         <v>300</v>
@@ -1185,51 +1212,54 @@
         <v>300</v>
       </c>
       <c r="M17" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="N17" s="3">
+        <v>100</v>
+      </c>
+      <c r="O17" s="3">
         <v>400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>800</v>
-      </c>
-      <c r="R17" s="3">
-        <v>400</v>
       </c>
       <c r="S17" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>8</v>
+      <c r="D18" s="3">
+        <v>-200</v>
       </c>
       <c r="E18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-2100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-400</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-300</v>
       </c>
       <c r="I18" s="3">
         <v>-300</v>
       </c>
       <c r="J18" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="K18" s="3">
         <v>-200</v>
@@ -1238,28 +1268,31 @@
         <v>-200</v>
       </c>
       <c r="M18" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
         <v>-400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,13 +1312,14 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>8</v>
+      <c r="D20" s="3">
+        <v>0</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1324,69 +1358,75 @@
         <v>0</v>
       </c>
       <c r="Q20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>8</v>
+      <c r="D21" s="3">
+        <v>-100</v>
       </c>
       <c r="E21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-300</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-200</v>
       </c>
       <c r="I21" s="3">
         <v>-200</v>
       </c>
       <c r="J21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K21" s="3">
         <v>-100</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-200</v>
       </c>
       <c r="L21" s="3">
         <v>-200</v>
       </c>
       <c r="M21" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="N21" s="3">
+        <v>0</v>
+      </c>
+      <c r="O21" s="3">
         <v>-400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-700</v>
-      </c>
-      <c r="R21" s="3">
-        <v>-400</v>
       </c>
       <c r="S21" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1432,14 +1472,17 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>8</v>
+      <c r="R22" s="3">
+        <v>0</v>
       </c>
       <c r="S22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1447,13 +1490,13 @@
         <v>-200</v>
       </c>
       <c r="E23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F23" s="3">
         <v>-2000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-200</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-300</v>
       </c>
       <c r="H23" s="3">
         <v>-300</v>
@@ -1462,7 +1505,7 @@
         <v>-300</v>
       </c>
       <c r="J23" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="K23" s="3">
         <v>-200</v>
@@ -1471,28 +1514,31 @@
         <v>-200</v>
       </c>
       <c r="M23" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
         <v>-400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-800</v>
-      </c>
-      <c r="R23" s="3">
-        <v>-400</v>
       </c>
       <c r="S23" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,8 +1646,11 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1606,13 +1658,13 @@
         <v>-200</v>
       </c>
       <c r="E26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F26" s="3">
         <v>-2000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-200</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-300</v>
       </c>
       <c r="H26" s="3">
         <v>-300</v>
@@ -1621,7 +1673,7 @@
         <v>-300</v>
       </c>
       <c r="J26" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="K26" s="3">
         <v>-200</v>
@@ -1630,28 +1682,31 @@
         <v>-200</v>
       </c>
       <c r="M26" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
         <v>-400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-800</v>
-      </c>
-      <c r="R26" s="3">
-        <v>-400</v>
       </c>
       <c r="S26" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1659,13 +1714,13 @@
         <v>-200</v>
       </c>
       <c r="E27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F27" s="3">
         <v>-2000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-200</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-300</v>
       </c>
       <c r="H27" s="3">
         <v>-300</v>
@@ -1674,7 +1729,7 @@
         <v>-300</v>
       </c>
       <c r="J27" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="K27" s="3">
         <v>-200</v>
@@ -1683,28 +1738,31 @@
         <v>-200</v>
       </c>
       <c r="M27" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
         <v>-400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-800</v>
-      </c>
-      <c r="R27" s="3">
-        <v>-400</v>
       </c>
       <c r="S27" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,13 +1982,16 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>8</v>
+      <c r="D32" s="3">
+        <v>0</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -1960,16 +2030,19 @@
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-100</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1977,13 +2050,13 @@
         <v>-200</v>
       </c>
       <c r="E33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F33" s="3">
         <v>-2000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-200</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-300</v>
       </c>
       <c r="H33" s="3">
         <v>-300</v>
@@ -1992,7 +2065,7 @@
         <v>-300</v>
       </c>
       <c r="J33" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="K33" s="3">
         <v>-200</v>
@@ -2001,28 +2074,31 @@
         <v>-200</v>
       </c>
       <c r="M33" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
         <v>-400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-800</v>
-      </c>
-      <c r="R33" s="3">
-        <v>-400</v>
       </c>
       <c r="S33" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,8 +2150,11 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2083,13 +2162,13 @@
         <v>-200</v>
       </c>
       <c r="E35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F35" s="3">
         <v>-2000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-200</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-300</v>
       </c>
       <c r="H35" s="3">
         <v>-300</v>
@@ -2098,7 +2177,7 @@
         <v>-300</v>
       </c>
       <c r="J35" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="K35" s="3">
         <v>-200</v>
@@ -2107,86 +2186,92 @@
         <v>-200</v>
       </c>
       <c r="M35" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
         <v>-400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-800</v>
-      </c>
-      <c r="R35" s="3">
-        <v>-400</v>
       </c>
       <c r="S35" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44074</v>
+      </c>
+      <c r="E38" s="2">
         <v>43982</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43890</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43799</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43708</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43616</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43524</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43434</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43343</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43251</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43159</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43069</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42978</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42886</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42794</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42704</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,8 +2313,9 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2236,11 +2323,11 @@
         <v>100</v>
       </c>
       <c r="E41" s="3">
+        <v>100</v>
+      </c>
+      <c r="F41" s="3">
         <v>200</v>
       </c>
-      <c r="F41" s="3">
-        <v>100</v>
-      </c>
       <c r="G41" s="3">
         <v>100</v>
       </c>
@@ -2257,31 +2344,34 @@
         <v>100</v>
       </c>
       <c r="L41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M41" s="3">
         <v>200</v>
       </c>
       <c r="N41" s="3">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="O41" s="3">
         <v>600</v>
       </c>
       <c r="P41" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="Q41" s="3">
         <v>100</v>
       </c>
       <c r="R41" s="3">
+        <v>100</v>
+      </c>
+      <c r="S41" s="3">
         <v>500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,8 +2423,11 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2345,7 +2438,7 @@
         <v>0</v>
       </c>
       <c r="F43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G43" s="3">
         <v>100</v>
@@ -2360,16 +2453,16 @@
         <v>100</v>
       </c>
       <c r="K43" s="3">
+        <v>100</v>
+      </c>
+      <c r="L43" s="3">
         <v>200</v>
       </c>
-      <c r="L43" s="3">
-        <v>100</v>
-      </c>
       <c r="M43" s="3">
         <v>100</v>
       </c>
       <c r="N43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O43" s="3">
         <v>0</v>
@@ -2386,8 +2479,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,8 +2535,11 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2475,25 +2574,28 @@
         <v>0</v>
       </c>
       <c r="N45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O45" s="3">
+        <v>100</v>
+      </c>
+      <c r="P45" s="3">
         <v>300</v>
       </c>
-      <c r="P45" s="3">
-        <v>100</v>
-      </c>
       <c r="Q45" s="3">
+        <v>100</v>
+      </c>
+      <c r="R45" s="3">
         <v>400</v>
       </c>
-      <c r="R45" s="3">
-        <v>100</v>
-      </c>
       <c r="S45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2501,13 +2603,13 @@
         <v>100</v>
       </c>
       <c r="E46" s="3">
+        <v>100</v>
+      </c>
+      <c r="F46" s="3">
         <v>200</v>
       </c>
-      <c r="F46" s="3">
-        <v>100</v>
-      </c>
       <c r="G46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H46" s="3">
         <v>200</v>
@@ -2516,37 +2618,40 @@
         <v>200</v>
       </c>
       <c r="J46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K46" s="3">
+        <v>100</v>
+      </c>
+      <c r="L46" s="3">
         <v>200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>900</v>
-      </c>
-      <c r="P46" s="3">
-        <v>200</v>
       </c>
       <c r="Q46" s="3">
         <v>200</v>
       </c>
       <c r="R46" s="3">
+        <v>200</v>
+      </c>
+      <c r="S46" s="3">
         <v>600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,31 +2703,34 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>500</v>
+      </c>
+      <c r="E48" s="3">
         <v>600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>700</v>
-      </c>
-      <c r="F48" s="3">
-        <v>2600</v>
       </c>
       <c r="G48" s="3">
         <v>2600</v>
       </c>
       <c r="H48" s="3">
+        <v>2600</v>
+      </c>
+      <c r="I48" s="3">
         <v>2400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2500</v>
-      </c>
-      <c r="J48" s="3">
-        <v>2600</v>
       </c>
       <c r="K48" s="3">
         <v>2600</v>
@@ -2631,10 +2739,10 @@
         <v>2600</v>
       </c>
       <c r="M48" s="3">
+        <v>2600</v>
+      </c>
+      <c r="N48" s="3">
         <v>2700</v>
-      </c>
-      <c r="N48" s="3">
-        <v>900</v>
       </c>
       <c r="O48" s="3">
         <v>900</v>
@@ -2651,8 +2759,11 @@
       <c r="S48" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,8 +3039,11 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2925,52 +3051,55 @@
         <v>700</v>
       </c>
       <c r="E54" s="3">
+        <v>700</v>
+      </c>
+      <c r="F54" s="3">
         <v>900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2600</v>
-      </c>
-      <c r="I54" s="3">
-        <v>2700</v>
       </c>
       <c r="J54" s="3">
         <v>2700</v>
       </c>
       <c r="K54" s="3">
-        <v>2900</v>
+        <v>2700</v>
       </c>
       <c r="L54" s="3">
         <v>2900</v>
       </c>
       <c r="M54" s="3">
+        <v>2900</v>
+      </c>
+      <c r="N54" s="3">
         <v>3000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1800</v>
-      </c>
-      <c r="P54" s="3">
-        <v>1100</v>
       </c>
       <c r="Q54" s="3">
         <v>1100</v>
       </c>
       <c r="R54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="S54" s="3">
         <v>1500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,8 +3141,9 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3020,7 +3151,7 @@
         <v>300</v>
       </c>
       <c r="E57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F57" s="3">
         <v>200</v>
@@ -3029,7 +3160,7 @@
         <v>200</v>
       </c>
       <c r="H57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I57" s="3">
         <v>100</v>
@@ -3047,25 +3178,28 @@
         <v>100</v>
       </c>
       <c r="N57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O57" s="3">
         <v>0</v>
       </c>
       <c r="P57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="3">
         <v>400</v>
       </c>
-      <c r="Q57" s="3">
-        <v>0</v>
-      </c>
       <c r="R57" s="3">
         <v>0</v>
       </c>
       <c r="S57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3100,25 +3234,28 @@
         <v>0</v>
       </c>
       <c r="N58" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="O58" s="3">
         <v>800</v>
       </c>
       <c r="P58" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q58" s="3">
         <v>300</v>
       </c>
-      <c r="Q58" s="3">
-        <v>100</v>
-      </c>
-      <c r="R58" s="3" t="s">
-        <v>8</v>
+      <c r="R58" s="3">
+        <v>100</v>
       </c>
       <c r="S58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3162,7 +3299,7 @@
         <v>0</v>
       </c>
       <c r="Q59" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="R59" s="3">
         <v>400</v>
@@ -3170,8 +3307,11 @@
       <c r="S59" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3179,7 +3319,7 @@
         <v>300</v>
       </c>
       <c r="E60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F60" s="3">
         <v>200</v>
@@ -3188,7 +3328,7 @@
         <v>200</v>
       </c>
       <c r="H60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I60" s="3">
         <v>100</v>
@@ -3206,16 +3346,16 @@
         <v>100</v>
       </c>
       <c r="N60" s="3">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="O60" s="3">
         <v>800</v>
       </c>
       <c r="P60" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q60" s="3">
         <v>600</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>400</v>
       </c>
       <c r="R60" s="3">
         <v>400</v>
@@ -3223,43 +3363,46 @@
       <c r="S60" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E61" s="3">
         <v>2800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1900</v>
-      </c>
-      <c r="J61" s="3">
-        <v>1700</v>
       </c>
       <c r="K61" s="3">
         <v>1700</v>
       </c>
       <c r="L61" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="M61" s="3">
         <v>1600</v>
       </c>
       <c r="N61" s="3">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="O61" s="3">
         <v>0</v>
@@ -3276,8 +3419,11 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3312,7 +3458,7 @@
         <v>100</v>
       </c>
       <c r="N62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,31 +3643,34 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E66" s="3">
         <v>3100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2000</v>
-      </c>
-      <c r="J66" s="3">
-        <v>1800</v>
       </c>
       <c r="K66" s="3">
         <v>1800</v>
@@ -3521,28 +3679,31 @@
         <v>1800</v>
       </c>
       <c r="M66" s="3">
+        <v>1800</v>
+      </c>
+      <c r="N66" s="3">
         <v>1700</v>
-      </c>
-      <c r="N66" s="3">
-        <v>800</v>
       </c>
       <c r="O66" s="3">
         <v>800</v>
       </c>
       <c r="P66" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q66" s="3">
         <v>700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>500</v>
-      </c>
-      <c r="R66" s="3">
-        <v>400</v>
       </c>
       <c r="S66" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-8800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-8600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-6500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-6300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-6000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-5700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-5300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-5100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-4900</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-4700</v>
       </c>
       <c r="N72" s="3">
         <v>-4700</v>
       </c>
       <c r="O72" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="P72" s="3">
         <v>-2800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-2200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-1400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E76" s="3">
         <v>-2400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-2200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-100</v>
       </c>
-      <c r="G76" s="3">
-        <v>100</v>
-      </c>
       <c r="H76" s="3">
+        <v>100</v>
+      </c>
+      <c r="I76" s="3">
         <v>400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,66 +4281,72 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44074</v>
+      </c>
+      <c r="E80" s="2">
         <v>43982</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43890</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43799</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43708</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43616</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43524</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43434</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43343</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43251</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43159</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43069</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42978</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42886</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42794</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42704</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4159,13 +4354,13 @@
         <v>-200</v>
       </c>
       <c r="E81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F81" s="3">
         <v>-2000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-200</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-300</v>
       </c>
       <c r="H81" s="3">
         <v>-300</v>
@@ -4174,7 +4369,7 @@
         <v>-300</v>
       </c>
       <c r="J81" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="K81" s="3">
         <v>-200</v>
@@ -4183,28 +4378,31 @@
         <v>-200</v>
       </c>
       <c r="M81" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
         <v>-400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-800</v>
-      </c>
-      <c r="R81" s="3">
-        <v>-400</v>
       </c>
       <c r="S81" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4233,23 +4432,23 @@
         <v>0</v>
       </c>
       <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
         <v>600</v>
       </c>
-      <c r="F83" s="3">
-        <v>100</v>
-      </c>
       <c r="G83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H83" s="3">
         <v>0</v>
       </c>
       <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
         <v>200</v>
       </c>
-      <c r="J83" s="3">
-        <v>0</v>
-      </c>
       <c r="K83" s="3">
         <v>0</v>
       </c>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,8 +4756,11 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4557,46 +4774,49 @@
         <v>-100</v>
       </c>
       <c r="G89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="H89" s="3">
         <v>-200</v>
       </c>
       <c r="I89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
       <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
         <v>-200</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
       <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
         <v>-300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-100</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-200</v>
       </c>
       <c r="P89" s="3">
         <v>-200</v>
       </c>
       <c r="Q89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R89" s="3">
         <v>-500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,22 +4836,23 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
+      <c r="E91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>8</v>
+      <c r="G91" s="3">
+        <v>0</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>8</v>
@@ -4648,29 +4869,32 @@
       <c r="L91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M91" s="3">
+      <c r="M91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N91" s="3">
         <v>-1600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>200</v>
-      </c>
-      <c r="O91" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="Q91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R91" s="3">
         <v>-100</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
-      <c r="S91" s="3" t="s">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,13 +5002,16 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>0</v>
+      <c r="D94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -4790,46 +5020,49 @@
         <v>0</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-300</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>8</v>
+      <c r="K94" s="3">
+        <v>0</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M94" s="3">
+      <c r="M94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N94" s="3">
         <v>-1600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-200</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>-100</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,8 +5304,11 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5070,52 +5316,55 @@
         <v>100</v>
       </c>
       <c r="E100" s="3">
+        <v>100</v>
+      </c>
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
-        <v>100</v>
-      </c>
       <c r="G100" s="3">
+        <v>100</v>
+      </c>
+      <c r="H100" s="3">
         <v>400</v>
-      </c>
-      <c r="H100" s="3">
-        <v>200</v>
       </c>
       <c r="I100" s="3">
         <v>200</v>
       </c>
       <c r="J100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>1600</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>900</v>
-      </c>
-      <c r="P100" s="3">
-        <v>200</v>
       </c>
       <c r="Q100" s="3">
         <v>200</v>
       </c>
       <c r="R100" s="3">
+        <v>200</v>
+      </c>
+      <c r="S100" s="3">
         <v>600</v>
       </c>
-      <c r="S100" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,8 +5416,11 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5176,48 +5428,51 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>-300</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>500</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>-400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NRIS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NRIS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
   <si>
     <t>NRIS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,89 +665,92 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44165</v>
+      </c>
+      <c r="E7" s="2">
         <v>44074</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43982</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43890</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43799</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43708</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43616</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43524</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43434</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43343</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43251</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43159</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43069</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42978</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42886</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42794</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42704</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -755,17 +758,17 @@
         <v>100</v>
       </c>
       <c r="E8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G8" s="3">
+        <v>100</v>
+      </c>
+      <c r="H8" s="3">
         <v>200</v>
       </c>
-      <c r="H8" s="3">
-        <v>100</v>
-      </c>
       <c r="I8" s="3">
         <v>100</v>
       </c>
@@ -785,7 +788,7 @@
         <v>100</v>
       </c>
       <c r="O8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P8" s="3">
         <v>0</v>
@@ -800,10 +803,13 @@
         <v>0</v>
       </c>
       <c r="T8" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -811,10 +817,10 @@
         <v>200</v>
       </c>
       <c r="E9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G9" s="3">
         <v>200</v>
@@ -826,7 +832,7 @@
         <v>200</v>
       </c>
       <c r="J9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K9" s="3">
         <v>100</v>
@@ -841,7 +847,7 @@
         <v>100</v>
       </c>
       <c r="O9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P9" s="3">
         <v>0</v>
@@ -856,10 +862,13 @@
         <v>0</v>
       </c>
       <c r="T9" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="U9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -873,16 +882,16 @@
         <v>-100</v>
       </c>
       <c r="G10" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H10" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I10" s="3">
         <v>-100</v>
       </c>
       <c r="J10" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K10" s="3">
         <v>0</v>
@@ -914,8 +923,11 @@
       <c r="T10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,8 +948,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -992,8 +1005,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1064,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1059,11 +1078,11 @@
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3">
         <v>1300</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -1074,29 +1093,29 @@
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>900</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>8</v>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>8</v>
@@ -1104,8 +1123,11 @@
       <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1116,22 +1138,22 @@
         <v>0</v>
       </c>
       <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
         <v>600</v>
       </c>
-      <c r="G15" s="3">
-        <v>100</v>
-      </c>
       <c r="H15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I15" s="3">
         <v>0</v>
       </c>
       <c r="J15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L15" s="3">
         <v>0</v>
@@ -1160,8 +1182,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,8 +1204,9 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1188,25 +1214,25 @@
         <v>300</v>
       </c>
       <c r="E17" s="3">
+        <v>300</v>
+      </c>
+      <c r="F17" s="3">
         <v>200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>500</v>
-      </c>
-      <c r="I17" s="3">
-        <v>400</v>
       </c>
       <c r="J17" s="3">
         <v>400</v>
       </c>
       <c r="K17" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L17" s="3">
         <v>300</v>
@@ -1215,28 +1241,31 @@
         <v>300</v>
       </c>
       <c r="N17" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="O17" s="3">
+        <v>100</v>
+      </c>
+      <c r="P17" s="3">
         <v>400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>800</v>
-      </c>
-      <c r="S17" s="3">
-        <v>400</v>
       </c>
       <c r="T17" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1247,22 +1276,22 @@
         <v>-200</v>
       </c>
       <c r="F18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G18" s="3">
         <v>-2100</v>
       </c>
-      <c r="G18" s="3">
-        <v>-200</v>
-      </c>
       <c r="H18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I18" s="3">
         <v>-400</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-300</v>
       </c>
       <c r="J18" s="3">
         <v>-300</v>
       </c>
       <c r="K18" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="L18" s="3">
         <v>-200</v>
@@ -1271,28 +1300,31 @@
         <v>-200</v>
       </c>
       <c r="N18" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
         <v>-400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1345,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1361,72 +1394,78 @@
         <v>0</v>
       </c>
       <c r="R20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E21" s="3">
         <v>-100</v>
       </c>
-      <c r="E21" s="3">
-        <v>-200</v>
-      </c>
       <c r="F21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G21" s="3">
         <v>-1400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-300</v>
       </c>
-      <c r="I21" s="3">
-        <v>-200</v>
-      </c>
       <c r="J21" s="3">
         <v>-200</v>
       </c>
       <c r="K21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L21" s="3">
         <v>-100</v>
       </c>
-      <c r="L21" s="3">
-        <v>-200</v>
-      </c>
       <c r="M21" s="3">
         <v>-200</v>
       </c>
       <c r="N21" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="O21" s="3">
+        <v>0</v>
+      </c>
+      <c r="P21" s="3">
         <v>-400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-700</v>
-      </c>
-      <c r="S21" s="3">
-        <v>-400</v>
       </c>
       <c r="T21" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1475,14 +1514,17 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>8</v>
+      <c r="S22" s="3">
+        <v>0</v>
       </c>
       <c r="T22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1493,13 +1535,13 @@
         <v>-200</v>
       </c>
       <c r="F23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G23" s="3">
         <v>-2000</v>
       </c>
-      <c r="G23" s="3">
-        <v>-200</v>
-      </c>
       <c r="H23" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="I23" s="3">
         <v>-300</v>
@@ -1508,7 +1550,7 @@
         <v>-300</v>
       </c>
       <c r="K23" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="L23" s="3">
         <v>-200</v>
@@ -1517,28 +1559,31 @@
         <v>-200</v>
       </c>
       <c r="N23" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
         <v>-400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-800</v>
-      </c>
-      <c r="S23" s="3">
-        <v>-400</v>
       </c>
       <c r="T23" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1638,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,8 +1697,11 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1661,13 +1712,13 @@
         <v>-200</v>
       </c>
       <c r="F26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G26" s="3">
         <v>-2000</v>
       </c>
-      <c r="G26" s="3">
-        <v>-200</v>
-      </c>
       <c r="H26" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="I26" s="3">
         <v>-300</v>
@@ -1676,7 +1727,7 @@
         <v>-300</v>
       </c>
       <c r="K26" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="L26" s="3">
         <v>-200</v>
@@ -1685,28 +1736,31 @@
         <v>-200</v>
       </c>
       <c r="N26" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
         <v>-400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-800</v>
-      </c>
-      <c r="S26" s="3">
-        <v>-400</v>
       </c>
       <c r="T26" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1717,13 +1771,13 @@
         <v>-200</v>
       </c>
       <c r="F27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G27" s="3">
         <v>-2000</v>
       </c>
-      <c r="G27" s="3">
-        <v>-200</v>
-      </c>
       <c r="H27" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="I27" s="3">
         <v>-300</v>
@@ -1732,7 +1786,7 @@
         <v>-300</v>
       </c>
       <c r="K27" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="L27" s="3">
         <v>-200</v>
@@ -1741,28 +1795,31 @@
         <v>-200</v>
       </c>
       <c r="N27" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
         <v>-400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-800</v>
-      </c>
-      <c r="S27" s="3">
-        <v>-400</v>
       </c>
       <c r="T27" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1933,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2051,11 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2033,16 +2102,19 @@
         <v>0</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>-100</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2053,13 +2125,13 @@
         <v>-200</v>
       </c>
       <c r="F33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G33" s="3">
         <v>-2000</v>
       </c>
-      <c r="G33" s="3">
-        <v>-200</v>
-      </c>
       <c r="H33" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="I33" s="3">
         <v>-300</v>
@@ -2068,7 +2140,7 @@
         <v>-300</v>
       </c>
       <c r="K33" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="L33" s="3">
         <v>-200</v>
@@ -2077,28 +2149,31 @@
         <v>-200</v>
       </c>
       <c r="N33" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
         <v>-400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-800</v>
-      </c>
-      <c r="S33" s="3">
-        <v>-400</v>
       </c>
       <c r="T33" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,8 +2228,11 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2165,13 +2243,13 @@
         <v>-200</v>
       </c>
       <c r="F35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G35" s="3">
         <v>-2000</v>
       </c>
-      <c r="G35" s="3">
-        <v>-200</v>
-      </c>
       <c r="H35" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="I35" s="3">
         <v>-300</v>
@@ -2180,7 +2258,7 @@
         <v>-300</v>
       </c>
       <c r="K35" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="L35" s="3">
         <v>-200</v>
@@ -2189,89 +2267,95 @@
         <v>-200</v>
       </c>
       <c r="N35" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
         <v>-400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-800</v>
-      </c>
-      <c r="S35" s="3">
-        <v>-400</v>
       </c>
       <c r="T35" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44165</v>
+      </c>
+      <c r="E38" s="2">
         <v>44074</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43982</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43890</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43799</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43708</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43616</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43524</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43434</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43343</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43251</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43159</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43069</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42978</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42886</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42794</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42704</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,8 +2399,9 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2326,11 +2412,11 @@
         <v>100</v>
       </c>
       <c r="F41" s="3">
+        <v>100</v>
+      </c>
+      <c r="G41" s="3">
         <v>200</v>
       </c>
-      <c r="G41" s="3">
-        <v>100</v>
-      </c>
       <c r="H41" s="3">
         <v>100</v>
       </c>
@@ -2347,31 +2433,34 @@
         <v>100</v>
       </c>
       <c r="M41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N41" s="3">
         <v>200</v>
       </c>
       <c r="O41" s="3">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="P41" s="3">
         <v>600</v>
       </c>
       <c r="Q41" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="R41" s="3">
         <v>100</v>
       </c>
       <c r="S41" s="3">
+        <v>100</v>
+      </c>
+      <c r="T41" s="3">
         <v>500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,8 +2515,11 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2441,7 +2533,7 @@
         <v>0</v>
       </c>
       <c r="G43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H43" s="3">
         <v>100</v>
@@ -2456,16 +2548,16 @@
         <v>100</v>
       </c>
       <c r="L43" s="3">
+        <v>100</v>
+      </c>
+      <c r="M43" s="3">
         <v>200</v>
       </c>
-      <c r="M43" s="3">
-        <v>100</v>
-      </c>
       <c r="N43" s="3">
         <v>100</v>
       </c>
       <c r="O43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P43" s="3">
         <v>0</v>
@@ -2482,8 +2574,11 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,8 +2633,11 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2577,25 +2675,28 @@
         <v>0</v>
       </c>
       <c r="O45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P45" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q45" s="3">
         <v>300</v>
       </c>
-      <c r="Q45" s="3">
-        <v>100</v>
-      </c>
       <c r="R45" s="3">
+        <v>100</v>
+      </c>
+      <c r="S45" s="3">
         <v>400</v>
       </c>
-      <c r="S45" s="3">
-        <v>100</v>
-      </c>
       <c r="T45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2606,13 +2707,13 @@
         <v>100</v>
       </c>
       <c r="F46" s="3">
+        <v>100</v>
+      </c>
+      <c r="G46" s="3">
         <v>200</v>
       </c>
-      <c r="G46" s="3">
-        <v>100</v>
-      </c>
       <c r="H46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I46" s="3">
         <v>200</v>
@@ -2621,37 +2722,40 @@
         <v>200</v>
       </c>
       <c r="K46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L46" s="3">
+        <v>100</v>
+      </c>
+      <c r="M46" s="3">
         <v>200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>900</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>200</v>
       </c>
       <c r="R46" s="3">
         <v>200</v>
       </c>
       <c r="S46" s="3">
+        <v>200</v>
+      </c>
+      <c r="T46" s="3">
         <v>600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,8 +2810,11 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2715,25 +2822,25 @@
         <v>500</v>
       </c>
       <c r="E48" s="3">
+        <v>500</v>
+      </c>
+      <c r="F48" s="3">
         <v>600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>700</v>
-      </c>
-      <c r="G48" s="3">
-        <v>2600</v>
       </c>
       <c r="H48" s="3">
         <v>2600</v>
       </c>
       <c r="I48" s="3">
+        <v>2600</v>
+      </c>
+      <c r="J48" s="3">
         <v>2400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2500</v>
-      </c>
-      <c r="K48" s="3">
-        <v>2600</v>
       </c>
       <c r="L48" s="3">
         <v>2600</v>
@@ -2742,10 +2849,10 @@
         <v>2600</v>
       </c>
       <c r="N48" s="3">
+        <v>2600</v>
+      </c>
+      <c r="O48" s="3">
         <v>2700</v>
-      </c>
-      <c r="O48" s="3">
-        <v>900</v>
       </c>
       <c r="P48" s="3">
         <v>900</v>
@@ -2762,8 +2869,11 @@
       <c r="T48" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2818,8 +2928,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3046,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2986,8 +3105,11 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,8 +3164,11 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3054,52 +3179,55 @@
         <v>700</v>
       </c>
       <c r="F54" s="3">
+        <v>700</v>
+      </c>
+      <c r="G54" s="3">
         <v>900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2600</v>
-      </c>
-      <c r="J54" s="3">
-        <v>2700</v>
       </c>
       <c r="K54" s="3">
         <v>2700</v>
       </c>
       <c r="L54" s="3">
-        <v>2900</v>
+        <v>2700</v>
       </c>
       <c r="M54" s="3">
         <v>2900</v>
       </c>
       <c r="N54" s="3">
+        <v>2900</v>
+      </c>
+      <c r="O54" s="3">
         <v>3000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1800</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>1100</v>
       </c>
       <c r="R54" s="3">
         <v>1100</v>
       </c>
       <c r="S54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="T54" s="3">
         <v>1500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,8 +3271,9 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3154,7 +3284,7 @@
         <v>300</v>
       </c>
       <c r="F57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G57" s="3">
         <v>200</v>
@@ -3163,7 +3293,7 @@
         <v>200</v>
       </c>
       <c r="I57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J57" s="3">
         <v>100</v>
@@ -3181,25 +3311,28 @@
         <v>100</v>
       </c>
       <c r="O57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P57" s="3">
         <v>0</v>
       </c>
       <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+      <c r="R57" s="3">
         <v>400</v>
       </c>
-      <c r="R57" s="3">
-        <v>0</v>
-      </c>
       <c r="S57" s="3">
         <v>0</v>
       </c>
       <c r="T57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3237,25 +3370,28 @@
         <v>0</v>
       </c>
       <c r="O58" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="P58" s="3">
         <v>800</v>
       </c>
       <c r="Q58" s="3">
+        <v>800</v>
+      </c>
+      <c r="R58" s="3">
         <v>300</v>
       </c>
-      <c r="R58" s="3">
-        <v>100</v>
-      </c>
-      <c r="S58" s="3" t="s">
-        <v>8</v>
+      <c r="S58" s="3">
+        <v>100</v>
       </c>
       <c r="T58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3302,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="R59" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="S59" s="3">
         <v>400</v>
@@ -3310,8 +3446,11 @@
       <c r="T59" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3322,7 +3461,7 @@
         <v>300</v>
       </c>
       <c r="F60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G60" s="3">
         <v>200</v>
@@ -3331,7 +3470,7 @@
         <v>200</v>
       </c>
       <c r="I60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J60" s="3">
         <v>100</v>
@@ -3349,16 +3488,16 @@
         <v>100</v>
       </c>
       <c r="O60" s="3">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="P60" s="3">
         <v>800</v>
       </c>
       <c r="Q60" s="3">
+        <v>800</v>
+      </c>
+      <c r="R60" s="3">
         <v>600</v>
-      </c>
-      <c r="R60" s="3">
-        <v>400</v>
       </c>
       <c r="S60" s="3">
         <v>400</v>
@@ -3366,46 +3505,49 @@
       <c r="T60" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E61" s="3">
         <v>2900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1900</v>
-      </c>
-      <c r="K61" s="3">
-        <v>1700</v>
       </c>
       <c r="L61" s="3">
         <v>1700</v>
       </c>
       <c r="M61" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="N61" s="3">
         <v>1600</v>
       </c>
       <c r="O61" s="3">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="P61" s="3">
         <v>0</v>
@@ -3422,8 +3564,11 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3461,7 +3606,7 @@
         <v>100</v>
       </c>
       <c r="O62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P62" s="3">
         <v>0</v>
@@ -3478,8 +3623,11 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,34 +3800,37 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E66" s="3">
         <v>3300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2000</v>
-      </c>
-      <c r="K66" s="3">
-        <v>1800</v>
       </c>
       <c r="L66" s="3">
         <v>1800</v>
@@ -3682,28 +3839,31 @@
         <v>1800</v>
       </c>
       <c r="N66" s="3">
+        <v>1800</v>
+      </c>
+      <c r="O66" s="3">
         <v>1700</v>
-      </c>
-      <c r="O66" s="3">
-        <v>800</v>
       </c>
       <c r="P66" s="3">
         <v>800</v>
       </c>
       <c r="Q66" s="3">
+        <v>800</v>
+      </c>
+      <c r="R66" s="3">
         <v>700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>500</v>
-      </c>
-      <c r="S66" s="3">
-        <v>400</v>
       </c>
       <c r="T66" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4118,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-9000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-8800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-8600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-6500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-6300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-6000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-5700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-5300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-5100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-4900</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-4700</v>
       </c>
       <c r="O72" s="3">
         <v>-4700</v>
       </c>
       <c r="P72" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-2500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-2200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-1400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4354,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E76" s="3">
         <v>-2600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-2400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-2200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-100</v>
       </c>
-      <c r="H76" s="3">
-        <v>100</v>
-      </c>
       <c r="I76" s="3">
+        <v>100</v>
+      </c>
+      <c r="J76" s="3">
         <v>400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,69 +4472,75 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44165</v>
+      </c>
+      <c r="E80" s="2">
         <v>44074</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43982</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43890</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43799</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43708</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43616</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43524</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43434</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43343</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43251</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43159</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43069</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42978</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42886</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42794</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42704</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4357,13 +4551,13 @@
         <v>-200</v>
       </c>
       <c r="F81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G81" s="3">
         <v>-2000</v>
       </c>
-      <c r="G81" s="3">
-        <v>-200</v>
-      </c>
       <c r="H81" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="I81" s="3">
         <v>-300</v>
@@ -4372,7 +4566,7 @@
         <v>-300</v>
       </c>
       <c r="K81" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="L81" s="3">
         <v>-200</v>
@@ -4381,28 +4575,31 @@
         <v>-200</v>
       </c>
       <c r="N81" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
         <v>-400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-800</v>
-      </c>
-      <c r="S81" s="3">
-        <v>-400</v>
       </c>
       <c r="T81" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4620,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4435,23 +4633,23 @@
         <v>0</v>
       </c>
       <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3">
         <v>600</v>
       </c>
-      <c r="G83" s="3">
-        <v>100</v>
-      </c>
       <c r="H83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I83" s="3">
         <v>0</v>
       </c>
       <c r="J83" s="3">
+        <v>0</v>
+      </c>
+      <c r="K83" s="3">
         <v>200</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
       <c r="L83" s="3">
         <v>0</v>
       </c>
@@ -4479,8 +4677,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,13 +4972,16 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E89" s="3">
         <v>-100</v>
@@ -4777,46 +4993,49 @@
         <v>-100</v>
       </c>
       <c r="H89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="I89" s="3">
         <v>-200</v>
       </c>
       <c r="J89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
       <c r="L89" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="M89" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
         <v>-300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
-        <v>-200</v>
-      </c>
       <c r="Q89" s="3">
         <v>-200</v>
       </c>
       <c r="R89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S89" s="3">
         <v>-500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5056,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4848,14 +5068,14 @@
       <c r="E91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
+      <c r="F91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>8</v>
+      <c r="H91" s="3">
+        <v>0</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>8</v>
@@ -4872,29 +5092,32 @@
       <c r="M91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N91" s="3">
+      <c r="N91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O91" s="3">
         <v>-1600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>200</v>
-      </c>
-      <c r="P91" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R91" s="3">
+      <c r="R91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S91" s="3">
         <v>-100</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
-      <c r="T91" s="3" t="s">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,16 +5231,19 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
+      <c r="E94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
@@ -5023,46 +5252,49 @@
         <v>0</v>
       </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-300</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>8</v>
+      <c r="L94" s="3">
+        <v>0</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N94" s="3">
+      <c r="N94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O94" s="3">
         <v>-1600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>200</v>
       </c>
-      <c r="P94" s="3">
-        <v>-200</v>
-      </c>
       <c r="Q94" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>-100</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5372,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,64 +5549,70 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E100" s="3">
         <v>100</v>
       </c>
       <c r="F100" s="3">
+        <v>100</v>
+      </c>
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
-        <v>100</v>
-      </c>
       <c r="H100" s="3">
+        <v>100</v>
+      </c>
+      <c r="I100" s="3">
         <v>400</v>
-      </c>
-      <c r="I100" s="3">
-        <v>200</v>
       </c>
       <c r="J100" s="3">
         <v>200</v>
       </c>
       <c r="K100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>1600</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>900</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>200</v>
       </c>
       <c r="R100" s="3">
         <v>200</v>
       </c>
       <c r="S100" s="3">
+        <v>200</v>
+      </c>
+      <c r="T100" s="3">
         <v>600</v>
       </c>
-      <c r="T100" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,8 +5667,11 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5431,48 +5682,51 @@
         <v>0</v>
       </c>
       <c r="F102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-300</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>500</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>-400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NRIS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NRIS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="92">
   <si>
     <t>NRIS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,92 +665,100 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44347</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44255</v>
+      </c>
+      <c r="F7" s="2">
         <v>44165</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44074</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43982</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43890</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43799</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43708</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43616</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43524</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43434</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43343</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43251</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43159</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43069</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42978</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42886</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42794</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42704</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -761,20 +769,20 @@
         <v>100</v>
       </c>
       <c r="F8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G8" s="3">
         <v>100</v>
       </c>
       <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
+        <v>100</v>
+      </c>
+      <c r="J8" s="3">
         <v>200</v>
       </c>
-      <c r="I8" s="3">
-        <v>100</v>
-      </c>
-      <c r="J8" s="3">
-        <v>100</v>
-      </c>
       <c r="K8" s="3">
         <v>100</v>
       </c>
@@ -791,10 +799,10 @@
         <v>100</v>
       </c>
       <c r="P8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R8" s="3">
         <v>0</v>
@@ -806,10 +814,16 @@
         <v>0</v>
       </c>
       <c r="U8" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+      <c r="W8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -817,16 +831,16 @@
         <v>200</v>
       </c>
       <c r="E9" s="3">
+        <v>100</v>
+      </c>
+      <c r="F9" s="3">
         <v>200</v>
-      </c>
-      <c r="F9" s="3">
-        <v>100</v>
       </c>
       <c r="G9" s="3">
         <v>200</v>
       </c>
       <c r="H9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I9" s="3">
         <v>200</v>
@@ -835,10 +849,10 @@
         <v>200</v>
       </c>
       <c r="K9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M9" s="3">
         <v>100</v>
@@ -850,10 +864,10 @@
         <v>100</v>
       </c>
       <c r="P9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R9" s="3">
         <v>0</v>
@@ -865,10 +879,16 @@
         <v>0</v>
       </c>
       <c r="U9" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="V9" s="3">
+        <v>0</v>
+      </c>
+      <c r="W9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -876,7 +896,7 @@
         <v>-100</v>
       </c>
       <c r="E10" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F10" s="3">
         <v>-100</v>
@@ -885,19 +905,19 @@
         <v>-100</v>
       </c>
       <c r="H10" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I10" s="3">
         <v>-100</v>
       </c>
       <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
         <v>-100</v>
       </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
       <c r="L10" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M10" s="3">
         <v>0</v>
@@ -926,8 +946,14 @@
       <c r="U10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3">
+        <v>0</v>
+      </c>
+      <c r="W10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -949,8 +975,10 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1008,8 +1036,14 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,28 +1101,34 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
+      <c r="E14" s="3">
+        <v>200</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
-        <v>1300</v>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
+      <c r="I14" s="3">
+        <v>1300</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
@@ -1096,38 +1136,44 @@
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
+      <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="M14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>900</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>8</v>
+      <c r="T14" s="3">
+        <v>0</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1135,31 +1181,31 @@
         <v>0</v>
       </c>
       <c r="E15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F15" s="3">
         <v>0</v>
       </c>
       <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
         <v>600</v>
       </c>
-      <c r="H15" s="3">
-        <v>100</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
       <c r="J15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L15" s="3">
         <v>0</v>
       </c>
       <c r="M15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N15" s="3">
         <v>0</v>
@@ -1185,8 +1231,14 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,8 +1257,10 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1214,58 +1268,64 @@
         <v>300</v>
       </c>
       <c r="E17" s="3">
+        <v>500</v>
+      </c>
+      <c r="F17" s="3">
         <v>300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
+        <v>300</v>
+      </c>
+      <c r="H17" s="3">
         <v>200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>2200</v>
-      </c>
-      <c r="H17" s="3">
-        <v>400</v>
-      </c>
-      <c r="I17" s="3">
-        <v>500</v>
       </c>
       <c r="J17" s="3">
         <v>400</v>
       </c>
       <c r="K17" s="3">
+        <v>500</v>
+      </c>
+      <c r="L17" s="3">
         <v>400</v>
       </c>
-      <c r="L17" s="3">
-        <v>300</v>
-      </c>
       <c r="M17" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N17" s="3">
         <v>300</v>
       </c>
       <c r="O17" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="P17" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>100</v>
+      </c>
+      <c r="R17" s="3">
         <v>400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>1800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1273,58 +1333,64 @@
         <v>-200</v>
       </c>
       <c r="E18" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="F18" s="3">
         <v>-200</v>
       </c>
       <c r="G18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I18" s="3">
         <v>-2100</v>
       </c>
-      <c r="H18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K18" s="3">
         <v>-400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-300</v>
       </c>
-      <c r="L18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-200</v>
-      </c>
       <c r="N18" s="3">
         <v>-200</v>
       </c>
       <c r="O18" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="P18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
         <v>-400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-1800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,8 +1412,10 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1397,16 +1465,22 @@
         <v>0</v>
       </c>
       <c r="S20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
       <c r="U20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1414,58 +1488,64 @@
         <v>-200</v>
       </c>
       <c r="E21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G21" s="3">
         <v>-100</v>
       </c>
-      <c r="F21" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I21" s="3">
         <v>-1400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-300</v>
       </c>
-      <c r="J21" s="3">
-        <v>-200</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-200</v>
-      </c>
       <c r="L21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N21" s="3">
         <v>-100</v>
       </c>
-      <c r="M21" s="3">
-        <v>-200</v>
-      </c>
-      <c r="N21" s="3">
-        <v>-200</v>
-      </c>
       <c r="O21" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="P21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>0</v>
+      </c>
+      <c r="R21" s="3">
         <v>-400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-1800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1517,14 +1597,20 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-      <c r="T22" s="3" t="s">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U22" s="3" t="s">
+      <c r="W22" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1532,58 +1618,64 @@
         <v>-200</v>
       </c>
       <c r="E23" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="F23" s="3">
         <v>-200</v>
       </c>
       <c r="G23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I23" s="3">
         <v>-2000</v>
       </c>
-      <c r="H23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-300</v>
-      </c>
       <c r="J23" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="K23" s="3">
         <v>-300</v>
       </c>
       <c r="L23" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="M23" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="N23" s="3">
         <v>-200</v>
       </c>
       <c r="O23" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="P23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
         <v>-400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-1800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1641,8 +1733,14 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,8 +1798,14 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1709,58 +1813,64 @@
         <v>-200</v>
       </c>
       <c r="E26" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="F26" s="3">
         <v>-200</v>
       </c>
       <c r="G26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I26" s="3">
         <v>-2000</v>
       </c>
-      <c r="H26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-300</v>
-      </c>
       <c r="J26" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="K26" s="3">
         <v>-300</v>
       </c>
       <c r="L26" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="M26" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="N26" s="3">
         <v>-200</v>
       </c>
       <c r="O26" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="P26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
         <v>-400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-1800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1768,58 +1878,64 @@
         <v>-200</v>
       </c>
       <c r="E27" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="F27" s="3">
         <v>-200</v>
       </c>
       <c r="G27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I27" s="3">
         <v>-2000</v>
       </c>
-      <c r="H27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-300</v>
-      </c>
       <c r="J27" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="K27" s="3">
         <v>-300</v>
       </c>
       <c r="L27" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="M27" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="N27" s="3">
         <v>-200</v>
       </c>
       <c r="O27" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="P27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
         <v>-400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-1800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1993,14 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1936,8 +2058,14 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2123,14 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,8 +2188,14 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2105,16 +2245,22 @@
         <v>0</v>
       </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>-100</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2122,58 +2268,64 @@
         <v>-200</v>
       </c>
       <c r="E33" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="F33" s="3">
         <v>-200</v>
       </c>
       <c r="G33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I33" s="3">
         <v>-2000</v>
       </c>
-      <c r="H33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-300</v>
-      </c>
       <c r="J33" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="K33" s="3">
         <v>-300</v>
       </c>
       <c r="L33" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="M33" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="N33" s="3">
         <v>-200</v>
       </c>
       <c r="O33" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="P33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
         <v>-400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-1800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,8 +2383,14 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2240,122 +2398,134 @@
         <v>-200</v>
       </c>
       <c r="E35" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="F35" s="3">
         <v>-200</v>
       </c>
       <c r="G35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I35" s="3">
         <v>-2000</v>
       </c>
-      <c r="H35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-300</v>
-      </c>
       <c r="J35" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="K35" s="3">
         <v>-300</v>
       </c>
       <c r="L35" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="M35" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="N35" s="3">
         <v>-200</v>
       </c>
       <c r="O35" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="P35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
         <v>-400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-1800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44347</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44255</v>
+      </c>
+      <c r="F38" s="2">
         <v>44165</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44074</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43982</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43890</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43799</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43708</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43616</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43524</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43434</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43343</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43251</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43159</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43069</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42978</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42886</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42794</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42704</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2547,10 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,8 +2572,10 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2409,20 +2583,20 @@
         <v>100</v>
       </c>
       <c r="E41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F41" s="3">
         <v>100</v>
       </c>
       <c r="G41" s="3">
+        <v>100</v>
+      </c>
+      <c r="H41" s="3">
+        <v>100</v>
+      </c>
+      <c r="I41" s="3">
         <v>200</v>
       </c>
-      <c r="H41" s="3">
-        <v>100</v>
-      </c>
-      <c r="I41" s="3">
-        <v>100</v>
-      </c>
       <c r="J41" s="3">
         <v>100</v>
       </c>
@@ -2436,31 +2610,37 @@
         <v>100</v>
       </c>
       <c r="N41" s="3">
+        <v>100</v>
+      </c>
+      <c r="O41" s="3">
+        <v>100</v>
+      </c>
+      <c r="P41" s="3">
         <v>200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>600</v>
       </c>
-      <c r="R41" s="3">
-        <v>100</v>
-      </c>
-      <c r="S41" s="3">
-        <v>100</v>
-      </c>
       <c r="T41" s="3">
+        <v>100</v>
+      </c>
+      <c r="U41" s="3">
+        <v>100</v>
+      </c>
+      <c r="V41" s="3">
         <v>500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2518,8 +2698,14 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2536,10 +2722,10 @@
         <v>0</v>
       </c>
       <c r="H43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J43" s="3">
         <v>100</v>
@@ -2551,19 +2737,19 @@
         <v>100</v>
       </c>
       <c r="M43" s="3">
+        <v>100</v>
+      </c>
+      <c r="N43" s="3">
+        <v>100</v>
+      </c>
+      <c r="O43" s="3">
         <v>200</v>
       </c>
-      <c r="N43" s="3">
-        <v>100</v>
-      </c>
-      <c r="O43" s="3">
-        <v>100</v>
-      </c>
       <c r="P43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R43" s="3">
         <v>0</v>
@@ -2577,8 +2763,14 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2636,8 +2828,14 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2678,25 +2876,31 @@
         <v>0</v>
       </c>
       <c r="P45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
+        <v>100</v>
+      </c>
+      <c r="S45" s="3">
         <v>300</v>
       </c>
-      <c r="R45" s="3">
-        <v>100</v>
-      </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
+        <v>100</v>
+      </c>
+      <c r="U45" s="3">
         <v>400</v>
       </c>
-      <c r="T45" s="3">
-        <v>100</v>
-      </c>
-      <c r="U45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>100</v>
+      </c>
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2704,13 +2908,13 @@
         <v>100</v>
       </c>
       <c r="E46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F46" s="3">
         <v>100</v>
       </c>
       <c r="G46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H46" s="3">
         <v>100</v>
@@ -2719,43 +2923,49 @@
         <v>200</v>
       </c>
       <c r="J46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K46" s="3">
         <v>200</v>
       </c>
       <c r="L46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M46" s="3">
         <v>200</v>
       </c>
       <c r="N46" s="3">
+        <v>100</v>
+      </c>
+      <c r="O46" s="3">
+        <v>200</v>
+      </c>
+      <c r="P46" s="3">
         <v>300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2813,52 +3023,58 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>200</v>
+      </c>
+      <c r="E48" s="3">
+        <v>200</v>
+      </c>
+      <c r="F48" s="3">
         <v>500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>2600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>2600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>2400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>2500</v>
-      </c>
-      <c r="L48" s="3">
-        <v>2600</v>
-      </c>
-      <c r="M48" s="3">
-        <v>2600</v>
       </c>
       <c r="N48" s="3">
         <v>2600</v>
       </c>
       <c r="O48" s="3">
+        <v>2600</v>
+      </c>
+      <c r="P48" s="3">
+        <v>2600</v>
+      </c>
+      <c r="Q48" s="3">
         <v>2700</v>
-      </c>
-      <c r="P48" s="3">
-        <v>900</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>900</v>
       </c>
       <c r="R48" s="3">
         <v>900</v>
@@ -2872,8 +3088,14 @@
       <c r="U48" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3">
+        <v>900</v>
+      </c>
+      <c r="W48" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2931,8 +3153,14 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3218,14 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,8 +3283,14 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3108,8 +3348,14 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,67 +3413,79 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="E54" s="3">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="F54" s="3">
         <v>700</v>
       </c>
       <c r="G54" s="3">
+        <v>700</v>
+      </c>
+      <c r="H54" s="3">
+        <v>700</v>
+      </c>
+      <c r="I54" s="3">
         <v>900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>2700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>2800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>2600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>2700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>2700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>2900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>2900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>3000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>1800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>1100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>1100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>1500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3507,10 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,34 +3532,36 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F57" s="3">
         <v>300</v>
       </c>
       <c r="G57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I57" s="3">
         <v>200</v>
       </c>
       <c r="J57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L57" s="3">
         <v>100</v>
@@ -3314,48 +3576,54 @@
         <v>100</v>
       </c>
       <c r="P57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R57" s="3">
+        <v>0</v>
+      </c>
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+      <c r="T57" s="3">
         <v>400</v>
       </c>
-      <c r="S57" s="3">
-        <v>0</v>
-      </c>
-      <c r="T57" s="3">
-        <v>0</v>
-      </c>
       <c r="U57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+        <v>3100</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -3373,25 +3641,31 @@
         <v>0</v>
       </c>
       <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
         <v>800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>300</v>
       </c>
-      <c r="S58" s="3">
-        <v>100</v>
-      </c>
-      <c r="T58" s="3" t="s">
+      <c r="U58" s="3">
+        <v>100</v>
+      </c>
+      <c r="V58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U58" s="3" t="s">
+      <c r="W58" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3441,42 +3715,48 @@
         <v>0</v>
       </c>
       <c r="S59" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="T59" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="U59" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3">
+        <v>400</v>
+      </c>
+      <c r="W59" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>300</v>
+        <v>3500</v>
       </c>
       <c r="E60" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F60" s="3">
         <v>300</v>
       </c>
       <c r="G60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I60" s="3">
         <v>200</v>
       </c>
       <c r="J60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L60" s="3">
         <v>100</v>
@@ -3491,70 +3771,76 @@
         <v>100</v>
       </c>
       <c r="P60" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>100</v>
+      </c>
+      <c r="R60" s="3">
         <v>800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>600</v>
-      </c>
-      <c r="S60" s="3">
-        <v>400</v>
-      </c>
-      <c r="T60" s="3">
-        <v>400</v>
       </c>
       <c r="U60" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3">
+        <v>400</v>
+      </c>
+      <c r="W60" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>300</v>
+      </c>
+      <c r="E61" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F61" s="3">
         <v>3100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>2900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>2800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>2700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>2500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>2400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>2100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>1900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>1700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>1700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>1600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>1600</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
@@ -3567,8 +3853,14 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3609,10 +3901,10 @@
         <v>100</v>
       </c>
       <c r="P62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R62" s="3">
         <v>0</v>
@@ -3626,8 +3918,14 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3983,14 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +4048,14 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,67 +4113,79 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E66" s="3">
+        <v>3700</v>
+      </c>
+      <c r="F66" s="3">
         <v>3500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>3300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>3100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>3000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>2800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>2700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>2300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>2000</v>
-      </c>
-      <c r="L66" s="3">
-        <v>1800</v>
-      </c>
-      <c r="M66" s="3">
-        <v>1800</v>
       </c>
       <c r="N66" s="3">
         <v>1800</v>
       </c>
       <c r="O66" s="3">
+        <v>1800</v>
+      </c>
+      <c r="P66" s="3">
+        <v>1800</v>
+      </c>
+      <c r="Q66" s="3">
         <v>1700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4207,10 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4268,14 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4333,14 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4398,14 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4463,79 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-9900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="F72" s="3">
         <v>-9200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-9000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-8800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-8600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-6500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-6300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-6000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-5700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-5300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-5100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-4900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-4700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-4700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-2800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-2500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-2200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-1400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4593,14 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4658,14 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4723,79 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="F76" s="3">
         <v>-2900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-2600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-2400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-2200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-100</v>
       </c>
-      <c r="I76" s="3">
-        <v>100</v>
-      </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
+        <v>100</v>
+      </c>
+      <c r="L76" s="3">
         <v>400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>1000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>1200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>1300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>1000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>1100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,72 +4853,84 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44347</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44255</v>
+      </c>
+      <c r="F80" s="2">
         <v>44165</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44074</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43982</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43890</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43799</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43708</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43616</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43524</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43434</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43343</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43251</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43159</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43069</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42978</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42886</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42794</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42704</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4548,58 +4938,64 @@
         <v>-200</v>
       </c>
       <c r="E81" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="F81" s="3">
         <v>-200</v>
       </c>
       <c r="G81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I81" s="3">
         <v>-2000</v>
       </c>
-      <c r="H81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-300</v>
-      </c>
       <c r="J81" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="K81" s="3">
         <v>-300</v>
       </c>
       <c r="L81" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="M81" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="N81" s="3">
         <v>-200</v>
       </c>
       <c r="O81" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="P81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
         <v>-400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-1800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,8 +5017,10 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4630,32 +5028,32 @@
         <v>0</v>
       </c>
       <c r="E83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F83" s="3">
         <v>0</v>
       </c>
       <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
         <v>600</v>
       </c>
-      <c r="H83" s="3">
-        <v>100</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
       <c r="J83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
         <v>200</v>
       </c>
-      <c r="L83" s="3">
-        <v>0</v>
-      </c>
-      <c r="M83" s="3">
-        <v>0</v>
-      </c>
       <c r="N83" s="3">
         <v>0</v>
       </c>
@@ -4680,8 +5078,14 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +5143,14 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5208,14 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5273,14 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5338,14 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,8 +5403,14 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4984,10 +5418,10 @@
         <v>-200</v>
       </c>
       <c r="E89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="G89" s="3">
         <v>-100</v>
@@ -4996,46 +5430,52 @@
         <v>-100</v>
       </c>
       <c r="I89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="J89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="K89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
-      <c r="M89" s="3">
-        <v>-200</v>
-      </c>
       <c r="N89" s="3">
         <v>0</v>
       </c>
       <c r="O89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
-      <c r="Q89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="R89" s="3">
-        <v>-200</v>
-      </c>
       <c r="S89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U89" s="3">
         <v>-500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,8 +5497,10 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5071,17 +5513,17 @@
       <c r="F91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3" t="s">
+      <c r="G91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J91" s="3" t="s">
+      <c r="H91" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>8</v>
@@ -5095,29 +5537,35 @@
       <c r="N91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O91" s="3">
+      <c r="O91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-1600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>200</v>
       </c>
-      <c r="Q91" s="3" t="s">
+      <c r="S91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R91" s="3" t="s">
+      <c r="T91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-100</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
-      </c>
-      <c r="U91" s="3" t="s">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5623,14 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,8 +5688,14 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5245,56 +5705,62 @@
       <c r="E94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
+      <c r="F94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-300</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
-      <c r="M94" s="3" t="s">
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N94" s="3" t="s">
+      <c r="P94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-1600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>200</v>
       </c>
-      <c r="Q94" s="3">
-        <v>-200</v>
-      </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
       <c r="S94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
         <v>-100</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
-      <c r="U94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5782,10 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +5843,14 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5908,14 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5973,14 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,67 +6038,79 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>100</v>
+      </c>
+      <c r="E100" s="3">
+        <v>100</v>
+      </c>
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
-        <v>100</v>
-      </c>
-      <c r="F100" s="3">
-        <v>100</v>
-      </c>
       <c r="G100" s="3">
+        <v>100</v>
+      </c>
+      <c r="H100" s="3">
+        <v>100</v>
+      </c>
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
-        <v>100</v>
-      </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
+        <v>100</v>
+      </c>
+      <c r="K100" s="3">
         <v>400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>200</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3">
-        <v>100</v>
-      </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
       <c r="O100" s="3">
+        <v>100</v>
+      </c>
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>1600</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>600</v>
       </c>
-      <c r="U100" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5670,63 +6168,75 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F102" s="3">
         <v>0</v>
       </c>
       <c r="G102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H102" s="3">
         <v>0</v>
       </c>
       <c r="I102" s="3">
+        <v>100</v>
+      </c>
+      <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
-      <c r="K102" s="3">
-        <v>100</v>
-      </c>
       <c r="L102" s="3">
         <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>100</v>
+      </c>
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-300</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>500</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>-400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NRIS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NRIS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
   <si>
     <t>NRIS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,100 +665,104 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44439</v>
+      </c>
+      <c r="E7" s="2">
         <v>44347</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44255</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44165</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44074</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43982</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43890</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43799</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43708</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43616</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43524</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43434</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43343</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43251</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43159</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43069</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42978</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42886</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42794</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42704</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -775,17 +779,17 @@
         <v>100</v>
       </c>
       <c r="H8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J8" s="3">
+        <v>100</v>
+      </c>
+      <c r="K8" s="3">
         <v>200</v>
       </c>
-      <c r="K8" s="3">
-        <v>100</v>
-      </c>
       <c r="L8" s="3">
         <v>100</v>
       </c>
@@ -805,7 +809,7 @@
         <v>100</v>
       </c>
       <c r="R8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S8" s="3">
         <v>0</v>
@@ -820,30 +824,33 @@
         <v>0</v>
       </c>
       <c r="W8" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="X8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>100</v>
+      </c>
+      <c r="E9" s="3">
         <v>200</v>
       </c>
-      <c r="E9" s="3">
-        <v>100</v>
-      </c>
       <c r="F9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G9" s="3">
         <v>200</v>
       </c>
       <c r="H9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J9" s="3">
         <v>200</v>
@@ -855,7 +862,7 @@
         <v>200</v>
       </c>
       <c r="M9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N9" s="3">
         <v>100</v>
@@ -870,7 +877,7 @@
         <v>100</v>
       </c>
       <c r="R9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S9" s="3">
         <v>0</v>
@@ -885,21 +892,24 @@
         <v>0</v>
       </c>
       <c r="W9" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="X9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
         <v>-100</v>
       </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
       <c r="F10" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G10" s="3">
         <v>-100</v>
@@ -911,16 +921,16 @@
         <v>-100</v>
       </c>
       <c r="J10" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K10" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L10" s="3">
         <v>-100</v>
       </c>
       <c r="M10" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N10" s="3">
         <v>0</v>
@@ -952,8 +962,11 @@
       <c r="W10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,19 +1124,22 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3">
         <v>200</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -1127,11 +1147,11 @@
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3">
         <v>1300</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -1142,29 +1162,29 @@
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
         <v>0</v>
       </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>900</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>8</v>
+      <c r="U14" s="3">
+        <v>0</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>8</v>
@@ -1172,8 +1192,11 @@
       <c r="W14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1181,10 +1204,10 @@
         <v>0</v>
       </c>
       <c r="E15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G15" s="3">
         <v>0</v>
@@ -1193,22 +1216,22 @@
         <v>0</v>
       </c>
       <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
         <v>600</v>
       </c>
-      <c r="J15" s="3">
-        <v>100</v>
-      </c>
       <c r="K15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L15" s="3">
         <v>0</v>
       </c>
       <c r="M15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O15" s="3">
         <v>0</v>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,43 +1285,44 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>200</v>
+      </c>
+      <c r="E17" s="3">
         <v>300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>500</v>
-      </c>
-      <c r="F17" s="3">
-        <v>300</v>
       </c>
       <c r="G17" s="3">
         <v>300</v>
       </c>
       <c r="H17" s="3">
+        <v>300</v>
+      </c>
+      <c r="I17" s="3">
         <v>200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>500</v>
-      </c>
-      <c r="L17" s="3">
-        <v>400</v>
       </c>
       <c r="M17" s="3">
         <v>400</v>
       </c>
       <c r="N17" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="O17" s="3">
         <v>300</v>
@@ -1304,40 +1331,43 @@
         <v>300</v>
       </c>
       <c r="Q17" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="R17" s="3">
+        <v>100</v>
+      </c>
+      <c r="S17" s="3">
         <v>400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>800</v>
-      </c>
-      <c r="V17" s="3">
-        <v>400</v>
       </c>
       <c r="W17" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X17" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="E18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-400</v>
       </c>
-      <c r="F18" s="3">
-        <v>-200</v>
-      </c>
       <c r="G18" s="3">
         <v>-200</v>
       </c>
@@ -1345,22 +1375,22 @@
         <v>-200</v>
       </c>
       <c r="I18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J18" s="3">
         <v>-2100</v>
       </c>
-      <c r="J18" s="3">
-        <v>-200</v>
-      </c>
       <c r="K18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L18" s="3">
         <v>-400</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-300</v>
       </c>
       <c r="M18" s="3">
         <v>-300</v>
       </c>
       <c r="N18" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="O18" s="3">
         <v>-200</v>
@@ -1369,28 +1399,31 @@
         <v>-200</v>
       </c>
       <c r="Q18" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
         <v>-400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,8 +1447,9 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1471,81 +1505,87 @@
         <v>0</v>
       </c>
       <c r="U20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="E21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F21" s="3">
         <v>-300</v>
       </c>
-      <c r="F21" s="3">
-        <v>-200</v>
-      </c>
       <c r="G21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H21" s="3">
         <v>-100</v>
       </c>
-      <c r="H21" s="3">
-        <v>-200</v>
-      </c>
       <c r="I21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J21" s="3">
         <v>-1400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-300</v>
       </c>
-      <c r="L21" s="3">
-        <v>-200</v>
-      </c>
       <c r="M21" s="3">
         <v>-200</v>
       </c>
       <c r="N21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O21" s="3">
         <v>-100</v>
       </c>
-      <c r="O21" s="3">
-        <v>-200</v>
-      </c>
       <c r="P21" s="3">
         <v>-200</v>
       </c>
       <c r="Q21" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="R21" s="3">
+        <v>0</v>
+      </c>
+      <c r="S21" s="3">
         <v>-400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-1800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-700</v>
-      </c>
-      <c r="V21" s="3">
-        <v>-400</v>
       </c>
       <c r="W21" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1603,26 +1643,29 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-      <c r="V22" s="3" t="s">
-        <v>8</v>
+      <c r="V22" s="3">
+        <v>0</v>
       </c>
       <c r="W22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="E23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F23" s="3">
         <v>-400</v>
       </c>
-      <c r="F23" s="3">
-        <v>-200</v>
-      </c>
       <c r="G23" s="3">
         <v>-200</v>
       </c>
@@ -1630,13 +1673,13 @@
         <v>-200</v>
       </c>
       <c r="I23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J23" s="3">
         <v>-2000</v>
       </c>
-      <c r="J23" s="3">
-        <v>-200</v>
-      </c>
       <c r="K23" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="L23" s="3">
         <v>-300</v>
@@ -1645,7 +1688,7 @@
         <v>-300</v>
       </c>
       <c r="N23" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="O23" s="3">
         <v>-200</v>
@@ -1654,28 +1697,31 @@
         <v>-200</v>
       </c>
       <c r="Q23" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
         <v>-400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-800</v>
-      </c>
-      <c r="V23" s="3">
-        <v>-400</v>
       </c>
       <c r="W23" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X23" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1739,8 +1785,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,20 +1853,23 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="E26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F26" s="3">
         <v>-400</v>
       </c>
-      <c r="F26" s="3">
-        <v>-200</v>
-      </c>
       <c r="G26" s="3">
         <v>-200</v>
       </c>
@@ -1825,13 +1877,13 @@
         <v>-200</v>
       </c>
       <c r="I26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J26" s="3">
         <v>-2000</v>
       </c>
-      <c r="J26" s="3">
-        <v>-200</v>
-      </c>
       <c r="K26" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="L26" s="3">
         <v>-300</v>
@@ -1840,7 +1892,7 @@
         <v>-300</v>
       </c>
       <c r="N26" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="O26" s="3">
         <v>-200</v>
@@ -1849,40 +1901,43 @@
         <v>-200</v>
       </c>
       <c r="Q26" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
         <v>-400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-800</v>
-      </c>
-      <c r="V26" s="3">
-        <v>-400</v>
       </c>
       <c r="W26" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="E27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F27" s="3">
         <v>-400</v>
       </c>
-      <c r="F27" s="3">
-        <v>-200</v>
-      </c>
       <c r="G27" s="3">
         <v>-200</v>
       </c>
@@ -1890,13 +1945,13 @@
         <v>-200</v>
       </c>
       <c r="I27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J27" s="3">
         <v>-2000</v>
       </c>
-      <c r="J27" s="3">
-        <v>-200</v>
-      </c>
       <c r="K27" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="L27" s="3">
         <v>-300</v>
@@ -1905,7 +1960,7 @@
         <v>-300</v>
       </c>
       <c r="N27" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="O27" s="3">
         <v>-200</v>
@@ -1914,28 +1969,31 @@
         <v>-200</v>
       </c>
       <c r="Q27" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
         <v>-400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-800</v>
-      </c>
-      <c r="V27" s="3">
-        <v>-400</v>
       </c>
       <c r="W27" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,8 +2261,11 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2251,28 +2321,31 @@
         <v>0</v>
       </c>
       <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>-100</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
       <c r="W32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="E33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F33" s="3">
         <v>-400</v>
       </c>
-      <c r="F33" s="3">
-        <v>-200</v>
-      </c>
       <c r="G33" s="3">
         <v>-200</v>
       </c>
@@ -2280,13 +2353,13 @@
         <v>-200</v>
       </c>
       <c r="I33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J33" s="3">
         <v>-2000</v>
       </c>
-      <c r="J33" s="3">
-        <v>-200</v>
-      </c>
       <c r="K33" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="L33" s="3">
         <v>-300</v>
@@ -2295,7 +2368,7 @@
         <v>-300</v>
       </c>
       <c r="N33" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="O33" s="3">
         <v>-200</v>
@@ -2304,28 +2377,31 @@
         <v>-200</v>
       </c>
       <c r="Q33" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
         <v>-400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-800</v>
-      </c>
-      <c r="V33" s="3">
-        <v>-400</v>
       </c>
       <c r="W33" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,20 +2465,23 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="E35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F35" s="3">
         <v>-400</v>
       </c>
-      <c r="F35" s="3">
-        <v>-200</v>
-      </c>
       <c r="G35" s="3">
         <v>-200</v>
       </c>
@@ -2410,13 +2489,13 @@
         <v>-200</v>
       </c>
       <c r="I35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J35" s="3">
         <v>-2000</v>
       </c>
-      <c r="J35" s="3">
-        <v>-200</v>
-      </c>
       <c r="K35" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="L35" s="3">
         <v>-300</v>
@@ -2425,7 +2504,7 @@
         <v>-300</v>
       </c>
       <c r="N35" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="O35" s="3">
         <v>-200</v>
@@ -2434,98 +2513,104 @@
         <v>-200</v>
       </c>
       <c r="Q35" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
         <v>-400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-800</v>
-      </c>
-      <c r="V35" s="3">
-        <v>-400</v>
       </c>
       <c r="W35" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44439</v>
+      </c>
+      <c r="E38" s="2">
         <v>44347</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44255</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44165</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44074</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43982</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43890</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43799</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43708</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43616</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43524</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43434</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43343</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43251</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43159</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43069</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42978</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42886</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42794</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42704</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,8 +2660,9 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2583,11 +2670,11 @@
         <v>100</v>
       </c>
       <c r="E41" s="3">
+        <v>100</v>
+      </c>
+      <c r="F41" s="3">
         <v>200</v>
       </c>
-      <c r="F41" s="3">
-        <v>100</v>
-      </c>
       <c r="G41" s="3">
         <v>100</v>
       </c>
@@ -2595,11 +2682,11 @@
         <v>100</v>
       </c>
       <c r="I41" s="3">
+        <v>100</v>
+      </c>
+      <c r="J41" s="3">
         <v>200</v>
       </c>
-      <c r="J41" s="3">
-        <v>100</v>
-      </c>
       <c r="K41" s="3">
         <v>100</v>
       </c>
@@ -2616,31 +2703,34 @@
         <v>100</v>
       </c>
       <c r="P41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q41" s="3">
         <v>200</v>
       </c>
       <c r="R41" s="3">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="S41" s="3">
         <v>600</v>
       </c>
       <c r="T41" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="U41" s="3">
         <v>100</v>
       </c>
       <c r="V41" s="3">
+        <v>100</v>
+      </c>
+      <c r="W41" s="3">
         <v>500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,8 +2794,11 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2728,7 +2821,7 @@
         <v>0</v>
       </c>
       <c r="J43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K43" s="3">
         <v>100</v>
@@ -2743,16 +2836,16 @@
         <v>100</v>
       </c>
       <c r="O43" s="3">
+        <v>100</v>
+      </c>
+      <c r="P43" s="3">
         <v>200</v>
       </c>
-      <c r="P43" s="3">
-        <v>100</v>
-      </c>
       <c r="Q43" s="3">
         <v>100</v>
       </c>
       <c r="R43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S43" s="3">
         <v>0</v>
@@ -2769,8 +2862,11 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2834,8 +2930,11 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2882,25 +2981,28 @@
         <v>0</v>
       </c>
       <c r="R45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S45" s="3">
+        <v>100</v>
+      </c>
+      <c r="T45" s="3">
         <v>300</v>
       </c>
-      <c r="T45" s="3">
-        <v>100</v>
-      </c>
       <c r="U45" s="3">
+        <v>100</v>
+      </c>
+      <c r="V45" s="3">
         <v>400</v>
       </c>
-      <c r="V45" s="3">
-        <v>100</v>
-      </c>
       <c r="W45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2908,11 +3010,11 @@
         <v>100</v>
       </c>
       <c r="E46" s="3">
+        <v>100</v>
+      </c>
+      <c r="F46" s="3">
         <v>200</v>
       </c>
-      <c r="F46" s="3">
-        <v>100</v>
-      </c>
       <c r="G46" s="3">
         <v>100</v>
       </c>
@@ -2920,13 +3022,13 @@
         <v>100</v>
       </c>
       <c r="I46" s="3">
+        <v>100</v>
+      </c>
+      <c r="J46" s="3">
         <v>200</v>
       </c>
-      <c r="J46" s="3">
-        <v>100</v>
-      </c>
       <c r="K46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L46" s="3">
         <v>200</v>
@@ -2935,37 +3037,40 @@
         <v>200</v>
       </c>
       <c r="N46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O46" s="3">
+        <v>100</v>
+      </c>
+      <c r="P46" s="3">
         <v>200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>900</v>
-      </c>
-      <c r="T46" s="3">
-        <v>200</v>
       </c>
       <c r="U46" s="3">
         <v>200</v>
       </c>
       <c r="V46" s="3">
+        <v>200</v>
+      </c>
+      <c r="W46" s="3">
         <v>600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3029,8 +3134,11 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3041,31 +3149,31 @@
         <v>200</v>
       </c>
       <c r="F48" s="3">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="G48" s="3">
         <v>500</v>
       </c>
       <c r="H48" s="3">
+        <v>500</v>
+      </c>
+      <c r="I48" s="3">
         <v>600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>700</v>
-      </c>
-      <c r="J48" s="3">
-        <v>2600</v>
       </c>
       <c r="K48" s="3">
         <v>2600</v>
       </c>
       <c r="L48" s="3">
+        <v>2600</v>
+      </c>
+      <c r="M48" s="3">
         <v>2400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2500</v>
-      </c>
-      <c r="N48" s="3">
-        <v>2600</v>
       </c>
       <c r="O48" s="3">
         <v>2600</v>
@@ -3074,10 +3182,10 @@
         <v>2600</v>
       </c>
       <c r="Q48" s="3">
+        <v>2600</v>
+      </c>
+      <c r="R48" s="3">
         <v>2700</v>
-      </c>
-      <c r="R48" s="3">
-        <v>900</v>
       </c>
       <c r="S48" s="3">
         <v>900</v>
@@ -3094,8 +3202,11 @@
       <c r="W48" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3159,8 +3270,11 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3406,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3354,8 +3474,11 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,8 +3542,11 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3428,10 +3554,10 @@
         <v>300</v>
       </c>
       <c r="E54" s="3">
+        <v>300</v>
+      </c>
+      <c r="F54" s="3">
         <v>400</v>
-      </c>
-      <c r="F54" s="3">
-        <v>700</v>
       </c>
       <c r="G54" s="3">
         <v>700</v>
@@ -3440,52 +3566,55 @@
         <v>700</v>
       </c>
       <c r="I54" s="3">
+        <v>700</v>
+      </c>
+      <c r="J54" s="3">
         <v>900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2600</v>
-      </c>
-      <c r="M54" s="3">
-        <v>2700</v>
       </c>
       <c r="N54" s="3">
         <v>2700</v>
       </c>
       <c r="O54" s="3">
-        <v>2900</v>
+        <v>2700</v>
       </c>
       <c r="P54" s="3">
         <v>2900</v>
       </c>
       <c r="Q54" s="3">
+        <v>2900</v>
+      </c>
+      <c r="R54" s="3">
         <v>3000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1800</v>
-      </c>
-      <c r="T54" s="3">
-        <v>1100</v>
       </c>
       <c r="U54" s="3">
         <v>1100</v>
       </c>
       <c r="V54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="W54" s="3">
         <v>1500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,8 +3664,9 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3546,7 +3677,7 @@
         <v>400</v>
       </c>
       <c r="F57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G57" s="3">
         <v>300</v>
@@ -3555,7 +3686,7 @@
         <v>300</v>
       </c>
       <c r="I57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J57" s="3">
         <v>200</v>
@@ -3564,7 +3695,7 @@
         <v>200</v>
       </c>
       <c r="L57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M57" s="3">
         <v>100</v>
@@ -3582,33 +3713,36 @@
         <v>100</v>
       </c>
       <c r="R57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S57" s="3">
         <v>0</v>
       </c>
       <c r="T57" s="3">
+        <v>0</v>
+      </c>
+      <c r="U57" s="3">
         <v>400</v>
       </c>
-      <c r="U57" s="3">
-        <v>0</v>
-      </c>
       <c r="V57" s="3">
         <v>0</v>
       </c>
       <c r="W57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E58" s="3">
         <v>3100</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>8</v>
@@ -3625,8 +3759,8 @@
       <c r="J58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
@@ -3647,25 +3781,28 @@
         <v>0</v>
       </c>
       <c r="R58" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="S58" s="3">
         <v>800</v>
       </c>
       <c r="T58" s="3">
+        <v>800</v>
+      </c>
+      <c r="U58" s="3">
         <v>300</v>
       </c>
-      <c r="U58" s="3">
-        <v>100</v>
-      </c>
-      <c r="V58" s="3" t="s">
-        <v>8</v>
+      <c r="V58" s="3">
+        <v>100</v>
       </c>
       <c r="W58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3721,7 +3858,7 @@
         <v>0</v>
       </c>
       <c r="U59" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="V59" s="3">
         <v>400</v>
@@ -3729,19 +3866,22 @@
       <c r="W59" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E60" s="3">
         <v>3500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>400</v>
-      </c>
-      <c r="F60" s="3">
-        <v>300</v>
       </c>
       <c r="G60" s="3">
         <v>300</v>
@@ -3750,7 +3890,7 @@
         <v>300</v>
       </c>
       <c r="I60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J60" s="3">
         <v>200</v>
@@ -3759,7 +3899,7 @@
         <v>200</v>
       </c>
       <c r="L60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M60" s="3">
         <v>100</v>
@@ -3777,16 +3917,16 @@
         <v>100</v>
       </c>
       <c r="R60" s="3">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="S60" s="3">
         <v>800</v>
       </c>
       <c r="T60" s="3">
+        <v>800</v>
+      </c>
+      <c r="U60" s="3">
         <v>600</v>
-      </c>
-      <c r="U60" s="3">
-        <v>400</v>
       </c>
       <c r="V60" s="3">
         <v>400</v>
@@ -3794,55 +3934,58 @@
       <c r="W60" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
         <v>300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1900</v>
-      </c>
-      <c r="N61" s="3">
-        <v>1700</v>
       </c>
       <c r="O61" s="3">
         <v>1700</v>
       </c>
       <c r="P61" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="Q61" s="3">
         <v>1600</v>
       </c>
       <c r="R61" s="3">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="S61" s="3">
         <v>0</v>
@@ -3859,8 +4002,11 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3907,7 +4053,7 @@
         <v>100</v>
       </c>
       <c r="R62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S62" s="3">
         <v>0</v>
@@ -3924,8 +4070,11 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,43 +4274,46 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E66" s="3">
         <v>3800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2000</v>
-      </c>
-      <c r="N66" s="3">
-        <v>1800</v>
       </c>
       <c r="O66" s="3">
         <v>1800</v>
@@ -4164,28 +4322,31 @@
         <v>1800</v>
       </c>
       <c r="Q66" s="3">
+        <v>1800</v>
+      </c>
+      <c r="R66" s="3">
         <v>1700</v>
-      </c>
-      <c r="R66" s="3">
-        <v>800</v>
       </c>
       <c r="S66" s="3">
         <v>800</v>
       </c>
       <c r="T66" s="3">
+        <v>800</v>
+      </c>
+      <c r="U66" s="3">
         <v>700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>500</v>
-      </c>
-      <c r="V66" s="3">
-        <v>400</v>
       </c>
       <c r="W66" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-9900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-9700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-9200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-9000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-8800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-8600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-6500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-6300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-6000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-5700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-5300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-5100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-4900</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>-4700</v>
       </c>
       <c r="R72" s="3">
         <v>-4700</v>
       </c>
       <c r="S72" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="T72" s="3">
         <v>-2800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-2500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-2200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-1400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E76" s="3">
         <v>-3500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-3300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-2900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-2600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-2400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-2200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-100</v>
       </c>
-      <c r="K76" s="3">
-        <v>100</v>
-      </c>
       <c r="L76" s="3">
+        <v>100</v>
+      </c>
+      <c r="M76" s="3">
         <v>400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,90 +5048,96 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44439</v>
+      </c>
+      <c r="E80" s="2">
         <v>44347</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44255</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44165</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44074</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43982</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43890</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43799</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43708</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43616</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43524</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43434</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43343</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43251</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43159</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43069</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42978</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42886</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42794</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42704</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="E81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F81" s="3">
         <v>-400</v>
       </c>
-      <c r="F81" s="3">
-        <v>-200</v>
-      </c>
       <c r="G81" s="3">
         <v>-200</v>
       </c>
@@ -4950,13 +5145,13 @@
         <v>-200</v>
       </c>
       <c r="I81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J81" s="3">
         <v>-2000</v>
       </c>
-      <c r="J81" s="3">
-        <v>-200</v>
-      </c>
       <c r="K81" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="L81" s="3">
         <v>-300</v>
@@ -4965,7 +5160,7 @@
         <v>-300</v>
       </c>
       <c r="N81" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="O81" s="3">
         <v>-200</v>
@@ -4974,28 +5169,31 @@
         <v>-200</v>
       </c>
       <c r="Q81" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
         <v>-400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-800</v>
-      </c>
-      <c r="V81" s="3">
-        <v>-400</v>
       </c>
       <c r="W81" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X81" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5028,10 +5227,10 @@
         <v>0</v>
       </c>
       <c r="E83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G83" s="3">
         <v>0</v>
@@ -5040,23 +5239,23 @@
         <v>0</v>
       </c>
       <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
         <v>600</v>
       </c>
-      <c r="J83" s="3">
-        <v>100</v>
-      </c>
       <c r="K83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
       </c>
       <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
         <v>200</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
-      </c>
       <c r="O83" s="3">
         <v>0</v>
       </c>
@@ -5084,8 +5283,11 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,22 +5623,25 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F89" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="G89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="H89" s="3">
         <v>-100</v>
@@ -5436,46 +5653,49 @@
         <v>-100</v>
       </c>
       <c r="K89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="L89" s="3">
         <v>-200</v>
       </c>
       <c r="M89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
       <c r="O89" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="P89" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
         <v>-300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-100</v>
       </c>
-      <c r="S89" s="3">
-        <v>-200</v>
-      </c>
       <c r="T89" s="3">
         <v>-200</v>
       </c>
       <c r="U89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V89" s="3">
         <v>-500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,8 +5719,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5519,14 +5740,14 @@
       <c r="H91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
+      <c r="I91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>8</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>8</v>
@@ -5543,29 +5764,32 @@
       <c r="P91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="Q91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R91" s="3">
         <v>-1600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>200</v>
-      </c>
-      <c r="S91" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U91" s="3">
+      <c r="U91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V91" s="3">
         <v>-100</v>
       </c>
-      <c r="V91" s="3">
-        <v>0</v>
-      </c>
-      <c r="W91" s="3" t="s">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,8 +5921,11 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5711,8 +5941,8 @@
       <c r="G94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
+      <c r="H94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I94" s="3">
         <v>0</v>
@@ -5721,46 +5951,49 @@
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-300</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>8</v>
+      <c r="O94" s="3">
+        <v>0</v>
       </c>
       <c r="P94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="Q94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R94" s="3">
         <v>-1600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>200</v>
       </c>
-      <c r="S94" s="3">
-        <v>-200</v>
-      </c>
       <c r="T94" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
         <v>-100</v>
       </c>
-      <c r="V94" s="3">
-        <v>0</v>
-      </c>
       <c r="W94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,8 +6287,11 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6056,61 +6302,64 @@
         <v>100</v>
       </c>
       <c r="F100" s="3">
+        <v>100</v>
+      </c>
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
-        <v>100</v>
-      </c>
       <c r="H100" s="3">
         <v>100</v>
       </c>
       <c r="I100" s="3">
+        <v>100</v>
+      </c>
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="J100" s="3">
-        <v>100</v>
-      </c>
       <c r="K100" s="3">
+        <v>100</v>
+      </c>
+      <c r="L100" s="3">
         <v>400</v>
-      </c>
-      <c r="L100" s="3">
-        <v>200</v>
       </c>
       <c r="M100" s="3">
         <v>200</v>
       </c>
       <c r="N100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>1600</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>900</v>
-      </c>
-      <c r="T100" s="3">
-        <v>200</v>
       </c>
       <c r="U100" s="3">
         <v>200</v>
       </c>
       <c r="V100" s="3">
+        <v>200</v>
+      </c>
+      <c r="W100" s="3">
         <v>600</v>
       </c>
-      <c r="W100" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,19 +6423,22 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
-        <v>100</v>
-      </c>
       <c r="F102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G102" s="3">
         <v>0</v>
@@ -6195,48 +6447,51 @@
         <v>0</v>
       </c>
       <c r="I102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>-300</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>500</v>
       </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>-400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NRIS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NRIS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="92">
   <si>
     <t>NRIS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,104 +665,107 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44530</v>
+      </c>
+      <c r="E7" s="2">
         <v>44439</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44347</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44255</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44165</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44074</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43982</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43890</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43799</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43708</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43616</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43524</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43434</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43343</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43251</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43159</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43069</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42978</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42886</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42794</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42704</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -782,17 +785,17 @@
         <v>100</v>
       </c>
       <c r="I8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K8" s="3">
+        <v>100</v>
+      </c>
+      <c r="L8" s="3">
         <v>200</v>
       </c>
-      <c r="L8" s="3">
-        <v>100</v>
-      </c>
       <c r="M8" s="3">
         <v>100</v>
       </c>
@@ -812,7 +815,7 @@
         <v>100</v>
       </c>
       <c r="S8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T8" s="3">
         <v>0</v>
@@ -827,33 +830,36 @@
         <v>0</v>
       </c>
       <c r="X8" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E9" s="3">
+        <v>100</v>
+      </c>
+      <c r="F9" s="3">
         <v>200</v>
       </c>
-      <c r="F9" s="3">
-        <v>100</v>
-      </c>
       <c r="G9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H9" s="3">
         <v>200</v>
       </c>
       <c r="I9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K9" s="3">
         <v>200</v>
@@ -865,7 +871,7 @@
         <v>200</v>
       </c>
       <c r="N9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O9" s="3">
         <v>100</v>
@@ -880,7 +886,7 @@
         <v>100</v>
       </c>
       <c r="S9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T9" s="3">
         <v>0</v>
@@ -895,24 +901,27 @@
         <v>0</v>
       </c>
       <c r="X9" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
         <v>-100</v>
       </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
       <c r="G10" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H10" s="3">
         <v>-100</v>
@@ -924,16 +933,16 @@
         <v>-100</v>
       </c>
       <c r="K10" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L10" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M10" s="3">
         <v>-100</v>
       </c>
       <c r="N10" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O10" s="3">
         <v>0</v>
@@ -965,8 +974,11 @@
       <c r="X10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,8 +1003,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1059,8 +1072,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1143,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1138,24 +1157,24 @@
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3">
         <v>200</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="3">
         <v>1300</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
@@ -1165,29 +1184,29 @@
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
       <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>900</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-      <c r="V14" s="3" t="s">
-        <v>8</v>
+      <c r="V14" s="3">
+        <v>0</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>8</v>
@@ -1195,8 +1214,11 @@
       <c r="X14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1207,10 +1229,10 @@
         <v>0</v>
       </c>
       <c r="F15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H15" s="3">
         <v>0</v>
@@ -1219,22 +1241,22 @@
         <v>0</v>
       </c>
       <c r="J15" s="3">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3">
         <v>600</v>
       </c>
-      <c r="K15" s="3">
-        <v>100</v>
-      </c>
       <c r="L15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
       </c>
       <c r="N15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P15" s="3">
         <v>0</v>
@@ -1263,8 +1285,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,8 +1311,9 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1295,37 +1321,37 @@
         <v>200</v>
       </c>
       <c r="E17" s="3">
+        <v>200</v>
+      </c>
+      <c r="F17" s="3">
         <v>300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>500</v>
-      </c>
-      <c r="G17" s="3">
-        <v>300</v>
       </c>
       <c r="H17" s="3">
         <v>300</v>
       </c>
       <c r="I17" s="3">
+        <v>300</v>
+      </c>
+      <c r="J17" s="3">
         <v>200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>500</v>
-      </c>
-      <c r="M17" s="3">
-        <v>400</v>
       </c>
       <c r="N17" s="3">
         <v>400</v>
       </c>
       <c r="O17" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="P17" s="3">
         <v>300</v>
@@ -1334,28 +1360,31 @@
         <v>300</v>
       </c>
       <c r="R17" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="S17" s="3">
+        <v>100</v>
+      </c>
+      <c r="T17" s="3">
         <v>400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>800</v>
-      </c>
-      <c r="W17" s="3">
-        <v>400</v>
       </c>
       <c r="X17" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y17" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1363,14 +1392,14 @@
         <v>-100</v>
       </c>
       <c r="E18" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="F18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G18" s="3">
         <v>-400</v>
       </c>
-      <c r="G18" s="3">
-        <v>-200</v>
-      </c>
       <c r="H18" s="3">
         <v>-200</v>
       </c>
@@ -1378,22 +1407,22 @@
         <v>-200</v>
       </c>
       <c r="J18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K18" s="3">
         <v>-2100</v>
       </c>
-      <c r="K18" s="3">
-        <v>-200</v>
-      </c>
       <c r="L18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M18" s="3">
         <v>-400</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-300</v>
       </c>
       <c r="N18" s="3">
         <v>-300</v>
       </c>
       <c r="O18" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="P18" s="3">
         <v>-200</v>
@@ -1402,28 +1431,31 @@
         <v>-200</v>
       </c>
       <c r="R18" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="S18" s="3">
+        <v>0</v>
+      </c>
+      <c r="T18" s="3">
         <v>-400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-1800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,8 +1480,9 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1508,16 +1541,19 @@
         <v>0</v>
       </c>
       <c r="V20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1528,64 +1564,67 @@
         <v>-100</v>
       </c>
       <c r="F21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G21" s="3">
         <v>-300</v>
       </c>
-      <c r="G21" s="3">
-        <v>-200</v>
-      </c>
       <c r="H21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I21" s="3">
         <v>-100</v>
       </c>
-      <c r="I21" s="3">
-        <v>-200</v>
-      </c>
       <c r="J21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K21" s="3">
         <v>-1400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-300</v>
       </c>
-      <c r="M21" s="3">
-        <v>-200</v>
-      </c>
       <c r="N21" s="3">
         <v>-200</v>
       </c>
       <c r="O21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P21" s="3">
         <v>-100</v>
       </c>
-      <c r="P21" s="3">
-        <v>-200</v>
-      </c>
       <c r="Q21" s="3">
         <v>-200</v>
       </c>
       <c r="R21" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="S21" s="3">
+        <v>0</v>
+      </c>
+      <c r="T21" s="3">
         <v>-400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-1800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-700</v>
-      </c>
-      <c r="W21" s="3">
-        <v>-400</v>
       </c>
       <c r="X21" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1646,29 +1685,32 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-      <c r="W22" s="3" t="s">
-        <v>8</v>
+      <c r="W22" s="3">
+        <v>0</v>
       </c>
       <c r="X22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-100</v>
       </c>
-      <c r="E23" s="3">
-        <v>-200</v>
-      </c>
       <c r="F23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G23" s="3">
         <v>-400</v>
       </c>
-      <c r="G23" s="3">
-        <v>-200</v>
-      </c>
       <c r="H23" s="3">
         <v>-200</v>
       </c>
@@ -1676,13 +1718,13 @@
         <v>-200</v>
       </c>
       <c r="J23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K23" s="3">
         <v>-2000</v>
       </c>
-      <c r="K23" s="3">
-        <v>-200</v>
-      </c>
       <c r="L23" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="M23" s="3">
         <v>-300</v>
@@ -1691,7 +1733,7 @@
         <v>-300</v>
       </c>
       <c r="O23" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="P23" s="3">
         <v>-200</v>
@@ -1700,28 +1742,31 @@
         <v>-200</v>
       </c>
       <c r="R23" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="S23" s="3">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3">
         <v>-400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-1800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-800</v>
-      </c>
-      <c r="W23" s="3">
-        <v>-400</v>
       </c>
       <c r="X23" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y23" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1788,8 +1833,11 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,23 +1904,26 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-100</v>
       </c>
-      <c r="E26" s="3">
-        <v>-200</v>
-      </c>
       <c r="F26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G26" s="3">
         <v>-400</v>
       </c>
-      <c r="G26" s="3">
-        <v>-200</v>
-      </c>
       <c r="H26" s="3">
         <v>-200</v>
       </c>
@@ -1880,13 +1931,13 @@
         <v>-200</v>
       </c>
       <c r="J26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K26" s="3">
         <v>-2000</v>
       </c>
-      <c r="K26" s="3">
-        <v>-200</v>
-      </c>
       <c r="L26" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="M26" s="3">
         <v>-300</v>
@@ -1895,7 +1946,7 @@
         <v>-300</v>
       </c>
       <c r="O26" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="P26" s="3">
         <v>-200</v>
@@ -1904,43 +1955,46 @@
         <v>-200</v>
       </c>
       <c r="R26" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3">
         <v>-400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-800</v>
-      </c>
-      <c r="W26" s="3">
-        <v>-400</v>
       </c>
       <c r="X26" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y26" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-100</v>
       </c>
-      <c r="E27" s="3">
-        <v>-200</v>
-      </c>
       <c r="F27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G27" s="3">
         <v>-400</v>
       </c>
-      <c r="G27" s="3">
-        <v>-200</v>
-      </c>
       <c r="H27" s="3">
         <v>-200</v>
       </c>
@@ -1948,13 +2002,13 @@
         <v>-200</v>
       </c>
       <c r="J27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K27" s="3">
         <v>-2000</v>
       </c>
-      <c r="K27" s="3">
-        <v>-200</v>
-      </c>
       <c r="L27" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="M27" s="3">
         <v>-300</v>
@@ -1963,7 +2017,7 @@
         <v>-300</v>
       </c>
       <c r="O27" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="P27" s="3">
         <v>-200</v>
@@ -1972,28 +2026,31 @@
         <v>-200</v>
       </c>
       <c r="R27" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
         <v>-400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-800</v>
-      </c>
-      <c r="W27" s="3">
-        <v>-400</v>
       </c>
       <c r="X27" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y27" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,8 +2330,11 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2324,31 +2393,34 @@
         <v>0</v>
       </c>
       <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
         <v>-100</v>
       </c>
-      <c r="W32" s="3">
-        <v>0</v>
-      </c>
       <c r="X32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-100</v>
       </c>
-      <c r="E33" s="3">
-        <v>-200</v>
-      </c>
       <c r="F33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G33" s="3">
         <v>-400</v>
       </c>
-      <c r="G33" s="3">
-        <v>-200</v>
-      </c>
       <c r="H33" s="3">
         <v>-200</v>
       </c>
@@ -2356,13 +2428,13 @@
         <v>-200</v>
       </c>
       <c r="J33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K33" s="3">
         <v>-2000</v>
       </c>
-      <c r="K33" s="3">
-        <v>-200</v>
-      </c>
       <c r="L33" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="M33" s="3">
         <v>-300</v>
@@ -2371,7 +2443,7 @@
         <v>-300</v>
       </c>
       <c r="O33" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="P33" s="3">
         <v>-200</v>
@@ -2380,28 +2452,31 @@
         <v>-200</v>
       </c>
       <c r="R33" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="S33" s="3">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3">
         <v>-400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-800</v>
-      </c>
-      <c r="W33" s="3">
-        <v>-400</v>
       </c>
       <c r="X33" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y33" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,23 +2543,26 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-100</v>
       </c>
-      <c r="E35" s="3">
-        <v>-200</v>
-      </c>
       <c r="F35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G35" s="3">
         <v>-400</v>
       </c>
-      <c r="G35" s="3">
-        <v>-200</v>
-      </c>
       <c r="H35" s="3">
         <v>-200</v>
       </c>
@@ -2492,13 +2570,13 @@
         <v>-200</v>
       </c>
       <c r="J35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K35" s="3">
         <v>-2000</v>
       </c>
-      <c r="K35" s="3">
-        <v>-200</v>
-      </c>
       <c r="L35" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="M35" s="3">
         <v>-300</v>
@@ -2507,7 +2585,7 @@
         <v>-300</v>
       </c>
       <c r="O35" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="P35" s="3">
         <v>-200</v>
@@ -2516,101 +2594,107 @@
         <v>-200</v>
       </c>
       <c r="R35" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="S35" s="3">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3">
         <v>-400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-800</v>
-      </c>
-      <c r="W35" s="3">
-        <v>-400</v>
       </c>
       <c r="X35" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y35" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44530</v>
+      </c>
+      <c r="E38" s="2">
         <v>44439</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44347</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44255</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44165</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44074</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43982</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43890</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43799</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43708</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43616</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43524</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43434</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43343</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43251</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43159</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43069</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42978</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42886</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42794</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42704</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,8 +2746,9 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2673,11 +2759,11 @@
         <v>100</v>
       </c>
       <c r="F41" s="3">
+        <v>100</v>
+      </c>
+      <c r="G41" s="3">
         <v>200</v>
       </c>
-      <c r="G41" s="3">
-        <v>100</v>
-      </c>
       <c r="H41" s="3">
         <v>100</v>
       </c>
@@ -2685,11 +2771,11 @@
         <v>100</v>
       </c>
       <c r="J41" s="3">
+        <v>100</v>
+      </c>
+      <c r="K41" s="3">
         <v>200</v>
       </c>
-      <c r="K41" s="3">
-        <v>100</v>
-      </c>
       <c r="L41" s="3">
         <v>100</v>
       </c>
@@ -2706,31 +2792,34 @@
         <v>100</v>
       </c>
       <c r="Q41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R41" s="3">
         <v>200</v>
       </c>
       <c r="S41" s="3">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="T41" s="3">
         <v>600</v>
       </c>
       <c r="U41" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="V41" s="3">
         <v>100</v>
       </c>
       <c r="W41" s="3">
+        <v>100</v>
+      </c>
+      <c r="X41" s="3">
         <v>500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,13 +2886,16 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E43" s="3">
         <v>0</v>
@@ -2824,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="K43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L43" s="3">
         <v>100</v>
@@ -2839,16 +2931,16 @@
         <v>100</v>
       </c>
       <c r="P43" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q43" s="3">
         <v>200</v>
       </c>
-      <c r="Q43" s="3">
-        <v>100</v>
-      </c>
       <c r="R43" s="3">
         <v>100</v>
       </c>
       <c r="S43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T43" s="3">
         <v>0</v>
@@ -2865,8 +2957,11 @@
       <c r="X43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,8 +3028,11 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2984,25 +3082,28 @@
         <v>0</v>
       </c>
       <c r="S45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T45" s="3">
+        <v>100</v>
+      </c>
+      <c r="U45" s="3">
         <v>300</v>
       </c>
-      <c r="U45" s="3">
-        <v>100</v>
-      </c>
       <c r="V45" s="3">
+        <v>100</v>
+      </c>
+      <c r="W45" s="3">
         <v>400</v>
       </c>
-      <c r="W45" s="3">
-        <v>100</v>
-      </c>
       <c r="X45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3013,11 +3114,11 @@
         <v>100</v>
       </c>
       <c r="F46" s="3">
+        <v>100</v>
+      </c>
+      <c r="G46" s="3">
         <v>200</v>
       </c>
-      <c r="G46" s="3">
-        <v>100</v>
-      </c>
       <c r="H46" s="3">
         <v>100</v>
       </c>
@@ -3025,13 +3126,13 @@
         <v>100</v>
       </c>
       <c r="J46" s="3">
+        <v>100</v>
+      </c>
+      <c r="K46" s="3">
         <v>200</v>
       </c>
-      <c r="K46" s="3">
-        <v>100</v>
-      </c>
       <c r="L46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M46" s="3">
         <v>200</v>
@@ -3040,37 +3141,40 @@
         <v>200</v>
       </c>
       <c r="O46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P46" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q46" s="3">
         <v>200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>900</v>
-      </c>
-      <c r="U46" s="3">
-        <v>200</v>
       </c>
       <c r="V46" s="3">
         <v>200</v>
       </c>
       <c r="W46" s="3">
+        <v>200</v>
+      </c>
+      <c r="X46" s="3">
         <v>600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3137,8 +3241,11 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3152,31 +3259,31 @@
         <v>200</v>
       </c>
       <c r="G48" s="3">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="H48" s="3">
         <v>500</v>
       </c>
       <c r="I48" s="3">
+        <v>500</v>
+      </c>
+      <c r="J48" s="3">
         <v>600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>700</v>
-      </c>
-      <c r="K48" s="3">
-        <v>2600</v>
       </c>
       <c r="L48" s="3">
         <v>2600</v>
       </c>
       <c r="M48" s="3">
+        <v>2600</v>
+      </c>
+      <c r="N48" s="3">
         <v>2400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2500</v>
-      </c>
-      <c r="O48" s="3">
-        <v>2600</v>
       </c>
       <c r="P48" s="3">
         <v>2600</v>
@@ -3185,10 +3292,10 @@
         <v>2600</v>
       </c>
       <c r="R48" s="3">
+        <v>2600</v>
+      </c>
+      <c r="S48" s="3">
         <v>2700</v>
-      </c>
-      <c r="S48" s="3">
-        <v>900</v>
       </c>
       <c r="T48" s="3">
         <v>900</v>
@@ -3205,8 +3312,11 @@
       <c r="X48" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3273,8 +3383,11 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3525,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3477,8 +3596,11 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,8 +3667,11 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3557,10 +3682,10 @@
         <v>300</v>
       </c>
       <c r="F54" s="3">
+        <v>300</v>
+      </c>
+      <c r="G54" s="3">
         <v>400</v>
-      </c>
-      <c r="G54" s="3">
-        <v>700</v>
       </c>
       <c r="H54" s="3">
         <v>700</v>
@@ -3569,52 +3694,55 @@
         <v>700</v>
       </c>
       <c r="J54" s="3">
+        <v>700</v>
+      </c>
+      <c r="K54" s="3">
         <v>900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2600</v>
-      </c>
-      <c r="N54" s="3">
-        <v>2700</v>
       </c>
       <c r="O54" s="3">
         <v>2700</v>
       </c>
       <c r="P54" s="3">
-        <v>2900</v>
+        <v>2700</v>
       </c>
       <c r="Q54" s="3">
         <v>2900</v>
       </c>
       <c r="R54" s="3">
+        <v>2900</v>
+      </c>
+      <c r="S54" s="3">
         <v>3000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1800</v>
-      </c>
-      <c r="U54" s="3">
-        <v>1100</v>
       </c>
       <c r="V54" s="3">
         <v>1100</v>
       </c>
       <c r="W54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="X54" s="3">
         <v>1500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,13 +3794,14 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E57" s="3">
         <v>400</v>
@@ -3680,7 +3810,7 @@
         <v>400</v>
       </c>
       <c r="G57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H57" s="3">
         <v>300</v>
@@ -3689,7 +3819,7 @@
         <v>300</v>
       </c>
       <c r="J57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K57" s="3">
         <v>200</v>
@@ -3698,7 +3828,7 @@
         <v>200</v>
       </c>
       <c r="M57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N57" s="3">
         <v>100</v>
@@ -3716,37 +3846,40 @@
         <v>100</v>
       </c>
       <c r="S57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T57" s="3">
         <v>0</v>
       </c>
       <c r="U57" s="3">
+        <v>0</v>
+      </c>
+      <c r="V57" s="3">
         <v>400</v>
       </c>
-      <c r="V57" s="3">
-        <v>0</v>
-      </c>
       <c r="W57" s="3">
         <v>0</v>
       </c>
       <c r="X57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E58" s="3">
         <v>3400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>3100</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G58" s="3" t="s">
         <v>8</v>
       </c>
@@ -3762,8 +3895,8 @@
       <c r="K58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
+      <c r="L58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
@@ -3784,25 +3917,28 @@
         <v>0</v>
       </c>
       <c r="S58" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="T58" s="3">
         <v>800</v>
       </c>
       <c r="U58" s="3">
+        <v>800</v>
+      </c>
+      <c r="V58" s="3">
         <v>300</v>
       </c>
-      <c r="V58" s="3">
-        <v>100</v>
-      </c>
-      <c r="W58" s="3" t="s">
-        <v>8</v>
+      <c r="W58" s="3">
+        <v>100</v>
       </c>
       <c r="X58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3861,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="V59" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="W59" s="3">
         <v>400</v>
@@ -3869,22 +4005,25 @@
       <c r="X59" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E60" s="3">
         <v>3800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>400</v>
-      </c>
-      <c r="G60" s="3">
-        <v>300</v>
       </c>
       <c r="H60" s="3">
         <v>300</v>
@@ -3893,7 +4032,7 @@
         <v>300</v>
       </c>
       <c r="J60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K60" s="3">
         <v>200</v>
@@ -3902,7 +4041,7 @@
         <v>200</v>
       </c>
       <c r="M60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N60" s="3">
         <v>100</v>
@@ -3920,16 +4059,16 @@
         <v>100</v>
       </c>
       <c r="S60" s="3">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="T60" s="3">
         <v>800</v>
       </c>
       <c r="U60" s="3">
+        <v>800</v>
+      </c>
+      <c r="V60" s="3">
         <v>600</v>
-      </c>
-      <c r="V60" s="3">
-        <v>400</v>
       </c>
       <c r="W60" s="3">
         <v>400</v>
@@ -3937,8 +4076,11 @@
       <c r="X60" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3946,49 +4088,49 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
         <v>300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>3100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1900</v>
-      </c>
-      <c r="O61" s="3">
-        <v>1700</v>
       </c>
       <c r="P61" s="3">
         <v>1700</v>
       </c>
       <c r="Q61" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="R61" s="3">
         <v>1600</v>
       </c>
       <c r="S61" s="3">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="T61" s="3">
         <v>0</v>
@@ -4005,8 +4147,11 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4056,7 +4201,7 @@
         <v>100</v>
       </c>
       <c r="S62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T62" s="3">
         <v>0</v>
@@ -4073,8 +4218,11 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,46 +4431,49 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E66" s="3">
         <v>3900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2000</v>
-      </c>
-      <c r="O66" s="3">
-        <v>1800</v>
       </c>
       <c r="P66" s="3">
         <v>1800</v>
@@ -4325,28 +4482,31 @@
         <v>1800</v>
       </c>
       <c r="R66" s="3">
+        <v>1800</v>
+      </c>
+      <c r="S66" s="3">
         <v>1700</v>
-      </c>
-      <c r="S66" s="3">
-        <v>800</v>
       </c>
       <c r="T66" s="3">
         <v>800</v>
       </c>
       <c r="U66" s="3">
+        <v>800</v>
+      </c>
+      <c r="V66" s="3">
         <v>700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>500</v>
-      </c>
-      <c r="W66" s="3">
-        <v>400</v>
       </c>
       <c r="X66" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4813,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-10000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-9900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-9700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-9200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-9000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-8800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-8600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-6500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-6300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-6000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-5700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-5300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-5100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-4900</v>
-      </c>
-      <c r="R72" s="3">
-        <v>-4700</v>
       </c>
       <c r="S72" s="3">
         <v>-4700</v>
       </c>
       <c r="T72" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="U72" s="3">
         <v>-2800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-2500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-2200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-1400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5097,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E76" s="3">
         <v>-3600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-3500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-3300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-2900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-2600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-2400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-2200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-100</v>
       </c>
-      <c r="L76" s="3">
-        <v>100</v>
-      </c>
       <c r="M76" s="3">
+        <v>100</v>
+      </c>
+      <c r="N76" s="3">
         <v>400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,96 +5239,102 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44530</v>
+      </c>
+      <c r="E80" s="2">
         <v>44439</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44347</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44255</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44165</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44074</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43982</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43890</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43799</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43708</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43616</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43524</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43434</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43343</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43251</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43159</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43069</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42978</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42886</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42794</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42704</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-100</v>
       </c>
-      <c r="E81" s="3">
-        <v>-200</v>
-      </c>
       <c r="F81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G81" s="3">
         <v>-400</v>
       </c>
-      <c r="G81" s="3">
-        <v>-200</v>
-      </c>
       <c r="H81" s="3">
         <v>-200</v>
       </c>
@@ -5148,13 +5342,13 @@
         <v>-200</v>
       </c>
       <c r="J81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K81" s="3">
         <v>-2000</v>
       </c>
-      <c r="K81" s="3">
-        <v>-200</v>
-      </c>
       <c r="L81" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="M81" s="3">
         <v>-300</v>
@@ -5163,7 +5357,7 @@
         <v>-300</v>
       </c>
       <c r="O81" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="P81" s="3">
         <v>-200</v>
@@ -5172,28 +5366,31 @@
         <v>-200</v>
       </c>
       <c r="R81" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="S81" s="3">
+        <v>0</v>
+      </c>
+      <c r="T81" s="3">
         <v>-400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-800</v>
-      </c>
-      <c r="W81" s="3">
-        <v>-400</v>
       </c>
       <c r="X81" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y81" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5415,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5230,10 +5428,10 @@
         <v>0</v>
       </c>
       <c r="F83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H83" s="3">
         <v>0</v>
@@ -5242,23 +5440,23 @@
         <v>0</v>
       </c>
       <c r="J83" s="3">
+        <v>0</v>
+      </c>
+      <c r="K83" s="3">
         <v>600</v>
       </c>
-      <c r="K83" s="3">
-        <v>100</v>
-      </c>
       <c r="L83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
       </c>
       <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3">
         <v>200</v>
       </c>
-      <c r="O83" s="3">
-        <v>0</v>
-      </c>
       <c r="P83" s="3">
         <v>0</v>
       </c>
@@ -5286,8 +5484,11 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,8 +5839,11 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5635,16 +5851,16 @@
         <v>-100</v>
       </c>
       <c r="E89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="F89" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="G89" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="H89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="I89" s="3">
         <v>-100</v>
@@ -5656,46 +5872,49 @@
         <v>-100</v>
       </c>
       <c r="L89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="M89" s="3">
         <v>-200</v>
       </c>
       <c r="N89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
       <c r="P89" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="Q89" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
         <v>-300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-100</v>
       </c>
-      <c r="T89" s="3">
-        <v>-200</v>
-      </c>
       <c r="U89" s="3">
         <v>-200</v>
       </c>
       <c r="V89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W89" s="3">
         <v>-500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +5939,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5743,14 +5963,14 @@
       <c r="I91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="J91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>8</v>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>8</v>
@@ -5767,29 +5987,32 @@
       <c r="Q91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R91" s="3">
+      <c r="R91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S91" s="3">
         <v>-1600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>200</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V91" s="3">
+      <c r="V91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W91" s="3">
         <v>-100</v>
       </c>
-      <c r="W91" s="3">
-        <v>0</v>
-      </c>
-      <c r="X91" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,8 +6150,11 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5944,8 +6173,8 @@
       <c r="H94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
+      <c r="I94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J94" s="3">
         <v>0</v>
@@ -5954,46 +6183,49 @@
         <v>0</v>
       </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-300</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>8</v>
+      <c r="P94" s="3">
+        <v>0</v>
       </c>
       <c r="Q94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R94" s="3">
+      <c r="R94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S94" s="3">
         <v>-1600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>200</v>
       </c>
-      <c r="T94" s="3">
-        <v>-200</v>
-      </c>
       <c r="U94" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
         <v>-100</v>
       </c>
-      <c r="W94" s="3">
-        <v>0</v>
-      </c>
       <c r="X94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6319,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,8 +6532,11 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6305,61 +6550,64 @@
         <v>100</v>
       </c>
       <c r="G100" s="3">
+        <v>100</v>
+      </c>
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
-        <v>100</v>
-      </c>
       <c r="I100" s="3">
         <v>100</v>
       </c>
       <c r="J100" s="3">
+        <v>100</v>
+      </c>
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
-        <v>100</v>
-      </c>
       <c r="L100" s="3">
+        <v>100</v>
+      </c>
+      <c r="M100" s="3">
         <v>400</v>
-      </c>
-      <c r="M100" s="3">
-        <v>200</v>
       </c>
       <c r="N100" s="3">
         <v>200</v>
       </c>
       <c r="O100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>1600</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>900</v>
-      </c>
-      <c r="U100" s="3">
-        <v>200</v>
       </c>
       <c r="V100" s="3">
         <v>200</v>
       </c>
       <c r="W100" s="3">
+        <v>200</v>
+      </c>
+      <c r="X100" s="3">
         <v>600</v>
       </c>
-      <c r="X100" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,8 +6674,11 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6435,13 +6686,13 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
-        <v>100</v>
-      </c>
       <c r="G102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H102" s="3">
         <v>0</v>
@@ -6450,48 +6701,51 @@
         <v>0</v>
       </c>
       <c r="J102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>-300</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>500</v>
       </c>
-      <c r="U102" s="3">
-        <v>0</v>
-      </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>-400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NRIS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NRIS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="92">
   <si>
     <t>NRIS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,112 +665,120 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44712</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44620</v>
+      </c>
+      <c r="F7" s="2">
         <v>44530</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44439</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44347</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44255</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44165</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44074</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43982</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43890</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43799</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43708</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43616</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43524</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43434</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43343</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43251</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43159</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43069</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42978</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42886</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42794</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42704</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E8" s="3">
         <v>100</v>
@@ -788,20 +796,20 @@
         <v>100</v>
       </c>
       <c r="J8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K8" s="3">
         <v>100</v>
       </c>
       <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>100</v>
+      </c>
+      <c r="N8" s="3">
         <v>200</v>
       </c>
-      <c r="M8" s="3">
-        <v>100</v>
-      </c>
-      <c r="N8" s="3">
-        <v>100</v>
-      </c>
       <c r="O8" s="3">
         <v>100</v>
       </c>
@@ -818,10 +826,10 @@
         <v>100</v>
       </c>
       <c r="T8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V8" s="3">
         <v>0</v>
@@ -833,10 +841,16 @@
         <v>0</v>
       </c>
       <c r="Y8" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -844,7 +858,7 @@
         <v>200</v>
       </c>
       <c r="E9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F9" s="3">
         <v>200</v>
@@ -856,16 +870,16 @@
         <v>200</v>
       </c>
       <c r="I9" s="3">
+        <v>100</v>
+      </c>
+      <c r="J9" s="3">
         <v>200</v>
-      </c>
-      <c r="J9" s="3">
-        <v>100</v>
       </c>
       <c r="K9" s="3">
         <v>200</v>
       </c>
       <c r="L9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M9" s="3">
         <v>200</v>
@@ -874,10 +888,10 @@
         <v>200</v>
       </c>
       <c r="O9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q9" s="3">
         <v>100</v>
@@ -889,10 +903,10 @@
         <v>100</v>
       </c>
       <c r="T9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V9" s="3">
         <v>0</v>
@@ -904,18 +918,24 @@
         <v>0</v>
       </c>
       <c r="Y9" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
         <v>-100</v>
-      </c>
-      <c r="E10" s="3">
-        <v>0</v>
       </c>
       <c r="F10" s="3">
         <v>-100</v>
@@ -927,7 +947,7 @@
         <v>-100</v>
       </c>
       <c r="I10" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J10" s="3">
         <v>-100</v>
@@ -936,19 +956,19 @@
         <v>-100</v>
       </c>
       <c r="L10" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M10" s="3">
         <v>-100</v>
       </c>
       <c r="N10" s="3">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3">
         <v>-100</v>
       </c>
-      <c r="O10" s="3">
-        <v>0</v>
-      </c>
       <c r="P10" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q10" s="3">
         <v>0</v>
@@ -977,8 +997,14 @@
       <c r="Y10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1004,8 +1030,10 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1075,8 +1103,14 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,40 +1180,46 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
-        <v>200</v>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
+      <c r="I14" s="3">
+        <v>200</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>1300</v>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
+      <c r="M14" s="3">
+        <v>1300</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
@@ -1187,82 +1227,88 @@
       <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3" t="s">
+      <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
+      <c r="T14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
         <v>900</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
-      <c r="W14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X14" s="3" t="s">
-        <v>8</v>
+      <c r="X14" s="3">
+        <v>0</v>
       </c>
       <c r="Y14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
         <v>0</v>
       </c>
-      <c r="E15" s="3">
-        <v>0</v>
+      <c r="E15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F15" s="3">
         <v>0</v>
       </c>
       <c r="G15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H15" s="3">
         <v>0</v>
       </c>
       <c r="I15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J15" s="3">
         <v>0</v>
       </c>
       <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
         <v>600</v>
       </c>
-      <c r="L15" s="3">
-        <v>100</v>
-      </c>
-      <c r="M15" s="3">
-        <v>0</v>
-      </c>
       <c r="N15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P15" s="3">
         <v>0</v>
       </c>
       <c r="Q15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R15" s="3">
         <v>0</v>
@@ -1288,8 +1334,14 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,79 +1364,87 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>100</v>
+      </c>
+      <c r="F17" s="3">
         <v>200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>200</v>
-      </c>
-      <c r="F17" s="3">
-        <v>300</v>
-      </c>
-      <c r="G17" s="3">
-        <v>500</v>
       </c>
       <c r="H17" s="3">
         <v>300</v>
       </c>
       <c r="I17" s="3">
+        <v>500</v>
+      </c>
+      <c r="J17" s="3">
         <v>300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
+        <v>300</v>
+      </c>
+      <c r="L17" s="3">
         <v>200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>2200</v>
-      </c>
-      <c r="L17" s="3">
-        <v>400</v>
-      </c>
-      <c r="M17" s="3">
-        <v>500</v>
       </c>
       <c r="N17" s="3">
         <v>400</v>
       </c>
       <c r="O17" s="3">
+        <v>500</v>
+      </c>
+      <c r="P17" s="3">
         <v>400</v>
       </c>
-      <c r="P17" s="3">
-        <v>300</v>
-      </c>
       <c r="Q17" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="R17" s="3">
         <v>300</v>
       </c>
       <c r="S17" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="T17" s="3">
+        <v>300</v>
+      </c>
+      <c r="U17" s="3">
+        <v>100</v>
+      </c>
+      <c r="V17" s="3">
         <v>400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>1800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1392,70 +1452,76 @@
         <v>-100</v>
       </c>
       <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
         <v>-100</v>
       </c>
-      <c r="F18" s="3">
-        <v>-200</v>
-      </c>
       <c r="G18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I18" s="3">
         <v>-400</v>
       </c>
-      <c r="H18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-200</v>
-      </c>
       <c r="J18" s="3">
         <v>-200</v>
       </c>
       <c r="K18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M18" s="3">
         <v>-2100</v>
       </c>
-      <c r="L18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O18" s="3">
         <v>-400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-300</v>
       </c>
-      <c r="P18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>-200</v>
-      </c>
       <c r="R18" s="3">
         <v>-200</v>
       </c>
       <c r="S18" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="T18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U18" s="3">
+        <v>0</v>
+      </c>
+      <c r="V18" s="3">
         <v>-400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-1800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>-400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,8 +1547,10 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1544,16 +1612,22 @@
         <v>0</v>
       </c>
       <c r="W20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X20" s="3">
         <v>0</v>
       </c>
       <c r="Y20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1561,70 +1635,76 @@
         <v>-100</v>
       </c>
       <c r="E21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F21" s="3">
         <v>-100</v>
       </c>
       <c r="G21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I21" s="3">
         <v>-300</v>
       </c>
-      <c r="H21" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K21" s="3">
         <v>-100</v>
       </c>
-      <c r="J21" s="3">
-        <v>-200</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M21" s="3">
         <v>-1400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-300</v>
       </c>
-      <c r="N21" s="3">
-        <v>-200</v>
-      </c>
-      <c r="O21" s="3">
-        <v>-200</v>
-      </c>
       <c r="P21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R21" s="3">
         <v>-100</v>
       </c>
-      <c r="Q21" s="3">
-        <v>-200</v>
-      </c>
-      <c r="R21" s="3">
-        <v>-200</v>
-      </c>
       <c r="S21" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="T21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U21" s="3">
+        <v>0</v>
+      </c>
+      <c r="V21" s="3">
         <v>-400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-1800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>-700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>-400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1688,85 +1768,97 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-      <c r="X22" s="3" t="s">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y22" s="3" t="s">
+      <c r="AA22" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G23" s="3">
         <v>-100</v>
       </c>
-      <c r="F23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I23" s="3">
         <v>-400</v>
       </c>
-      <c r="H23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-200</v>
-      </c>
       <c r="J23" s="3">
         <v>-200</v>
       </c>
       <c r="K23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M23" s="3">
         <v>-2000</v>
       </c>
-      <c r="L23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-300</v>
-      </c>
       <c r="N23" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="O23" s="3">
         <v>-300</v>
       </c>
       <c r="P23" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="Q23" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="R23" s="3">
         <v>-200</v>
       </c>
       <c r="S23" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="T23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U23" s="3">
+        <v>0</v>
+      </c>
+      <c r="V23" s="3">
         <v>-400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-1800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1836,8 +1928,14 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,150 +2005,168 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G26" s="3">
         <v>-100</v>
       </c>
-      <c r="F26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I26" s="3">
         <v>-400</v>
       </c>
-      <c r="H26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-200</v>
-      </c>
       <c r="J26" s="3">
         <v>-200</v>
       </c>
       <c r="K26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M26" s="3">
         <v>-2000</v>
       </c>
-      <c r="L26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-300</v>
-      </c>
       <c r="N26" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="O26" s="3">
         <v>-300</v>
       </c>
       <c r="P26" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="Q26" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="R26" s="3">
         <v>-200</v>
       </c>
       <c r="S26" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="T26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U26" s="3">
+        <v>0</v>
+      </c>
+      <c r="V26" s="3">
         <v>-400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-1800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G27" s="3">
         <v>-100</v>
       </c>
-      <c r="F27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I27" s="3">
         <v>-400</v>
       </c>
-      <c r="H27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-200</v>
-      </c>
       <c r="J27" s="3">
         <v>-200</v>
       </c>
       <c r="K27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M27" s="3">
         <v>-2000</v>
       </c>
-      <c r="L27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-300</v>
-      </c>
       <c r="N27" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="O27" s="3">
         <v>-300</v>
       </c>
       <c r="P27" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="Q27" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="R27" s="3">
         <v>-200</v>
       </c>
       <c r="S27" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="T27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U27" s="3">
+        <v>0</v>
+      </c>
+      <c r="V27" s="3">
         <v>-400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-1800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2236,14 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2191,8 +2313,14 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2390,14 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,8 +2467,14 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2396,87 +2536,99 @@
         <v>0</v>
       </c>
       <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
         <v>-100</v>
       </c>
-      <c r="X32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G33" s="3">
         <v>-100</v>
       </c>
-      <c r="F33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I33" s="3">
         <v>-400</v>
       </c>
-      <c r="H33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-200</v>
-      </c>
       <c r="J33" s="3">
         <v>-200</v>
       </c>
       <c r="K33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M33" s="3">
         <v>-2000</v>
       </c>
-      <c r="L33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-300</v>
-      </c>
       <c r="N33" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="O33" s="3">
         <v>-300</v>
       </c>
       <c r="P33" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="Q33" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="R33" s="3">
         <v>-200</v>
       </c>
       <c r="S33" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="T33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U33" s="3">
+        <v>0</v>
+      </c>
+      <c r="V33" s="3">
         <v>-400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-1800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,155 +2698,173 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G35" s="3">
         <v>-100</v>
       </c>
-      <c r="F35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I35" s="3">
         <v>-400</v>
       </c>
-      <c r="H35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-200</v>
-      </c>
       <c r="J35" s="3">
         <v>-200</v>
       </c>
       <c r="K35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M35" s="3">
         <v>-2000</v>
       </c>
-      <c r="L35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-300</v>
-      </c>
       <c r="N35" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="O35" s="3">
         <v>-300</v>
       </c>
       <c r="P35" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="Q35" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="R35" s="3">
         <v>-200</v>
       </c>
       <c r="S35" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="T35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U35" s="3">
+        <v>0</v>
+      </c>
+      <c r="V35" s="3">
         <v>-400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-1800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44712</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44620</v>
+      </c>
+      <c r="F38" s="2">
         <v>44530</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44439</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44347</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44255</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44165</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44074</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43982</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43890</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43799</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43708</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43616</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43524</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43434</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43343</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43251</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43159</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43069</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42978</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42886</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42794</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42704</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2890,10 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,8 +2919,10 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2762,26 +2936,26 @@
         <v>100</v>
       </c>
       <c r="G41" s="3">
+        <v>100</v>
+      </c>
+      <c r="H41" s="3">
+        <v>100</v>
+      </c>
+      <c r="I41" s="3">
         <v>200</v>
       </c>
-      <c r="H41" s="3">
-        <v>100</v>
-      </c>
-      <c r="I41" s="3">
-        <v>100</v>
-      </c>
       <c r="J41" s="3">
         <v>100</v>
       </c>
       <c r="K41" s="3">
+        <v>100</v>
+      </c>
+      <c r="L41" s="3">
+        <v>100</v>
+      </c>
+      <c r="M41" s="3">
         <v>200</v>
       </c>
-      <c r="L41" s="3">
-        <v>100</v>
-      </c>
-      <c r="M41" s="3">
-        <v>100</v>
-      </c>
       <c r="N41" s="3">
         <v>100</v>
       </c>
@@ -2795,31 +2969,37 @@
         <v>100</v>
       </c>
       <c r="R41" s="3">
+        <v>100</v>
+      </c>
+      <c r="S41" s="3">
+        <v>100</v>
+      </c>
+      <c r="T41" s="3">
         <v>200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>600</v>
       </c>
-      <c r="V41" s="3">
-        <v>100</v>
-      </c>
-      <c r="W41" s="3">
-        <v>100</v>
-      </c>
       <c r="X41" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y41" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z41" s="3">
         <v>500</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2889,8 +3069,14 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2898,10 +3084,10 @@
         <v>100</v>
       </c>
       <c r="E43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G43" s="3">
         <v>0</v>
@@ -2919,10 +3105,10 @@
         <v>0</v>
       </c>
       <c r="L43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N43" s="3">
         <v>100</v>
@@ -2934,19 +3120,19 @@
         <v>100</v>
       </c>
       <c r="Q43" s="3">
+        <v>100</v>
+      </c>
+      <c r="R43" s="3">
+        <v>100</v>
+      </c>
+      <c r="S43" s="3">
         <v>200</v>
       </c>
-      <c r="R43" s="3">
-        <v>100</v>
-      </c>
-      <c r="S43" s="3">
-        <v>100</v>
-      </c>
       <c r="T43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V43" s="3">
         <v>0</v>
@@ -2960,8 +3146,14 @@
       <c r="Y43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3031,8 +3223,14 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3085,25 +3283,31 @@
         <v>0</v>
       </c>
       <c r="T45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3">
+        <v>100</v>
+      </c>
+      <c r="W45" s="3">
         <v>300</v>
       </c>
-      <c r="V45" s="3">
-        <v>100</v>
-      </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y45" s="3">
         <v>400</v>
       </c>
-      <c r="X45" s="3">
-        <v>100</v>
-      </c>
-      <c r="Y45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3111,25 +3315,25 @@
         <v>100</v>
       </c>
       <c r="E46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F46" s="3">
         <v>100</v>
       </c>
       <c r="G46" s="3">
+        <v>100</v>
+      </c>
+      <c r="H46" s="3">
+        <v>100</v>
+      </c>
+      <c r="I46" s="3">
         <v>200</v>
       </c>
-      <c r="H46" s="3">
-        <v>100</v>
-      </c>
-      <c r="I46" s="3">
-        <v>100</v>
-      </c>
       <c r="J46" s="3">
         <v>100</v>
       </c>
       <c r="K46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L46" s="3">
         <v>100</v>
@@ -3138,43 +3342,49 @@
         <v>200</v>
       </c>
       <c r="N46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O46" s="3">
         <v>200</v>
       </c>
       <c r="P46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q46" s="3">
         <v>200</v>
       </c>
       <c r="R46" s="3">
+        <v>100</v>
+      </c>
+      <c r="S46" s="3">
+        <v>200</v>
+      </c>
+      <c r="T46" s="3">
         <v>300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>600</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3244,8 +3454,14 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3262,46 +3478,46 @@
         <v>200</v>
       </c>
       <c r="H48" s="3">
+        <v>200</v>
+      </c>
+      <c r="I48" s="3">
+        <v>200</v>
+      </c>
+      <c r="J48" s="3">
         <v>500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>2600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>2600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>2400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>2500</v>
-      </c>
-      <c r="P48" s="3">
-        <v>2600</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>2600</v>
       </c>
       <c r="R48" s="3">
         <v>2600</v>
       </c>
       <c r="S48" s="3">
+        <v>2600</v>
+      </c>
+      <c r="T48" s="3">
+        <v>2600</v>
+      </c>
+      <c r="U48" s="3">
         <v>2700</v>
-      </c>
-      <c r="T48" s="3">
-        <v>900</v>
-      </c>
-      <c r="U48" s="3">
-        <v>900</v>
       </c>
       <c r="V48" s="3">
         <v>900</v>
@@ -3315,8 +3531,14 @@
       <c r="Y48" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3">
+        <v>900</v>
+      </c>
+      <c r="AA48" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3386,8 +3608,14 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3685,14 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,8 +3762,14 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3599,8 +3839,14 @@
       <c r="Y52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,8 +3916,14 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3679,70 +3931,76 @@
         <v>300</v>
       </c>
       <c r="E54" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F54" s="3">
         <v>300</v>
       </c>
       <c r="G54" s="3">
+        <v>300</v>
+      </c>
+      <c r="H54" s="3">
+        <v>300</v>
+      </c>
+      <c r="I54" s="3">
         <v>400</v>
-      </c>
-      <c r="H54" s="3">
-        <v>700</v>
-      </c>
-      <c r="I54" s="3">
-        <v>700</v>
       </c>
       <c r="J54" s="3">
         <v>700</v>
       </c>
       <c r="K54" s="3">
+        <v>700</v>
+      </c>
+      <c r="L54" s="3">
+        <v>700</v>
+      </c>
+      <c r="M54" s="3">
         <v>900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>2700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>2800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>2600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>2700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>2700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>2900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>2900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>3000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>1600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>1800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>1100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>1100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>1500</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +4026,10 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,46 +4055,48 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>100</v>
+      </c>
+      <c r="E57" s="3">
+        <v>100</v>
+      </c>
+      <c r="F57" s="3">
         <v>500</v>
-      </c>
-      <c r="E57" s="3">
-        <v>400</v>
-      </c>
-      <c r="F57" s="3">
-        <v>400</v>
       </c>
       <c r="G57" s="3">
         <v>400</v>
       </c>
       <c r="H57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="I57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="J57" s="3">
         <v>300</v>
       </c>
       <c r="K57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M57" s="3">
         <v>200</v>
       </c>
       <c r="N57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P57" s="3">
         <v>100</v>
@@ -3849,42 +4111,48 @@
         <v>100</v>
       </c>
       <c r="T57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V57" s="3">
+        <v>0</v>
+      </c>
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+      <c r="X57" s="3">
         <v>400</v>
       </c>
-      <c r="W57" s="3">
-        <v>0</v>
-      </c>
-      <c r="X57" s="3">
-        <v>0</v>
-      </c>
       <c r="Y57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" s="3">
         <v>3500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>3400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>3100</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>8</v>
@@ -3898,11 +4166,11 @@
       <c r="L58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
-      <c r="N58" s="3">
-        <v>0</v>
+      <c r="M58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
@@ -3920,25 +4188,31 @@
         <v>0</v>
       </c>
       <c r="T58" s="3">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+      <c r="V58" s="3">
         <v>800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>800</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>300</v>
       </c>
-      <c r="W58" s="3">
-        <v>100</v>
-      </c>
-      <c r="X58" s="3" t="s">
+      <c r="Y58" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y58" s="3" t="s">
+      <c r="AA58" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4000,54 +4274,60 @@
         <v>0</v>
       </c>
       <c r="W59" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X59" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y59" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3">
+        <v>400</v>
+      </c>
+      <c r="AA59" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>100</v>
+      </c>
+      <c r="E60" s="3">
+        <v>100</v>
+      </c>
+      <c r="F60" s="3">
         <v>4000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>3800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>3500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>400</v>
-      </c>
-      <c r="H60" s="3">
-        <v>300</v>
-      </c>
-      <c r="I60" s="3">
-        <v>300</v>
       </c>
       <c r="J60" s="3">
         <v>300</v>
       </c>
       <c r="K60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M60" s="3">
         <v>200</v>
       </c>
       <c r="N60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P60" s="3">
         <v>100</v>
@@ -4062,82 +4342,88 @@
         <v>100</v>
       </c>
       <c r="T60" s="3">
+        <v>100</v>
+      </c>
+      <c r="U60" s="3">
+        <v>100</v>
+      </c>
+      <c r="V60" s="3">
         <v>800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>600</v>
-      </c>
-      <c r="W60" s="3">
-        <v>400</v>
-      </c>
-      <c r="X60" s="3">
-        <v>400</v>
       </c>
       <c r="Y60" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3">
+        <v>400</v>
+      </c>
+      <c r="AA60" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>3600</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>3600</v>
       </c>
       <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
         <v>300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>3200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>3100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>2900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>2800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>2700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>2500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>2400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>2100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>1900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>1700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>1700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>1600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>1600</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
       <c r="V61" s="3">
         <v>0</v>
       </c>
@@ -4150,16 +4436,22 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="E62" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="F62" s="3">
         <v>100</v>
@@ -4204,10 +4496,10 @@
         <v>100</v>
       </c>
       <c r="T62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V62" s="3">
         <v>0</v>
@@ -4221,8 +4513,14 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4590,14 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4667,14 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,79 +4744,91 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E66" s="3">
+        <v>4200</v>
+      </c>
+      <c r="F66" s="3">
         <v>4100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>3900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>3800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>3700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>3500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>3300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>3100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>3000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>2800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>2700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>2300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>2000</v>
-      </c>
-      <c r="P66" s="3">
-        <v>1800</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>1800</v>
       </c>
       <c r="R66" s="3">
         <v>1800</v>
       </c>
       <c r="S66" s="3">
+        <v>1800</v>
+      </c>
+      <c r="T66" s="3">
+        <v>1800</v>
+      </c>
+      <c r="U66" s="3">
         <v>1700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4854,10 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4927,14 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +5004,14 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +5081,14 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,79 +5158,91 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="F72" s="3">
         <v>-10100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-10000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-9900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-9700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-9200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-9000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-8800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-8600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-6500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-6300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-6000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-5700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-5300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-5100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-4900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-4700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-4700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-2800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-2500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-2200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-1400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5312,14 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5389,14 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,79 +5466,91 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E76" s="3">
         <v>-3800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="G76" s="3">
         <v>-3600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-3500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-3300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-2900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-2600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-2400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-2200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-100</v>
       </c>
-      <c r="M76" s="3">
-        <v>100</v>
-      </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
+        <v>100</v>
+      </c>
+      <c r="P76" s="3">
         <v>400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>1000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>1200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>1300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>1000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>1100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,155 +5620,173 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44712</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44620</v>
+      </c>
+      <c r="F80" s="2">
         <v>44530</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44439</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44347</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44255</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44165</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44074</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43982</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43890</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43799</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43708</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43616</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43524</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43434</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43343</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43251</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43159</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43069</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42978</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42886</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42794</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42704</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G81" s="3">
         <v>-100</v>
       </c>
-      <c r="F81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I81" s="3">
         <v>-400</v>
       </c>
-      <c r="H81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-200</v>
-      </c>
       <c r="J81" s="3">
         <v>-200</v>
       </c>
       <c r="K81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M81" s="3">
         <v>-2000</v>
       </c>
-      <c r="L81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-300</v>
-      </c>
       <c r="N81" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="O81" s="3">
         <v>-300</v>
       </c>
       <c r="P81" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="Q81" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="R81" s="3">
         <v>-200</v>
       </c>
       <c r="S81" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="T81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U81" s="3">
+        <v>0</v>
+      </c>
+      <c r="V81" s="3">
         <v>-400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-1800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,8 +5812,10 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5431,38 +5829,38 @@
         <v>0</v>
       </c>
       <c r="G83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H83" s="3">
         <v>0</v>
       </c>
       <c r="I83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J83" s="3">
         <v>0</v>
       </c>
       <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
         <v>600</v>
       </c>
-      <c r="L83" s="3">
-        <v>100</v>
-      </c>
-      <c r="M83" s="3">
-        <v>0</v>
-      </c>
       <c r="N83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
         <v>200</v>
       </c>
-      <c r="P83" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>0</v>
-      </c>
       <c r="R83" s="3">
         <v>0</v>
       </c>
@@ -5487,8 +5885,14 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5962,14 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +6039,14 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +6116,14 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +6193,14 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,8 +6270,14 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5854,19 +6288,19 @@
         <v>-100</v>
       </c>
       <c r="F89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="G89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H89" s="3">
         <v>-200</v>
       </c>
       <c r="I89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="K89" s="3">
         <v>-100</v>
@@ -5875,46 +6309,52 @@
         <v>-100</v>
       </c>
       <c r="M89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="N89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="O89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>-200</v>
-      </c>
       <c r="R89" s="3">
         <v>0</v>
       </c>
       <c r="S89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
         <v>-300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-100</v>
       </c>
-      <c r="U89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="V89" s="3">
-        <v>-200</v>
-      </c>
       <c r="W89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y89" s="3">
         <v>-500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>-400</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,43 +6380,45 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E91" s="3" t="s">
+      <c r="L91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>8</v>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>8</v>
@@ -5990,29 +6432,35 @@
       <c r="R91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S91" s="3">
+      <c r="S91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U91" s="3">
         <v>-1600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>200</v>
       </c>
-      <c r="U91" s="3" t="s">
+      <c r="W91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V91" s="3" t="s">
+      <c r="X91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-100</v>
       </c>
-      <c r="X91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y91" s="3" t="s">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6530,14 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,79 +6607,91 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
+      <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E94" s="3" t="s">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F94" s="3" t="s">
+      <c r="T94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3">
-        <v>-300</v>
-      </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-1600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>200</v>
       </c>
-      <c r="U94" s="3">
-        <v>-200</v>
-      </c>
-      <c r="V94" s="3">
-        <v>0</v>
-      </c>
       <c r="W94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3">
         <v>-100</v>
       </c>
-      <c r="X94" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6717,10 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6322,8 +6790,14 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6867,14 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6944,14 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,13 +7021,19 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>100</v>
+      <c r="D100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E100" s="3">
         <v>100</v>
@@ -6553,61 +7045,67 @@
         <v>100</v>
       </c>
       <c r="H100" s="3">
+        <v>100</v>
+      </c>
+      <c r="I100" s="3">
+        <v>100</v>
+      </c>
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
-        <v>100</v>
-      </c>
-      <c r="J100" s="3">
-        <v>100</v>
-      </c>
       <c r="K100" s="3">
+        <v>100</v>
+      </c>
+      <c r="L100" s="3">
+        <v>100</v>
+      </c>
+      <c r="M100" s="3">
         <v>200</v>
       </c>
-      <c r="L100" s="3">
-        <v>100</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
+        <v>100</v>
+      </c>
+      <c r="O100" s="3">
         <v>400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>200</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>100</v>
-      </c>
       <c r="R100" s="3">
         <v>0</v>
       </c>
       <c r="S100" s="3">
+        <v>100</v>
+      </c>
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>1600</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>600</v>
       </c>
-      <c r="Y100" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="AA100" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6677,75 +7175,87 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
       </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
-        <v>100</v>
-      </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J102" s="3">
         <v>0</v>
       </c>
       <c r="K102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L102" s="3">
         <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>100</v>
+      </c>
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
-      <c r="O102" s="3">
-        <v>100</v>
-      </c>
       <c r="P102" s="3">
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>100</v>
+      </c>
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>-300</v>
       </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>500</v>
       </c>
-      <c r="V102" s="3">
-        <v>0</v>
-      </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>-400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NRIS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NRIS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="92">
   <si>
     <t>NRIS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,115 +665,119 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44804</v>
+      </c>
+      <c r="E7" s="2">
         <v>44712</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44620</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44530</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44439</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44347</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44255</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44165</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44074</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43982</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43890</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43799</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43708</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43616</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43524</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43434</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43343</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43251</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43159</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43069</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42978</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42886</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42794</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42704</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -781,7 +785,7 @@
         <v>200</v>
       </c>
       <c r="E8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F8" s="3">
         <v>100</v>
@@ -802,17 +806,17 @@
         <v>100</v>
       </c>
       <c r="L8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N8" s="3">
+        <v>100</v>
+      </c>
+      <c r="O8" s="3">
         <v>200</v>
       </c>
-      <c r="O8" s="3">
-        <v>100</v>
-      </c>
       <c r="P8" s="3">
         <v>100</v>
       </c>
@@ -832,7 +836,7 @@
         <v>100</v>
       </c>
       <c r="V8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W8" s="3">
         <v>0</v>
@@ -847,10 +851,13 @@
         <v>0</v>
       </c>
       <c r="AA8" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -864,25 +871,25 @@
         <v>200</v>
       </c>
       <c r="G9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H9" s="3">
+        <v>100</v>
+      </c>
+      <c r="I9" s="3">
         <v>200</v>
       </c>
-      <c r="I9" s="3">
-        <v>100</v>
-      </c>
       <c r="J9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K9" s="3">
         <v>200</v>
       </c>
       <c r="L9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N9" s="3">
         <v>200</v>
@@ -894,7 +901,7 @@
         <v>200</v>
       </c>
       <c r="Q9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R9" s="3">
         <v>100</v>
@@ -909,7 +916,7 @@
         <v>100</v>
       </c>
       <c r="V9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W9" s="3">
         <v>0</v>
@@ -924,10 +931,13 @@
         <v>0</v>
       </c>
       <c r="AA9" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -935,22 +945,22 @@
         <v>0</v>
       </c>
       <c r="E10" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F10" s="3">
         <v>-100</v>
       </c>
       <c r="G10" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
         <v>-100</v>
       </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
       <c r="J10" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K10" s="3">
         <v>-100</v>
@@ -962,16 +972,16 @@
         <v>-100</v>
       </c>
       <c r="N10" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O10" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P10" s="3">
         <v>-100</v>
       </c>
       <c r="Q10" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R10" s="3">
         <v>0</v>
@@ -1003,8 +1013,11 @@
       <c r="AA10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1109,8 +1123,11 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,19 +1203,22 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -1206,11 +1226,11 @@
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3">
         <v>200</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -1218,11 +1238,11 @@
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="3">
         <v>1300</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>8</v>
@@ -1233,29 +1253,29 @@
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
-      <c r="T14" s="3" t="s">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
       <c r="V14" s="3">
         <v>0</v>
       </c>
       <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
         <v>900</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="3" t="s">
-        <v>8</v>
+      <c r="Y14" s="3">
+        <v>0</v>
       </c>
       <c r="Z14" s="3" t="s">
         <v>8</v>
@@ -1263,20 +1283,23 @@
       <c r="AA14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
         <v>0</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
       <c r="G15" s="3">
         <v>0</v>
       </c>
@@ -1284,10 +1307,10 @@
         <v>0</v>
       </c>
       <c r="I15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -1296,22 +1319,22 @@
         <v>0</v>
       </c>
       <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
         <v>600</v>
       </c>
-      <c r="N15" s="3">
-        <v>100</v>
-      </c>
       <c r="O15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P15" s="3">
         <v>0</v>
       </c>
       <c r="Q15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S15" s="3">
         <v>0</v>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,55 +1392,56 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>200</v>
+      </c>
+      <c r="E17" s="3">
         <v>300</v>
       </c>
-      <c r="E17" s="3">
-        <v>100</v>
-      </c>
       <c r="F17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G17" s="3">
         <v>200</v>
       </c>
       <c r="H17" s="3">
+        <v>200</v>
+      </c>
+      <c r="I17" s="3">
         <v>300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>500</v>
-      </c>
-      <c r="J17" s="3">
-        <v>300</v>
       </c>
       <c r="K17" s="3">
         <v>300</v>
       </c>
       <c r="L17" s="3">
+        <v>300</v>
+      </c>
+      <c r="M17" s="3">
         <v>200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>500</v>
-      </c>
-      <c r="P17" s="3">
-        <v>400</v>
       </c>
       <c r="Q17" s="3">
         <v>400</v>
       </c>
       <c r="R17" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="S17" s="3">
         <v>300</v>
@@ -1423,51 +1450,54 @@
         <v>300</v>
       </c>
       <c r="U17" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="V17" s="3">
+        <v>100</v>
+      </c>
+      <c r="W17" s="3">
         <v>400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>800</v>
-      </c>
-      <c r="Z17" s="3">
-        <v>400</v>
       </c>
       <c r="AA17" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB17" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3">
         <v>-100</v>
       </c>
-      <c r="E18" s="3">
-        <v>0</v>
-      </c>
       <c r="F18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G18" s="3">
         <v>-100</v>
       </c>
       <c r="H18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I18" s="3">
         <v>-200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-400</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-200</v>
       </c>
       <c r="K18" s="3">
         <v>-200</v>
@@ -1476,22 +1506,22 @@
         <v>-200</v>
       </c>
       <c r="M18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N18" s="3">
         <v>-2100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-400</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-300</v>
       </c>
       <c r="Q18" s="3">
         <v>-300</v>
       </c>
       <c r="R18" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="S18" s="3">
         <v>-200</v>
@@ -1500,28 +1530,31 @@
         <v>-200</v>
       </c>
       <c r="U18" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="V18" s="3">
+        <v>0</v>
+      </c>
+      <c r="W18" s="3">
         <v>-400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-1800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-800</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-400</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,8 +1582,9 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1618,27 +1652,30 @@
         <v>0</v>
       </c>
       <c r="Y20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>0</v>
+      </c>
+      <c r="E21" s="3">
         <v>-100</v>
       </c>
-      <c r="E21" s="3">
-        <v>0</v>
-      </c>
       <c r="F21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G21" s="3">
         <v>-100</v>
@@ -1647,64 +1684,67 @@
         <v>-100</v>
       </c>
       <c r="I21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J21" s="3">
         <v>-300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-300</v>
-      </c>
-      <c r="P21" s="3">
-        <v>-200</v>
       </c>
       <c r="Q21" s="3">
         <v>-200</v>
       </c>
       <c r="R21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S21" s="3">
         <v>-100</v>
-      </c>
-      <c r="S21" s="3">
-        <v>-200</v>
       </c>
       <c r="T21" s="3">
         <v>-200</v>
       </c>
       <c r="U21" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="V21" s="3">
+        <v>0</v>
+      </c>
+      <c r="W21" s="3">
         <v>-400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-1800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-700</v>
-      </c>
-      <c r="Z21" s="3">
-        <v>-400</v>
       </c>
       <c r="AA21" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB21" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1774,37 +1814,40 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-      <c r="Z22" s="3" t="s">
-        <v>8</v>
+      <c r="Z22" s="3">
+        <v>0</v>
       </c>
       <c r="AA22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
         <v>-100</v>
       </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
       <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
         <v>-200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-400</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-200</v>
       </c>
       <c r="K23" s="3">
         <v>-200</v>
@@ -1813,13 +1856,13 @@
         <v>-200</v>
       </c>
       <c r="M23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N23" s="3">
         <v>-2000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-200</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-300</v>
       </c>
       <c r="P23" s="3">
         <v>-300</v>
@@ -1828,7 +1871,7 @@
         <v>-300</v>
       </c>
       <c r="R23" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="S23" s="3">
         <v>-200</v>
@@ -1837,28 +1880,31 @@
         <v>-200</v>
       </c>
       <c r="U23" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="V23" s="3">
+        <v>0</v>
+      </c>
+      <c r="W23" s="3">
         <v>-400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-1800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-800</v>
-      </c>
-      <c r="Z23" s="3">
-        <v>-400</v>
       </c>
       <c r="AA23" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB23" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1934,8 +1980,11 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,31 +2060,34 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
         <v>-100</v>
       </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
       <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
         <v>-200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-400</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-200</v>
       </c>
       <c r="K26" s="3">
         <v>-200</v>
@@ -2044,13 +2096,13 @@
         <v>-200</v>
       </c>
       <c r="M26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N26" s="3">
         <v>-2000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-200</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-300</v>
       </c>
       <c r="P26" s="3">
         <v>-300</v>
@@ -2059,7 +2111,7 @@
         <v>-300</v>
       </c>
       <c r="R26" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="S26" s="3">
         <v>-200</v>
@@ -2068,51 +2120,54 @@
         <v>-200</v>
       </c>
       <c r="U26" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="V26" s="3">
+        <v>0</v>
+      </c>
+      <c r="W26" s="3">
         <v>-400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-1800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-800</v>
-      </c>
-      <c r="Z26" s="3">
-        <v>-400</v>
       </c>
       <c r="AA26" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB26" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
         <v>-100</v>
       </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
       <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
         <v>-200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-400</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-200</v>
       </c>
       <c r="K27" s="3">
         <v>-200</v>
@@ -2121,13 +2176,13 @@
         <v>-200</v>
       </c>
       <c r="M27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N27" s="3">
         <v>-2000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-200</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-300</v>
       </c>
       <c r="P27" s="3">
         <v>-300</v>
@@ -2136,7 +2191,7 @@
         <v>-300</v>
       </c>
       <c r="R27" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="S27" s="3">
         <v>-200</v>
@@ -2145,28 +2200,31 @@
         <v>-200</v>
       </c>
       <c r="U27" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="V27" s="3">
+        <v>0</v>
+      </c>
+      <c r="W27" s="3">
         <v>-400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-1800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-800</v>
-      </c>
-      <c r="Z27" s="3">
-        <v>-400</v>
       </c>
       <c r="AA27" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB27" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,8 +2540,11 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2542,39 +2612,42 @@
         <v>0</v>
       </c>
       <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3">
         <v>-100</v>
       </c>
-      <c r="Z32" s="3">
-        <v>0</v>
-      </c>
       <c r="AA32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
         <v>-100</v>
       </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
       <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
         <v>-200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-400</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-200</v>
       </c>
       <c r="K33" s="3">
         <v>-200</v>
@@ -2583,13 +2656,13 @@
         <v>-200</v>
       </c>
       <c r="M33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N33" s="3">
         <v>-2000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-200</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-300</v>
       </c>
       <c r="P33" s="3">
         <v>-300</v>
@@ -2598,7 +2671,7 @@
         <v>-300</v>
       </c>
       <c r="R33" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="S33" s="3">
         <v>-200</v>
@@ -2607,28 +2680,31 @@
         <v>-200</v>
       </c>
       <c r="U33" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="V33" s="3">
+        <v>0</v>
+      </c>
+      <c r="W33" s="3">
         <v>-400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-1800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-800</v>
-      </c>
-      <c r="Z33" s="3">
-        <v>-400</v>
       </c>
       <c r="AA33" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB33" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,31 +2780,34 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
         <v>-100</v>
       </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
       <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
         <v>-200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-400</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-200</v>
       </c>
       <c r="K35" s="3">
         <v>-200</v>
@@ -2737,13 +2816,13 @@
         <v>-200</v>
       </c>
       <c r="M35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N35" s="3">
         <v>-2000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-200</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-300</v>
       </c>
       <c r="P35" s="3">
         <v>-300</v>
@@ -2752,7 +2831,7 @@
         <v>-300</v>
       </c>
       <c r="R35" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="S35" s="3">
         <v>-200</v>
@@ -2761,110 +2840,116 @@
         <v>-200</v>
       </c>
       <c r="U35" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="V35" s="3">
+        <v>0</v>
+      </c>
+      <c r="W35" s="3">
         <v>-400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-1800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-800</v>
-      </c>
-      <c r="Z35" s="3">
-        <v>-400</v>
       </c>
       <c r="AA35" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB35" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44804</v>
+      </c>
+      <c r="E38" s="2">
         <v>44712</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44620</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44530</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44439</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44347</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44255</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44165</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44074</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43982</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43890</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43799</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43708</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43616</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43524</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43434</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43343</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43251</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43159</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43069</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42978</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42886</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42794</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42704</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,13 +3007,14 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E41" s="3">
         <v>100</v>
@@ -2942,11 +3029,11 @@
         <v>100</v>
       </c>
       <c r="I41" s="3">
+        <v>100</v>
+      </c>
+      <c r="J41" s="3">
         <v>200</v>
       </c>
-      <c r="J41" s="3">
-        <v>100</v>
-      </c>
       <c r="K41" s="3">
         <v>100</v>
       </c>
@@ -2954,11 +3041,11 @@
         <v>100</v>
       </c>
       <c r="M41" s="3">
+        <v>100</v>
+      </c>
+      <c r="N41" s="3">
         <v>200</v>
       </c>
-      <c r="N41" s="3">
-        <v>100</v>
-      </c>
       <c r="O41" s="3">
         <v>100</v>
       </c>
@@ -2975,31 +3062,34 @@
         <v>100</v>
       </c>
       <c r="T41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U41" s="3">
         <v>200</v>
       </c>
       <c r="V41" s="3">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="W41" s="3">
         <v>600</v>
       </c>
       <c r="X41" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="Y41" s="3">
         <v>100</v>
       </c>
       <c r="Z41" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA41" s="3">
         <v>500</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3075,13 +3165,16 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E43" s="3">
         <v>100</v>
@@ -3090,7 +3183,7 @@
         <v>100</v>
       </c>
       <c r="G43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H43" s="3">
         <v>0</v>
@@ -3111,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="N43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O43" s="3">
         <v>100</v>
@@ -3126,16 +3219,16 @@
         <v>100</v>
       </c>
       <c r="S43" s="3">
+        <v>100</v>
+      </c>
+      <c r="T43" s="3">
         <v>200</v>
       </c>
-      <c r="T43" s="3">
-        <v>100</v>
-      </c>
       <c r="U43" s="3">
         <v>100</v>
       </c>
       <c r="V43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W43" s="3">
         <v>0</v>
@@ -3152,8 +3245,11 @@
       <c r="AA43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3229,8 +3325,11 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3289,37 +3388,40 @@
         <v>0</v>
       </c>
       <c r="V45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W45" s="3">
+        <v>100</v>
+      </c>
+      <c r="X45" s="3">
         <v>300</v>
       </c>
-      <c r="X45" s="3">
-        <v>100</v>
-      </c>
       <c r="Y45" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z45" s="3">
         <v>400</v>
       </c>
-      <c r="Z45" s="3">
-        <v>100</v>
-      </c>
       <c r="AA45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E46" s="3">
+        <v>100</v>
+      </c>
+      <c r="F46" s="3">
         <v>200</v>
       </c>
-      <c r="F46" s="3">
-        <v>100</v>
-      </c>
       <c r="G46" s="3">
         <v>100</v>
       </c>
@@ -3327,11 +3429,11 @@
         <v>100</v>
       </c>
       <c r="I46" s="3">
+        <v>100</v>
+      </c>
+      <c r="J46" s="3">
         <v>200</v>
       </c>
-      <c r="J46" s="3">
-        <v>100</v>
-      </c>
       <c r="K46" s="3">
         <v>100</v>
       </c>
@@ -3339,13 +3441,13 @@
         <v>100</v>
       </c>
       <c r="M46" s="3">
+        <v>100</v>
+      </c>
+      <c r="N46" s="3">
         <v>200</v>
       </c>
-      <c r="N46" s="3">
-        <v>100</v>
-      </c>
       <c r="O46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P46" s="3">
         <v>200</v>
@@ -3354,37 +3456,40 @@
         <v>200</v>
       </c>
       <c r="R46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S46" s="3">
+        <v>100</v>
+      </c>
+      <c r="T46" s="3">
         <v>200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>900</v>
-      </c>
-      <c r="X46" s="3">
-        <v>200</v>
       </c>
       <c r="Y46" s="3">
         <v>200</v>
       </c>
       <c r="Z46" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA46" s="3">
         <v>600</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3460,8 +3565,11 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3484,31 +3592,31 @@
         <v>200</v>
       </c>
       <c r="J48" s="3">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="K48" s="3">
         <v>500</v>
       </c>
       <c r="L48" s="3">
+        <v>500</v>
+      </c>
+      <c r="M48" s="3">
         <v>600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>700</v>
-      </c>
-      <c r="N48" s="3">
-        <v>2600</v>
       </c>
       <c r="O48" s="3">
         <v>2600</v>
       </c>
       <c r="P48" s="3">
+        <v>2600</v>
+      </c>
+      <c r="Q48" s="3">
         <v>2400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2500</v>
-      </c>
-      <c r="R48" s="3">
-        <v>2600</v>
       </c>
       <c r="S48" s="3">
         <v>2600</v>
@@ -3517,10 +3625,10 @@
         <v>2600</v>
       </c>
       <c r="U48" s="3">
+        <v>2600</v>
+      </c>
+      <c r="V48" s="3">
         <v>2700</v>
-      </c>
-      <c r="V48" s="3">
-        <v>900</v>
       </c>
       <c r="W48" s="3">
         <v>900</v>
@@ -3537,8 +3645,11 @@
       <c r="AA48" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3614,8 +3725,11 @@
       <c r="AA49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,8 +3885,11 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3845,8 +3965,11 @@
       <c r="AA52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,19 +4045,22 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>400</v>
+      </c>
+      <c r="E54" s="3">
         <v>300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>400</v>
-      </c>
-      <c r="F54" s="3">
-        <v>300</v>
       </c>
       <c r="G54" s="3">
         <v>300</v>
@@ -3943,10 +4069,10 @@
         <v>300</v>
       </c>
       <c r="I54" s="3">
+        <v>300</v>
+      </c>
+      <c r="J54" s="3">
         <v>400</v>
-      </c>
-      <c r="J54" s="3">
-        <v>700</v>
       </c>
       <c r="K54" s="3">
         <v>700</v>
@@ -3955,52 +4081,55 @@
         <v>700</v>
       </c>
       <c r="M54" s="3">
+        <v>700</v>
+      </c>
+      <c r="N54" s="3">
         <v>900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2600</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>2700</v>
       </c>
       <c r="R54" s="3">
         <v>2700</v>
       </c>
       <c r="S54" s="3">
-        <v>2900</v>
+        <v>2700</v>
       </c>
       <c r="T54" s="3">
         <v>2900</v>
       </c>
       <c r="U54" s="3">
+        <v>2900</v>
+      </c>
+      <c r="V54" s="3">
         <v>3000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1800</v>
-      </c>
-      <c r="X54" s="3">
-        <v>1100</v>
       </c>
       <c r="Y54" s="3">
         <v>1100</v>
       </c>
       <c r="Z54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AA54" s="3">
         <v>1500</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,8 +4187,9 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4069,10 +4200,10 @@
         <v>100</v>
       </c>
       <c r="F57" s="3">
+        <v>100</v>
+      </c>
+      <c r="G57" s="3">
         <v>500</v>
-      </c>
-      <c r="G57" s="3">
-        <v>400</v>
       </c>
       <c r="H57" s="3">
         <v>400</v>
@@ -4081,7 +4212,7 @@
         <v>400</v>
       </c>
       <c r="J57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K57" s="3">
         <v>300</v>
@@ -4090,7 +4221,7 @@
         <v>300</v>
       </c>
       <c r="M57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N57" s="3">
         <v>200</v>
@@ -4099,7 +4230,7 @@
         <v>200</v>
       </c>
       <c r="P57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q57" s="3">
         <v>100</v>
@@ -4117,25 +4248,28 @@
         <v>100</v>
       </c>
       <c r="V57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W57" s="3">
         <v>0</v>
       </c>
       <c r="X57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y57" s="3">
         <v>400</v>
       </c>
-      <c r="Y57" s="3">
-        <v>0</v>
-      </c>
       <c r="Z57" s="3">
         <v>0</v>
       </c>
       <c r="AA57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4145,17 +4279,17 @@
       <c r="E58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F58" s="3">
+      <c r="F58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G58" s="3">
         <v>3500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>3400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>3100</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>8</v>
@@ -4172,8 +4306,8 @@
       <c r="N58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
+      <c r="O58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P58" s="3">
         <v>0</v>
@@ -4194,25 +4328,28 @@
         <v>0</v>
       </c>
       <c r="V58" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="W58" s="3">
         <v>800</v>
       </c>
       <c r="X58" s="3">
+        <v>800</v>
+      </c>
+      <c r="Y58" s="3">
         <v>300</v>
       </c>
-      <c r="Y58" s="3">
-        <v>100</v>
-      </c>
-      <c r="Z58" s="3" t="s">
-        <v>8</v>
+      <c r="Z58" s="3">
+        <v>100</v>
       </c>
       <c r="AA58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4280,7 +4417,7 @@
         <v>0</v>
       </c>
       <c r="Y59" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Z59" s="3">
         <v>400</v>
@@ -4288,8 +4425,11 @@
       <c r="AA59" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4300,19 +4440,19 @@
         <v>100</v>
       </c>
       <c r="F60" s="3">
+        <v>100</v>
+      </c>
+      <c r="G60" s="3">
         <v>4000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>400</v>
-      </c>
-      <c r="J60" s="3">
-        <v>300</v>
       </c>
       <c r="K60" s="3">
         <v>300</v>
@@ -4321,7 +4461,7 @@
         <v>300</v>
       </c>
       <c r="M60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N60" s="3">
         <v>200</v>
@@ -4330,7 +4470,7 @@
         <v>200</v>
       </c>
       <c r="P60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q60" s="3">
         <v>100</v>
@@ -4348,16 +4488,16 @@
         <v>100</v>
       </c>
       <c r="V60" s="3">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="W60" s="3">
         <v>800</v>
       </c>
       <c r="X60" s="3">
+        <v>800</v>
+      </c>
+      <c r="Y60" s="3">
         <v>600</v>
-      </c>
-      <c r="Y60" s="3">
-        <v>400</v>
       </c>
       <c r="Z60" s="3">
         <v>400</v>
@@ -4365,67 +4505,70 @@
       <c r="AA60" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="E61" s="3">
         <v>3600</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>3600</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
       <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
         <v>300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>3200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>3100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1900</v>
-      </c>
-      <c r="R61" s="3">
-        <v>1700</v>
       </c>
       <c r="S61" s="3">
         <v>1700</v>
       </c>
       <c r="T61" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="U61" s="3">
         <v>1600</v>
       </c>
       <c r="V61" s="3">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="W61" s="3">
         <v>0</v>
@@ -4442,8 +4585,11 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4451,11 +4597,11 @@
         <v>500</v>
       </c>
       <c r="E62" s="3">
+        <v>500</v>
+      </c>
+      <c r="F62" s="3">
         <v>400</v>
       </c>
-      <c r="F62" s="3">
-        <v>100</v>
-      </c>
       <c r="G62" s="3">
         <v>100</v>
       </c>
@@ -4502,7 +4648,7 @@
         <v>100</v>
       </c>
       <c r="V62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W62" s="3">
         <v>0</v>
@@ -4519,8 +4665,11 @@
       <c r="AA62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,55 +4905,58 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4200</v>
+        <v>4300</v>
       </c>
       <c r="E66" s="3">
         <v>4200</v>
       </c>
       <c r="F66" s="3">
+        <v>4200</v>
+      </c>
+      <c r="G66" s="3">
         <v>4100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2000</v>
-      </c>
-      <c r="R66" s="3">
-        <v>1800</v>
       </c>
       <c r="S66" s="3">
         <v>1800</v>
@@ -4807,28 +4965,31 @@
         <v>1800</v>
       </c>
       <c r="U66" s="3">
+        <v>1800</v>
+      </c>
+      <c r="V66" s="3">
         <v>1700</v>
-      </c>
-      <c r="V66" s="3">
-        <v>800</v>
       </c>
       <c r="W66" s="3">
         <v>800</v>
       </c>
       <c r="X66" s="3">
+        <v>800</v>
+      </c>
+      <c r="Y66" s="3">
         <v>700</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>500</v>
-      </c>
-      <c r="Z66" s="3">
-        <v>400</v>
       </c>
       <c r="AA66" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB66" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,8 +5335,11 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -5173,76 +5347,79 @@
         <v>-10300</v>
       </c>
       <c r="E72" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="F72" s="3">
         <v>-10200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-10100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-10000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-9900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-9700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-9200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-9000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-8800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-8600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-6500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-6300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-6000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-5700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-5300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-5100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-4900</v>
-      </c>
-      <c r="U72" s="3">
-        <v>-4700</v>
       </c>
       <c r="V72" s="3">
         <v>-4700</v>
       </c>
       <c r="W72" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="X72" s="3">
         <v>-2800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-2500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-2200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-1400</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,8 +5655,11 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -5481,76 +5667,79 @@
         <v>-3900</v>
       </c>
       <c r="E76" s="3">
-        <v>-3800</v>
+        <v>-3900</v>
       </c>
       <c r="F76" s="3">
         <v>-3800</v>
       </c>
       <c r="G76" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="H76" s="3">
         <v>-3600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-3500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-3300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-2900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-2600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-2400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-2200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-100</v>
       </c>
-      <c r="O76" s="3">
-        <v>100</v>
-      </c>
       <c r="P76" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q76" s="3">
         <v>400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>700</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>1100</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,113 +5815,119 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44804</v>
+      </c>
+      <c r="E80" s="2">
         <v>44712</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44620</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44530</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44439</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44347</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44255</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44165</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44074</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43982</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43890</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43799</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43708</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43616</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43524</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43434</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43343</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43251</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43159</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43069</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42978</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42886</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42794</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42704</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>0</v>
+      </c>
+      <c r="E81" s="3">
         <v>-100</v>
       </c>
-      <c r="E81" s="3">
-        <v>0</v>
-      </c>
       <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
         <v>-200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-400</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-200</v>
       </c>
       <c r="K81" s="3">
         <v>-200</v>
@@ -5741,13 +5936,13 @@
         <v>-200</v>
       </c>
       <c r="M81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N81" s="3">
         <v>-2000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-200</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-300</v>
       </c>
       <c r="P81" s="3">
         <v>-300</v>
@@ -5756,7 +5951,7 @@
         <v>-300</v>
       </c>
       <c r="R81" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="S81" s="3">
         <v>-200</v>
@@ -5765,28 +5960,31 @@
         <v>-200</v>
       </c>
       <c r="U81" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="V81" s="3">
+        <v>0</v>
+      </c>
+      <c r="W81" s="3">
         <v>-400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-1800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-800</v>
-      </c>
-      <c r="Z81" s="3">
-        <v>-400</v>
       </c>
       <c r="AA81" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB81" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6012,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5835,10 +6034,10 @@
         <v>0</v>
       </c>
       <c r="I83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -5847,23 +6046,23 @@
         <v>0</v>
       </c>
       <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
         <v>600</v>
       </c>
-      <c r="N83" s="3">
-        <v>100</v>
-      </c>
       <c r="O83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P83" s="3">
         <v>0</v>
       </c>
       <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
         <v>200</v>
       </c>
-      <c r="R83" s="3">
-        <v>0</v>
-      </c>
       <c r="S83" s="3">
         <v>0</v>
       </c>
@@ -5891,8 +6090,11 @@
       <c r="AA83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,13 +6490,16 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E89" s="3">
         <v>-100</v>
@@ -6294,16 +6511,16 @@
         <v>-100</v>
       </c>
       <c r="H89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I89" s="3">
         <v>-200</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
       <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>-200</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-100</v>
       </c>
       <c r="L89" s="3">
         <v>-100</v>
@@ -6315,46 +6532,49 @@
         <v>-100</v>
       </c>
       <c r="O89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="P89" s="3">
         <v>-200</v>
       </c>
       <c r="Q89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
       <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
         <v>-200</v>
       </c>
-      <c r="T89" s="3">
-        <v>0</v>
-      </c>
       <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
         <v>-300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-100</v>
-      </c>
-      <c r="W89" s="3">
-        <v>-200</v>
       </c>
       <c r="X89" s="3">
         <v>-200</v>
       </c>
       <c r="Y89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Z89" s="3">
         <v>-500</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-400</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,8 +6602,9 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6408,20 +6629,20 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>8</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>8</v>
+      <c r="O91" s="3">
+        <v>0</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>8</v>
@@ -6438,29 +6659,32 @@
       <c r="T91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U91" s="3">
+      <c r="U91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V91" s="3">
         <v>-1600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>200</v>
-      </c>
-      <c r="W91" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Y91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z91" s="3">
         <v>-100</v>
       </c>
-      <c r="Z91" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA91" s="3" t="s">
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB91" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,8 +6840,11 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6639,12 +6869,12 @@
       <c r="J94" s="3">
         <v>0</v>
       </c>
-      <c r="K94" s="3" t="s">
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
@@ -6652,46 +6882,49 @@
         <v>0</v>
       </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>-300</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
         <v>0</v>
       </c>
       <c r="R94" s="3">
         <v>0</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>8</v>
+      <c r="S94" s="3">
+        <v>0</v>
       </c>
       <c r="T94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U94" s="3">
+      <c r="U94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V94" s="3">
         <v>-1600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-200</v>
       </c>
-      <c r="X94" s="3">
-        <v>0</v>
-      </c>
       <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="3">
         <v>-100</v>
       </c>
-      <c r="Z94" s="3">
-        <v>0</v>
-      </c>
       <c r="AA94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,16 +7270,19 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E100" s="3">
-        <v>100</v>
+      <c r="E100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F100" s="3">
         <v>100</v>
@@ -7051,61 +7297,64 @@
         <v>100</v>
       </c>
       <c r="J100" s="3">
+        <v>100</v>
+      </c>
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
-        <v>100</v>
-      </c>
       <c r="L100" s="3">
         <v>100</v>
       </c>
       <c r="M100" s="3">
+        <v>100</v>
+      </c>
+      <c r="N100" s="3">
         <v>200</v>
       </c>
-      <c r="N100" s="3">
-        <v>100</v>
-      </c>
       <c r="O100" s="3">
+        <v>100</v>
+      </c>
+      <c r="P100" s="3">
         <v>400</v>
-      </c>
-      <c r="P100" s="3">
-        <v>200</v>
       </c>
       <c r="Q100" s="3">
         <v>200</v>
       </c>
       <c r="R100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="S100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>1600</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
       <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
         <v>900</v>
-      </c>
-      <c r="X100" s="3">
-        <v>200</v>
       </c>
       <c r="Y100" s="3">
         <v>200</v>
       </c>
       <c r="Z100" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA100" s="3">
         <v>600</v>
       </c>
-      <c r="AA100" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7181,17 +7430,20 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
         <v>0</v>
       </c>
@@ -7199,13 +7451,13 @@
         <v>0</v>
       </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
-        <v>100</v>
-      </c>
       <c r="J102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K102" s="3">
         <v>0</v>
@@ -7214,48 +7466,51 @@
         <v>0</v>
       </c>
       <c r="M102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>-300</v>
       </c>
-      <c r="V102" s="3">
-        <v>0</v>
-      </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>500</v>
       </c>
-      <c r="X102" s="3">
-        <v>0</v>
-      </c>
       <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>-400</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>200</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NRIS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NRIS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="92">
   <si>
     <t>NRIS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,161 +665,164 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44895</v>
+      </c>
+      <c r="E7" s="2">
         <v>44804</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44712</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44620</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44530</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44439</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44347</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44255</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44165</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44074</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43982</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43890</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43799</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43708</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43616</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43524</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43434</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43343</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43251</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43159</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43069</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42978</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42886</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42794</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42704</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>100</v>
+      </c>
+      <c r="E8" s="3">
+        <v>400</v>
+      </c>
+      <c r="F8" s="3">
         <v>200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
+        <v>100</v>
+      </c>
+      <c r="H8" s="3">
+        <v>100</v>
+      </c>
+      <c r="I8" s="3">
+        <v>100</v>
+      </c>
+      <c r="J8" s="3">
+        <v>100</v>
+      </c>
+      <c r="K8" s="3">
+        <v>100</v>
+      </c>
+      <c r="L8" s="3">
+        <v>100</v>
+      </c>
+      <c r="M8" s="3">
+        <v>100</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
+        <v>100</v>
+      </c>
+      <c r="P8" s="3">
         <v>200</v>
       </c>
-      <c r="F8" s="3">
-        <v>100</v>
-      </c>
-      <c r="G8" s="3">
-        <v>100</v>
-      </c>
-      <c r="H8" s="3">
-        <v>100</v>
-      </c>
-      <c r="I8" s="3">
-        <v>100</v>
-      </c>
-      <c r="J8" s="3">
-        <v>100</v>
-      </c>
-      <c r="K8" s="3">
-        <v>100</v>
-      </c>
-      <c r="L8" s="3">
-        <v>100</v>
-      </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
-      <c r="N8" s="3">
-        <v>100</v>
-      </c>
-      <c r="O8" s="3">
-        <v>200</v>
-      </c>
-      <c r="P8" s="3">
-        <v>100</v>
-      </c>
       <c r="Q8" s="3">
         <v>100</v>
       </c>
@@ -839,7 +842,7 @@
         <v>100</v>
       </c>
       <c r="W8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X8" s="3">
         <v>0</v>
@@ -854,10 +857,13 @@
         <v>0</v>
       </c>
       <c r="AB8" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -865,7 +871,7 @@
         <v>200</v>
       </c>
       <c r="E9" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="F9" s="3">
         <v>200</v>
@@ -874,25 +880,25 @@
         <v>200</v>
       </c>
       <c r="H9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I9" s="3">
+        <v>100</v>
+      </c>
+      <c r="J9" s="3">
         <v>200</v>
       </c>
-      <c r="J9" s="3">
-        <v>100</v>
-      </c>
       <c r="K9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L9" s="3">
         <v>200</v>
       </c>
       <c r="M9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O9" s="3">
         <v>200</v>
@@ -904,7 +910,7 @@
         <v>200</v>
       </c>
       <c r="R9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S9" s="3">
         <v>100</v>
@@ -919,7 +925,7 @@
         <v>100</v>
       </c>
       <c r="W9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X9" s="3">
         <v>0</v>
@@ -934,36 +940,39 @@
         <v>0</v>
       </c>
       <c r="AB9" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E10" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F10" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G10" s="3">
         <v>-100</v>
       </c>
       <c r="H10" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
         <v>-100</v>
       </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
       <c r="K10" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L10" s="3">
         <v>-100</v>
@@ -975,16 +984,16 @@
         <v>-100</v>
       </c>
       <c r="O10" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P10" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="3">
         <v>-100</v>
       </c>
       <c r="R10" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S10" s="3">
         <v>0</v>
@@ -1016,8 +1025,11 @@
       <c r="AB10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1046,8 +1058,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1126,8 +1139,11 @@
       <c r="AB12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,8 +1222,11 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1217,11 +1236,11 @@
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -1229,11 +1248,11 @@
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="3">
         <v>200</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
@@ -1241,11 +1260,11 @@
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O14" s="3">
         <v>1300</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
@@ -1256,29 +1275,29 @@
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
       </c>
-      <c r="U14" s="3" t="s">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
       <c r="W14" s="3">
         <v>0</v>
       </c>
       <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
         <v>900</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="3" t="s">
-        <v>8</v>
+      <c r="Z14" s="3">
+        <v>0</v>
       </c>
       <c r="AA14" s="3" t="s">
         <v>8</v>
@@ -1286,8 +1305,11 @@
       <c r="AB14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1297,12 +1319,12 @@
       <c r="E15" s="3">
         <v>0</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
       <c r="H15" s="3">
         <v>0</v>
       </c>
@@ -1310,10 +1332,10 @@
         <v>0</v>
       </c>
       <c r="J15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L15" s="3">
         <v>0</v>
@@ -1322,22 +1344,22 @@
         <v>0</v>
       </c>
       <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
         <v>600</v>
       </c>
-      <c r="O15" s="3">
-        <v>100</v>
-      </c>
       <c r="P15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q15" s="3">
         <v>0</v>
       </c>
       <c r="R15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T15" s="3">
         <v>0</v>
@@ -1366,8 +1388,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,8 +1418,9 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1402,49 +1428,49 @@
         <v>200</v>
       </c>
       <c r="E17" s="3">
+        <v>500</v>
+      </c>
+      <c r="F17" s="3">
         <v>300</v>
       </c>
-      <c r="F17" s="3">
-        <v>100</v>
-      </c>
       <c r="G17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H17" s="3">
         <v>200</v>
       </c>
       <c r="I17" s="3">
+        <v>200</v>
+      </c>
+      <c r="J17" s="3">
         <v>300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>500</v>
-      </c>
-      <c r="K17" s="3">
-        <v>300</v>
       </c>
       <c r="L17" s="3">
         <v>300</v>
       </c>
       <c r="M17" s="3">
+        <v>300</v>
+      </c>
+      <c r="N17" s="3">
         <v>200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>500</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>400</v>
       </c>
       <c r="R17" s="3">
         <v>400</v>
       </c>
       <c r="S17" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="T17" s="3">
         <v>300</v>
@@ -1453,55 +1479,58 @@
         <v>300</v>
       </c>
       <c r="V17" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="W17" s="3">
+        <v>100</v>
+      </c>
+      <c r="X17" s="3">
         <v>400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>300</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>800</v>
-      </c>
-      <c r="AA17" s="3">
-        <v>400</v>
       </c>
       <c r="AB17" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC17" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E18" s="3">
         <v>-100</v>
       </c>
       <c r="F18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H18" s="3">
         <v>-100</v>
       </c>
       <c r="I18" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="J18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K18" s="3">
         <v>-400</v>
       </c>
-      <c r="K18" s="3">
-        <v>-200</v>
-      </c>
       <c r="L18" s="3">
         <v>-200</v>
       </c>
@@ -1509,22 +1538,22 @@
         <v>-200</v>
       </c>
       <c r="N18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O18" s="3">
         <v>-2100</v>
       </c>
-      <c r="O18" s="3">
-        <v>-200</v>
-      </c>
       <c r="P18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-400</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>-300</v>
       </c>
       <c r="R18" s="3">
         <v>-300</v>
       </c>
       <c r="S18" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="T18" s="3">
         <v>-200</v>
@@ -1533,28 +1562,31 @@
         <v>-200</v>
       </c>
       <c r="V18" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="W18" s="3">
+        <v>0</v>
+      </c>
+      <c r="X18" s="3">
         <v>-400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-1800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-800</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-400</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,8 +1615,9 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1655,30 +1688,33 @@
         <v>0</v>
       </c>
       <c r="Z20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E21" s="3">
         <v>-100</v>
       </c>
       <c r="F21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H21" s="3">
         <v>-100</v>
@@ -1687,64 +1723,67 @@
         <v>-100</v>
       </c>
       <c r="J21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K21" s="3">
         <v>-300</v>
       </c>
-      <c r="K21" s="3">
-        <v>-200</v>
-      </c>
       <c r="L21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M21" s="3">
         <v>-100</v>
       </c>
-      <c r="M21" s="3">
-        <v>-200</v>
-      </c>
       <c r="N21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O21" s="3">
         <v>-1400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-300</v>
       </c>
-      <c r="Q21" s="3">
-        <v>-200</v>
-      </c>
       <c r="R21" s="3">
         <v>-200</v>
       </c>
       <c r="S21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T21" s="3">
         <v>-100</v>
       </c>
-      <c r="T21" s="3">
-        <v>-200</v>
-      </c>
       <c r="U21" s="3">
         <v>-200</v>
       </c>
       <c r="V21" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="W21" s="3">
+        <v>0</v>
+      </c>
+      <c r="X21" s="3">
         <v>-400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-1800</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-300</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-700</v>
-      </c>
-      <c r="AA21" s="3">
-        <v>-400</v>
       </c>
       <c r="AB21" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC21" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1752,7 +1791,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -1817,41 +1856,44 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-      <c r="AA22" s="3" t="s">
-        <v>8</v>
+      <c r="AA22" s="3">
+        <v>0</v>
       </c>
       <c r="AB22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F23" s="3">
         <v>-100</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
       <c r="G23" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="H23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I23" s="3">
         <v>-100</v>
       </c>
-      <c r="I23" s="3">
-        <v>-200</v>
-      </c>
       <c r="J23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K23" s="3">
         <v>-400</v>
       </c>
-      <c r="K23" s="3">
-        <v>-200</v>
-      </c>
       <c r="L23" s="3">
         <v>-200</v>
       </c>
@@ -1859,13 +1901,13 @@
         <v>-200</v>
       </c>
       <c r="N23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O23" s="3">
         <v>-2000</v>
       </c>
-      <c r="O23" s="3">
-        <v>-200</v>
-      </c>
       <c r="P23" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="Q23" s="3">
         <v>-300</v>
@@ -1874,7 +1916,7 @@
         <v>-300</v>
       </c>
       <c r="S23" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="T23" s="3">
         <v>-200</v>
@@ -1883,28 +1925,31 @@
         <v>-200</v>
       </c>
       <c r="V23" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="W23" s="3">
+        <v>0</v>
+      </c>
+      <c r="X23" s="3">
         <v>-400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-1800</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-800</v>
-      </c>
-      <c r="AA23" s="3">
-        <v>-400</v>
       </c>
       <c r="AB23" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC23" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1983,8 +2028,11 @@
       <c r="AB24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,35 +2111,38 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F26" s="3">
         <v>-100</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
       <c r="G26" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="H26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I26" s="3">
         <v>-100</v>
       </c>
-      <c r="I26" s="3">
-        <v>-200</v>
-      </c>
       <c r="J26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K26" s="3">
         <v>-400</v>
       </c>
-      <c r="K26" s="3">
-        <v>-200</v>
-      </c>
       <c r="L26" s="3">
         <v>-200</v>
       </c>
@@ -2099,13 +2150,13 @@
         <v>-200</v>
       </c>
       <c r="N26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O26" s="3">
         <v>-2000</v>
       </c>
-      <c r="O26" s="3">
-        <v>-200</v>
-      </c>
       <c r="P26" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="Q26" s="3">
         <v>-300</v>
@@ -2114,7 +2165,7 @@
         <v>-300</v>
       </c>
       <c r="S26" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="T26" s="3">
         <v>-200</v>
@@ -2123,55 +2174,58 @@
         <v>-200</v>
       </c>
       <c r="V26" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="W26" s="3">
+        <v>0</v>
+      </c>
+      <c r="X26" s="3">
         <v>-400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-1800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-300</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-800</v>
-      </c>
-      <c r="AA26" s="3">
-        <v>-400</v>
       </c>
       <c r="AB26" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC26" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F27" s="3">
         <v>-100</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
       <c r="G27" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="H27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I27" s="3">
         <v>-100</v>
       </c>
-      <c r="I27" s="3">
-        <v>-200</v>
-      </c>
       <c r="J27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K27" s="3">
         <v>-400</v>
       </c>
-      <c r="K27" s="3">
-        <v>-200</v>
-      </c>
       <c r="L27" s="3">
         <v>-200</v>
       </c>
@@ -2179,13 +2233,13 @@
         <v>-200</v>
       </c>
       <c r="N27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O27" s="3">
         <v>-2000</v>
       </c>
-      <c r="O27" s="3">
-        <v>-200</v>
-      </c>
       <c r="P27" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="Q27" s="3">
         <v>-300</v>
@@ -2194,7 +2248,7 @@
         <v>-300</v>
       </c>
       <c r="S27" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="T27" s="3">
         <v>-200</v>
@@ -2203,28 +2257,31 @@
         <v>-200</v>
       </c>
       <c r="V27" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="W27" s="3">
+        <v>0</v>
+      </c>
+      <c r="X27" s="3">
         <v>-400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-1800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-300</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-800</v>
-      </c>
-      <c r="AA27" s="3">
-        <v>-400</v>
       </c>
       <c r="AB27" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC27" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2360,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2383,8 +2443,11 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2526,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,8 +2609,11 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2615,43 +2684,46 @@
         <v>0</v>
       </c>
       <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
         <v>-100</v>
       </c>
-      <c r="AA32" s="3">
-        <v>0</v>
-      </c>
       <c r="AB32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F33" s="3">
         <v>-100</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
       <c r="G33" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="H33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I33" s="3">
         <v>-100</v>
       </c>
-      <c r="I33" s="3">
-        <v>-200</v>
-      </c>
       <c r="J33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K33" s="3">
         <v>-400</v>
       </c>
-      <c r="K33" s="3">
-        <v>-200</v>
-      </c>
       <c r="L33" s="3">
         <v>-200</v>
       </c>
@@ -2659,13 +2731,13 @@
         <v>-200</v>
       </c>
       <c r="N33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O33" s="3">
         <v>-2000</v>
       </c>
-      <c r="O33" s="3">
-        <v>-200</v>
-      </c>
       <c r="P33" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="Q33" s="3">
         <v>-300</v>
@@ -2674,7 +2746,7 @@
         <v>-300</v>
       </c>
       <c r="S33" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="T33" s="3">
         <v>-200</v>
@@ -2683,28 +2755,31 @@
         <v>-200</v>
       </c>
       <c r="V33" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="W33" s="3">
+        <v>0</v>
+      </c>
+      <c r="X33" s="3">
         <v>-400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-1800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-800</v>
-      </c>
-      <c r="AA33" s="3">
-        <v>-400</v>
       </c>
       <c r="AB33" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC33" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,35 +2858,38 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F35" s="3">
         <v>-100</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
       <c r="G35" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="H35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I35" s="3">
         <v>-100</v>
       </c>
-      <c r="I35" s="3">
-        <v>-200</v>
-      </c>
       <c r="J35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K35" s="3">
         <v>-400</v>
       </c>
-      <c r="K35" s="3">
-        <v>-200</v>
-      </c>
       <c r="L35" s="3">
         <v>-200</v>
       </c>
@@ -2819,13 +2897,13 @@
         <v>-200</v>
       </c>
       <c r="N35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O35" s="3">
         <v>-2000</v>
       </c>
-      <c r="O35" s="3">
-        <v>-200</v>
-      </c>
       <c r="P35" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="Q35" s="3">
         <v>-300</v>
@@ -2834,7 +2912,7 @@
         <v>-300</v>
       </c>
       <c r="S35" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="T35" s="3">
         <v>-200</v>
@@ -2843,113 +2921,119 @@
         <v>-200</v>
       </c>
       <c r="V35" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="W35" s="3">
+        <v>0</v>
+      </c>
+      <c r="X35" s="3">
         <v>-400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-1800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-800</v>
-      </c>
-      <c r="AA35" s="3">
-        <v>-400</v>
       </c>
       <c r="AB35" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC35" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44895</v>
+      </c>
+      <c r="E38" s="2">
         <v>44804</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44712</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44620</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44530</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44439</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44347</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44255</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44165</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44074</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43982</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43890</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43799</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43708</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43616</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43524</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43434</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43343</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43251</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43159</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43069</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42978</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42886</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42794</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42704</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3062,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,8 +3093,9 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -3017,7 +3103,7 @@
         <v>200</v>
       </c>
       <c r="E41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F41" s="3">
         <v>100</v>
@@ -3032,11 +3118,11 @@
         <v>100</v>
       </c>
       <c r="J41" s="3">
+        <v>100</v>
+      </c>
+      <c r="K41" s="3">
         <v>200</v>
       </c>
-      <c r="K41" s="3">
-        <v>100</v>
-      </c>
       <c r="L41" s="3">
         <v>100</v>
       </c>
@@ -3044,11 +3130,11 @@
         <v>100</v>
       </c>
       <c r="N41" s="3">
+        <v>100</v>
+      </c>
+      <c r="O41" s="3">
         <v>200</v>
       </c>
-      <c r="O41" s="3">
-        <v>100</v>
-      </c>
       <c r="P41" s="3">
         <v>100</v>
       </c>
@@ -3065,31 +3151,34 @@
         <v>100</v>
       </c>
       <c r="U41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V41" s="3">
         <v>200</v>
       </c>
       <c r="W41" s="3">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="X41" s="3">
         <v>600</v>
       </c>
       <c r="Y41" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="Z41" s="3">
         <v>100</v>
       </c>
       <c r="AA41" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB41" s="3">
         <v>500</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3168,16 +3257,19 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F43" s="3">
         <v>100</v>
@@ -3186,7 +3278,7 @@
         <v>100</v>
       </c>
       <c r="H43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I43" s="3">
         <v>0</v>
@@ -3207,7 +3299,7 @@
         <v>0</v>
       </c>
       <c r="O43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P43" s="3">
         <v>100</v>
@@ -3222,16 +3314,16 @@
         <v>100</v>
       </c>
       <c r="T43" s="3">
+        <v>100</v>
+      </c>
+      <c r="U43" s="3">
         <v>200</v>
       </c>
-      <c r="U43" s="3">
-        <v>100</v>
-      </c>
       <c r="V43" s="3">
         <v>100</v>
       </c>
       <c r="W43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X43" s="3">
         <v>0</v>
@@ -3248,8 +3340,11 @@
       <c r="AB43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3328,8 +3423,11 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3391,25 +3489,28 @@
         <v>0</v>
       </c>
       <c r="W45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X45" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y45" s="3">
         <v>300</v>
       </c>
-      <c r="Y45" s="3">
-        <v>100</v>
-      </c>
       <c r="Z45" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA45" s="3">
         <v>400</v>
       </c>
-      <c r="AA45" s="3">
-        <v>100</v>
-      </c>
       <c r="AB45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3417,14 +3518,14 @@
         <v>200</v>
       </c>
       <c r="E46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F46" s="3">
+        <v>100</v>
+      </c>
+      <c r="G46" s="3">
         <v>200</v>
       </c>
-      <c r="G46" s="3">
-        <v>100</v>
-      </c>
       <c r="H46" s="3">
         <v>100</v>
       </c>
@@ -3432,11 +3533,11 @@
         <v>100</v>
       </c>
       <c r="J46" s="3">
+        <v>100</v>
+      </c>
+      <c r="K46" s="3">
         <v>200</v>
       </c>
-      <c r="K46" s="3">
-        <v>100</v>
-      </c>
       <c r="L46" s="3">
         <v>100</v>
       </c>
@@ -3444,13 +3545,13 @@
         <v>100</v>
       </c>
       <c r="N46" s="3">
+        <v>100</v>
+      </c>
+      <c r="O46" s="3">
         <v>200</v>
       </c>
-      <c r="O46" s="3">
-        <v>100</v>
-      </c>
       <c r="P46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q46" s="3">
         <v>200</v>
@@ -3459,37 +3560,40 @@
         <v>200</v>
       </c>
       <c r="S46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T46" s="3">
+        <v>100</v>
+      </c>
+      <c r="U46" s="3">
         <v>200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>900</v>
-      </c>
-      <c r="Y46" s="3">
-        <v>200</v>
       </c>
       <c r="Z46" s="3">
         <v>200</v>
       </c>
       <c r="AA46" s="3">
+        <v>200</v>
+      </c>
+      <c r="AB46" s="3">
         <v>600</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3568,8 +3672,11 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3595,31 +3702,31 @@
         <v>200</v>
       </c>
       <c r="K48" s="3">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="L48" s="3">
         <v>500</v>
       </c>
       <c r="M48" s="3">
+        <v>500</v>
+      </c>
+      <c r="N48" s="3">
         <v>600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>700</v>
-      </c>
-      <c r="O48" s="3">
-        <v>2600</v>
       </c>
       <c r="P48" s="3">
         <v>2600</v>
       </c>
       <c r="Q48" s="3">
+        <v>2600</v>
+      </c>
+      <c r="R48" s="3">
         <v>2400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2500</v>
-      </c>
-      <c r="S48" s="3">
-        <v>2600</v>
       </c>
       <c r="T48" s="3">
         <v>2600</v>
@@ -3628,10 +3735,10 @@
         <v>2600</v>
       </c>
       <c r="V48" s="3">
+        <v>2600</v>
+      </c>
+      <c r="W48" s="3">
         <v>2700</v>
-      </c>
-      <c r="W48" s="3">
-        <v>900</v>
       </c>
       <c r="X48" s="3">
         <v>900</v>
@@ -3648,8 +3755,11 @@
       <c r="AB48" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3728,8 +3838,11 @@
       <c r="AB49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +3921,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,8 +4004,11 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3968,8 +4087,11 @@
       <c r="AB52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,8 +4170,11 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -4057,13 +4182,13 @@
         <v>400</v>
       </c>
       <c r="E54" s="3">
+        <v>400</v>
+      </c>
+      <c r="F54" s="3">
         <v>300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>400</v>
-      </c>
-      <c r="G54" s="3">
-        <v>300</v>
       </c>
       <c r="H54" s="3">
         <v>300</v>
@@ -4072,10 +4197,10 @@
         <v>300</v>
       </c>
       <c r="J54" s="3">
+        <v>300</v>
+      </c>
+      <c r="K54" s="3">
         <v>400</v>
-      </c>
-      <c r="K54" s="3">
-        <v>700</v>
       </c>
       <c r="L54" s="3">
         <v>700</v>
@@ -4084,52 +4209,55 @@
         <v>700</v>
       </c>
       <c r="N54" s="3">
+        <v>700</v>
+      </c>
+      <c r="O54" s="3">
         <v>900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2600</v>
-      </c>
-      <c r="R54" s="3">
-        <v>2700</v>
       </c>
       <c r="S54" s="3">
         <v>2700</v>
       </c>
       <c r="T54" s="3">
-        <v>2900</v>
+        <v>2700</v>
       </c>
       <c r="U54" s="3">
         <v>2900</v>
       </c>
       <c r="V54" s="3">
+        <v>2900</v>
+      </c>
+      <c r="W54" s="3">
         <v>3000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1800</v>
-      </c>
-      <c r="Y54" s="3">
-        <v>1100</v>
       </c>
       <c r="Z54" s="3">
         <v>1100</v>
       </c>
       <c r="AA54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AB54" s="3">
         <v>1500</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4286,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,13 +4317,14 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="E57" s="3">
         <v>100</v>
@@ -4203,10 +4333,10 @@
         <v>100</v>
       </c>
       <c r="G57" s="3">
+        <v>100</v>
+      </c>
+      <c r="H57" s="3">
         <v>500</v>
-      </c>
-      <c r="H57" s="3">
-        <v>400</v>
       </c>
       <c r="I57" s="3">
         <v>400</v>
@@ -4215,7 +4345,7 @@
         <v>400</v>
       </c>
       <c r="K57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L57" s="3">
         <v>300</v>
@@ -4224,7 +4354,7 @@
         <v>300</v>
       </c>
       <c r="N57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O57" s="3">
         <v>200</v>
@@ -4233,7 +4363,7 @@
         <v>200</v>
       </c>
       <c r="Q57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R57" s="3">
         <v>100</v>
@@ -4251,30 +4381,33 @@
         <v>100</v>
       </c>
       <c r="W57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X57" s="3">
         <v>0</v>
       </c>
       <c r="Y57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z57" s="3">
         <v>400</v>
       </c>
-      <c r="Z57" s="3">
-        <v>0</v>
-      </c>
       <c r="AA57" s="3">
         <v>0</v>
       </c>
       <c r="AB57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>8</v>
+      <c r="D58" s="3">
+        <v>3800</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>8</v>
@@ -4282,17 +4415,17 @@
       <c r="F58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G58" s="3">
+      <c r="G58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H58" s="3">
         <v>3500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>3400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>3100</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>8</v>
@@ -4309,8 +4442,8 @@
       <c r="O58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
+      <c r="P58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q58" s="3">
         <v>0</v>
@@ -4331,25 +4464,28 @@
         <v>0</v>
       </c>
       <c r="W58" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="X58" s="3">
         <v>800</v>
       </c>
       <c r="Y58" s="3">
+        <v>800</v>
+      </c>
+      <c r="Z58" s="3">
         <v>300</v>
       </c>
-      <c r="Z58" s="3">
-        <v>100</v>
-      </c>
-      <c r="AA58" s="3" t="s">
-        <v>8</v>
+      <c r="AA58" s="3">
+        <v>100</v>
       </c>
       <c r="AB58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4420,7 +4556,7 @@
         <v>0</v>
       </c>
       <c r="Z59" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="AA59" s="3">
         <v>400</v>
@@ -4428,13 +4564,16 @@
       <c r="AB59" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC59" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>100</v>
+        <v>4300</v>
       </c>
       <c r="E60" s="3">
         <v>100</v>
@@ -4443,19 +4582,19 @@
         <v>100</v>
       </c>
       <c r="G60" s="3">
+        <v>100</v>
+      </c>
+      <c r="H60" s="3">
         <v>4000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>400</v>
-      </c>
-      <c r="K60" s="3">
-        <v>300</v>
       </c>
       <c r="L60" s="3">
         <v>300</v>
@@ -4464,7 +4603,7 @@
         <v>300</v>
       </c>
       <c r="N60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O60" s="3">
         <v>200</v>
@@ -4473,7 +4612,7 @@
         <v>200</v>
       </c>
       <c r="Q60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R60" s="3">
         <v>100</v>
@@ -4491,16 +4630,16 @@
         <v>100</v>
       </c>
       <c r="W60" s="3">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="X60" s="3">
         <v>800</v>
       </c>
       <c r="Y60" s="3">
+        <v>800</v>
+      </c>
+      <c r="Z60" s="3">
         <v>600</v>
-      </c>
-      <c r="Z60" s="3">
-        <v>400</v>
       </c>
       <c r="AA60" s="3">
         <v>400</v>
@@ -4508,70 +4647,73 @@
       <c r="AB60" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC60" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
         <v>3700</v>
-      </c>
-      <c r="E61" s="3">
-        <v>3600</v>
       </c>
       <c r="F61" s="3">
         <v>3600</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>3600</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
       <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
         <v>300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>3200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1900</v>
-      </c>
-      <c r="S61" s="3">
-        <v>1700</v>
       </c>
       <c r="T61" s="3">
         <v>1700</v>
       </c>
       <c r="U61" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="V61" s="3">
         <v>1600</v>
       </c>
       <c r="W61" s="3">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="X61" s="3">
         <v>0</v>
@@ -4588,23 +4730,26 @@
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="E62" s="3">
         <v>500</v>
       </c>
       <c r="F62" s="3">
+        <v>500</v>
+      </c>
+      <c r="G62" s="3">
         <v>400</v>
       </c>
-      <c r="G62" s="3">
-        <v>100</v>
-      </c>
       <c r="H62" s="3">
         <v>100</v>
       </c>
@@ -4651,7 +4796,7 @@
         <v>100</v>
       </c>
       <c r="W62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X62" s="3">
         <v>0</v>
@@ -4668,8 +4813,11 @@
       <c r="AB62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +4896,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +4979,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,58 +5062,61 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E66" s="3">
         <v>4300</v>
-      </c>
-      <c r="E66" s="3">
-        <v>4200</v>
       </c>
       <c r="F66" s="3">
         <v>4200</v>
       </c>
       <c r="G66" s="3">
+        <v>4200</v>
+      </c>
+      <c r="H66" s="3">
         <v>4100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2000</v>
-      </c>
-      <c r="S66" s="3">
-        <v>1800</v>
       </c>
       <c r="T66" s="3">
         <v>1800</v>
@@ -4968,28 +5125,31 @@
         <v>1800</v>
       </c>
       <c r="V66" s="3">
+        <v>1800</v>
+      </c>
+      <c r="W66" s="3">
         <v>1700</v>
-      </c>
-      <c r="W66" s="3">
-        <v>800</v>
       </c>
       <c r="X66" s="3">
         <v>800</v>
       </c>
       <c r="Y66" s="3">
+        <v>800</v>
+      </c>
+      <c r="Z66" s="3">
         <v>700</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>500</v>
-      </c>
-      <c r="AA66" s="3">
-        <v>400</v>
       </c>
       <c r="AB66" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC66" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5178,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5259,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5342,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5425,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,88 +5508,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-10300</v>
+        <v>-10500</v>
       </c>
       <c r="E72" s="3">
         <v>-10300</v>
       </c>
       <c r="F72" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="G72" s="3">
         <v>-10200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-10100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-10000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-9900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-9700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-9200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-9000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-8800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-8600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-6500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-6300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-6000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-5700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-5300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-5100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-4900</v>
-      </c>
-      <c r="V72" s="3">
-        <v>-4700</v>
       </c>
       <c r="W72" s="3">
         <v>-4700</v>
       </c>
       <c r="X72" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="Y72" s="3">
         <v>-2800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-2500</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-2200</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-1400</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5674,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5757,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +5840,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-3900</v>
+        <v>-4100</v>
       </c>
       <c r="E76" s="3">
         <v>-3900</v>
       </c>
       <c r="F76" s="3">
-        <v>-3800</v>
+        <v>-3900</v>
       </c>
       <c r="G76" s="3">
         <v>-3800</v>
       </c>
       <c r="H76" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="I76" s="3">
         <v>-3600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-3500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-3300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-2900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-2600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-2400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-2200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-100</v>
       </c>
-      <c r="P76" s="3">
-        <v>100</v>
-      </c>
       <c r="Q76" s="3">
+        <v>100</v>
+      </c>
+      <c r="R76" s="3">
         <v>400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>500</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>700</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>1100</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,120 +6006,126 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44895</v>
+      </c>
+      <c r="E80" s="2">
         <v>44804</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44712</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44620</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44530</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44439</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44347</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44255</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44165</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44074</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43982</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43890</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43799</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43708</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43616</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43524</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43434</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43343</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43251</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43159</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43069</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42978</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42886</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42794</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42704</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F81" s="3">
         <v>-100</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
       <c r="G81" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="H81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I81" s="3">
         <v>-100</v>
       </c>
-      <c r="I81" s="3">
-        <v>-200</v>
-      </c>
       <c r="J81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K81" s="3">
         <v>-400</v>
       </c>
-      <c r="K81" s="3">
-        <v>-200</v>
-      </c>
       <c r="L81" s="3">
         <v>-200</v>
       </c>
@@ -5939,13 +6133,13 @@
         <v>-200</v>
       </c>
       <c r="N81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O81" s="3">
         <v>-2000</v>
       </c>
-      <c r="O81" s="3">
-        <v>-200</v>
-      </c>
       <c r="P81" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="Q81" s="3">
         <v>-300</v>
@@ -5954,7 +6148,7 @@
         <v>-300</v>
       </c>
       <c r="S81" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="T81" s="3">
         <v>-200</v>
@@ -5963,28 +6157,31 @@
         <v>-200</v>
       </c>
       <c r="V81" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="W81" s="3">
+        <v>0</v>
+      </c>
+      <c r="X81" s="3">
         <v>-400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-1800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-800</v>
-      </c>
-      <c r="AA81" s="3">
-        <v>-400</v>
       </c>
       <c r="AB81" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC81" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,8 +6210,9 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6037,10 +6235,10 @@
         <v>0</v>
       </c>
       <c r="J83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
@@ -6049,23 +6247,23 @@
         <v>0</v>
       </c>
       <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3">
         <v>600</v>
       </c>
-      <c r="O83" s="3">
-        <v>100</v>
-      </c>
       <c r="P83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q83" s="3">
         <v>0</v>
       </c>
       <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
         <v>200</v>
       </c>
-      <c r="S83" s="3">
-        <v>0</v>
-      </c>
       <c r="T83" s="3">
         <v>0</v>
       </c>
@@ -6093,8 +6291,11 @@
       <c r="AB83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6374,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6457,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6540,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6623,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,13 +6706,16 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
         <v>-100</v>
@@ -6514,16 +6730,16 @@
         <v>-100</v>
       </c>
       <c r="I89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="J89" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="K89" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="L89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="M89" s="3">
         <v>-100</v>
@@ -6535,46 +6751,49 @@
         <v>-100</v>
       </c>
       <c r="P89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="Q89" s="3">
         <v>-200</v>
       </c>
       <c r="R89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S89" s="3">
         <v>-100</v>
       </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
       <c r="T89" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="U89" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="V89" s="3">
+        <v>0</v>
+      </c>
+      <c r="W89" s="3">
         <v>-300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-100</v>
       </c>
-      <c r="X89" s="3">
-        <v>-200</v>
-      </c>
       <c r="Y89" s="3">
         <v>-200</v>
       </c>
       <c r="Z89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AA89" s="3">
         <v>-500</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-400</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,8 +6822,9 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6632,20 +6852,20 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>8</v>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>8</v>
+      <c r="P91" s="3">
+        <v>0</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>8</v>
@@ -6662,29 +6882,32 @@
       <c r="U91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V91" s="3">
+      <c r="V91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W91" s="3">
         <v>-1600</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>200</v>
-      </c>
-      <c r="X91" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Y91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="Z91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA91" s="3">
         <v>-100</v>
       </c>
-      <c r="AA91" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB91" s="3" t="s">
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC91" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +6986,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,8 +7069,11 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6872,12 +7101,12 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-      <c r="L94" s="3" t="s">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
@@ -6885,46 +7114,49 @@
         <v>0</v>
       </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-300</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
       <c r="R94" s="3">
         <v>0</v>
       </c>
       <c r="S94" s="3">
         <v>0</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>8</v>
+      <c r="T94" s="3">
+        <v>0</v>
       </c>
       <c r="U94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V94" s="3">
+      <c r="V94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W94" s="3">
         <v>-1600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>200</v>
       </c>
-      <c r="X94" s="3">
-        <v>-200</v>
-      </c>
       <c r="Y94" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="3">
         <v>-100</v>
       </c>
-      <c r="AA94" s="3">
-        <v>0</v>
-      </c>
       <c r="AB94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7185,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7033,8 +7266,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7349,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7432,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,20 +7515,23 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
+      <c r="D100" s="3">
+        <v>100</v>
+      </c>
+      <c r="E100" s="3">
+        <v>100</v>
+      </c>
+      <c r="F100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F100" s="3">
-        <v>100</v>
-      </c>
       <c r="G100" s="3">
         <v>100</v>
       </c>
@@ -7300,61 +7545,64 @@
         <v>100</v>
       </c>
       <c r="K100" s="3">
+        <v>100</v>
+      </c>
+      <c r="L100" s="3">
         <v>200</v>
       </c>
-      <c r="L100" s="3">
-        <v>100</v>
-      </c>
       <c r="M100" s="3">
         <v>100</v>
       </c>
       <c r="N100" s="3">
+        <v>100</v>
+      </c>
+      <c r="O100" s="3">
         <v>200</v>
       </c>
-      <c r="O100" s="3">
-        <v>100</v>
-      </c>
       <c r="P100" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q100" s="3">
         <v>400</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>200</v>
       </c>
       <c r="R100" s="3">
         <v>200</v>
       </c>
       <c r="S100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="T100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>1600</v>
       </c>
-      <c r="W100" s="3">
-        <v>0</v>
-      </c>
       <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3">
         <v>900</v>
-      </c>
-      <c r="Y100" s="3">
-        <v>200</v>
       </c>
       <c r="Z100" s="3">
         <v>200</v>
       </c>
       <c r="AA100" s="3">
+        <v>200</v>
+      </c>
+      <c r="AB100" s="3">
         <v>600</v>
       </c>
-      <c r="AB100" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC100" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7433,20 +7681,23 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
         <v>0</v>
       </c>
@@ -7454,13 +7705,13 @@
         <v>0</v>
       </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
-        <v>100</v>
-      </c>
       <c r="K102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L102" s="3">
         <v>0</v>
@@ -7469,48 +7720,51 @@
         <v>0</v>
       </c>
       <c r="N102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>-100</v>
       </c>
-      <c r="U102" s="3">
-        <v>0</v>
-      </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>-300</v>
       </c>
-      <c r="W102" s="3">
-        <v>0</v>
-      </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>500</v>
       </c>
-      <c r="Y102" s="3">
-        <v>0</v>
-      </c>
       <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>-400</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>200</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NRIS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NRIS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="92">
   <si>
     <t>NRIS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,122 +665,130 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45077</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44985</v>
+      </c>
+      <c r="F7" s="2">
         <v>44895</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44804</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44712</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44620</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44530</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44439</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44347</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44255</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44165</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44074</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43982</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43890</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43799</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43708</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43616</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43524</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43434</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43343</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43251</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43159</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43069</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42978</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42886</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42794</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42704</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AE7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -788,17 +796,17 @@
         <v>100</v>
       </c>
       <c r="E8" s="3">
+        <v>100</v>
+      </c>
+      <c r="F8" s="3">
+        <v>100</v>
+      </c>
+      <c r="G8" s="3">
         <v>400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>200</v>
       </c>
-      <c r="G8" s="3">
-        <v>100</v>
-      </c>
-      <c r="H8" s="3">
-        <v>100</v>
-      </c>
       <c r="I8" s="3">
         <v>100</v>
       </c>
@@ -815,20 +823,20 @@
         <v>100</v>
       </c>
       <c r="N8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O8" s="3">
         <v>100</v>
       </c>
       <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>100</v>
+      </c>
+      <c r="R8" s="3">
         <v>200</v>
       </c>
-      <c r="Q8" s="3">
-        <v>100</v>
-      </c>
-      <c r="R8" s="3">
-        <v>100</v>
-      </c>
       <c r="S8" s="3">
         <v>100</v>
       </c>
@@ -845,10 +853,10 @@
         <v>100</v>
       </c>
       <c r="X8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z8" s="3">
         <v>0</v>
@@ -860,30 +868,36 @@
         <v>0</v>
       </c>
       <c r="AC8" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>100</v>
+      </c>
+      <c r="E9" s="3">
         <v>200</v>
-      </c>
-      <c r="E9" s="3">
-        <v>500</v>
       </c>
       <c r="F9" s="3">
         <v>200</v>
       </c>
       <c r="G9" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="H9" s="3">
         <v>200</v>
       </c>
       <c r="I9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J9" s="3">
         <v>200</v>
@@ -895,16 +909,16 @@
         <v>200</v>
       </c>
       <c r="M9" s="3">
+        <v>100</v>
+      </c>
+      <c r="N9" s="3">
         <v>200</v>
-      </c>
-      <c r="N9" s="3">
-        <v>100</v>
       </c>
       <c r="O9" s="3">
         <v>200</v>
       </c>
       <c r="P9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q9" s="3">
         <v>200</v>
@@ -913,10 +927,10 @@
         <v>200</v>
       </c>
       <c r="S9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U9" s="3">
         <v>100</v>
@@ -928,10 +942,10 @@
         <v>100</v>
       </c>
       <c r="X9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z9" s="3">
         <v>0</v>
@@ -943,30 +957,36 @@
         <v>0</v>
       </c>
       <c r="AC9" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E10" s="3">
         <v>-100</v>
       </c>
       <c r="F10" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G10" s="3">
         <v>-100</v>
       </c>
       <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
         <v>-100</v>
-      </c>
-      <c r="I10" s="3">
-        <v>0</v>
       </c>
       <c r="J10" s="3">
         <v>-100</v>
@@ -978,7 +998,7 @@
         <v>-100</v>
       </c>
       <c r="M10" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N10" s="3">
         <v>-100</v>
@@ -987,19 +1007,19 @@
         <v>-100</v>
       </c>
       <c r="P10" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q10" s="3">
         <v>-100</v>
       </c>
       <c r="R10" s="3">
+        <v>0</v>
+      </c>
+      <c r="S10" s="3">
         <v>-100</v>
       </c>
-      <c r="S10" s="3">
-        <v>0</v>
-      </c>
       <c r="T10" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U10" s="3">
         <v>0</v>
@@ -1028,8 +1048,14 @@
       <c r="AC10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1059,8 +1085,10 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1142,8 +1170,14 @@
       <c r="AC12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1225,8 +1259,14 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1239,38 +1279,38 @@
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>200</v>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
+      <c r="M14" s="3">
+        <v>200</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
-        <v>1300</v>
+      <c r="O14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>8</v>
+      <c r="Q14" s="3">
+        <v>1300</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>8</v>
@@ -1278,38 +1318,44 @@
       <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-      <c r="V14" s="3" t="s">
+      <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="U14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
       <c r="W14" s="3">
         <v>0</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
+      <c r="X14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
         <v>900</v>
       </c>
-      <c r="Z14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB14" s="3" t="s">
-        <v>8</v>
+      <c r="AB14" s="3">
+        <v>0</v>
       </c>
       <c r="AC14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1322,50 +1368,50 @@
       <c r="F15" s="3">
         <v>0</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
       <c r="J15" s="3">
         <v>0</v>
       </c>
       <c r="K15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L15" s="3">
         <v>0</v>
       </c>
       <c r="M15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N15" s="3">
         <v>0</v>
       </c>
       <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
         <v>600</v>
       </c>
-      <c r="P15" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>0</v>
-      </c>
       <c r="R15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T15" s="3">
         <v>0</v>
       </c>
       <c r="U15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V15" s="3">
         <v>0</v>
@@ -1391,8 +1437,14 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1419,8 +1471,10 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1428,82 +1482,88 @@
         <v>200</v>
       </c>
       <c r="E17" s="3">
+        <v>200</v>
+      </c>
+      <c r="F17" s="3">
+        <v>200</v>
+      </c>
+      <c r="G17" s="3">
         <v>500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>300</v>
       </c>
-      <c r="G17" s="3">
-        <v>100</v>
-      </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
+        <v>100</v>
+      </c>
+      <c r="J17" s="3">
         <v>200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>200</v>
-      </c>
-      <c r="J17" s="3">
-        <v>300</v>
-      </c>
-      <c r="K17" s="3">
-        <v>500</v>
       </c>
       <c r="L17" s="3">
         <v>300</v>
       </c>
       <c r="M17" s="3">
+        <v>500</v>
+      </c>
+      <c r="N17" s="3">
         <v>300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
+        <v>300</v>
+      </c>
+      <c r="P17" s="3">
         <v>200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>2200</v>
-      </c>
-      <c r="P17" s="3">
-        <v>400</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>500</v>
       </c>
       <c r="R17" s="3">
         <v>400</v>
       </c>
       <c r="S17" s="3">
+        <v>500</v>
+      </c>
+      <c r="T17" s="3">
         <v>400</v>
       </c>
-      <c r="T17" s="3">
-        <v>300</v>
-      </c>
       <c r="U17" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="V17" s="3">
         <v>300</v>
       </c>
       <c r="W17" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="X17" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y17" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z17" s="3">
         <v>400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>1800</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>300</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>800</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AD17" s="3">
         <v>400</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AE17" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1517,76 +1577,82 @@
         <v>-100</v>
       </c>
       <c r="G18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H18" s="3">
         <v>-100</v>
       </c>
       <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
         <v>-100</v>
       </c>
-      <c r="J18" s="3">
-        <v>-200</v>
-      </c>
       <c r="K18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M18" s="3">
         <v>-400</v>
       </c>
-      <c r="L18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-200</v>
-      </c>
       <c r="N18" s="3">
         <v>-200</v>
       </c>
       <c r="O18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-2100</v>
       </c>
-      <c r="P18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S18" s="3">
         <v>-400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-300</v>
       </c>
-      <c r="T18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="U18" s="3">
-        <v>-200</v>
-      </c>
       <c r="V18" s="3">
         <v>-200</v>
       </c>
       <c r="W18" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="X18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="3">
         <v>-400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>-1800</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>-300</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>-800</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AD18" s="3">
         <v>-400</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AE18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1616,8 +1682,10 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1691,16 +1759,22 @@
         <v>0</v>
       </c>
       <c r="AA20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB20" s="3">
         <v>0</v>
       </c>
       <c r="AC20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1708,82 +1782,88 @@
         <v>-100</v>
       </c>
       <c r="E21" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="F21" s="3">
         <v>-100</v>
       </c>
       <c r="G21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H21" s="3">
         <v>-100</v>
       </c>
       <c r="I21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J21" s="3">
         <v>-100</v>
       </c>
       <c r="K21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M21" s="3">
         <v>-300</v>
       </c>
-      <c r="L21" s="3">
-        <v>-200</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O21" s="3">
         <v>-100</v>
       </c>
-      <c r="N21" s="3">
-        <v>-200</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-1400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-300</v>
       </c>
-      <c r="R21" s="3">
-        <v>-200</v>
-      </c>
-      <c r="S21" s="3">
-        <v>-200</v>
-      </c>
       <c r="T21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V21" s="3">
         <v>-100</v>
       </c>
-      <c r="U21" s="3">
-        <v>-200</v>
-      </c>
-      <c r="V21" s="3">
-        <v>-200</v>
-      </c>
       <c r="W21" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="X21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="3">
         <v>-400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>-1800</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>-300</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>-700</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AD21" s="3">
         <v>-400</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AE21" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1791,13 +1871,13 @@
         <v>0</v>
       </c>
       <c r="E22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
       </c>
       <c r="G22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
@@ -1859,19 +1939,25 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-      <c r="AB22" s="3" t="s">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AC22" s="3" t="s">
+      <c r="AE22" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E23" s="3">
         <v>-200</v>
@@ -1880,76 +1966,82 @@
         <v>-100</v>
       </c>
       <c r="G23" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="H23" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K23" s="3">
         <v>-100</v>
       </c>
-      <c r="J23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M23" s="3">
         <v>-400</v>
       </c>
-      <c r="L23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-200</v>
-      </c>
       <c r="N23" s="3">
         <v>-200</v>
       </c>
       <c r="O23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-2000</v>
       </c>
-      <c r="P23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-300</v>
-      </c>
       <c r="R23" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="S23" s="3">
         <v>-300</v>
       </c>
       <c r="T23" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="U23" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="V23" s="3">
         <v>-200</v>
       </c>
       <c r="W23" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="X23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="3">
         <v>-400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>-1800</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>-300</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>-800</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AD23" s="3">
         <v>-400</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AE23" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2031,8 +2123,14 @@
       <c r="AC24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2114,13 +2212,19 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E26" s="3">
         <v>-200</v>
@@ -2129,81 +2233,87 @@
         <v>-100</v>
       </c>
       <c r="G26" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="H26" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K26" s="3">
         <v>-100</v>
       </c>
-      <c r="J26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M26" s="3">
         <v>-400</v>
       </c>
-      <c r="L26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-200</v>
-      </c>
       <c r="N26" s="3">
         <v>-200</v>
       </c>
       <c r="O26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-2000</v>
       </c>
-      <c r="P26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>-300</v>
-      </c>
       <c r="R26" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="S26" s="3">
         <v>-300</v>
       </c>
       <c r="T26" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="U26" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="V26" s="3">
         <v>-200</v>
       </c>
       <c r="W26" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="X26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="3">
         <v>-400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>-1800</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>-300</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>-800</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AD26" s="3">
         <v>-400</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AE26" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E27" s="3">
         <v>-200</v>
@@ -2212,76 +2322,82 @@
         <v>-100</v>
       </c>
       <c r="G27" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="H27" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K27" s="3">
         <v>-100</v>
       </c>
-      <c r="J27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M27" s="3">
         <v>-400</v>
       </c>
-      <c r="L27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-200</v>
-      </c>
       <c r="N27" s="3">
         <v>-200</v>
       </c>
       <c r="O27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-2000</v>
       </c>
-      <c r="P27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>-300</v>
-      </c>
       <c r="R27" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="S27" s="3">
         <v>-300</v>
       </c>
       <c r="T27" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="U27" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="V27" s="3">
         <v>-200</v>
       </c>
       <c r="W27" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="X27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="3">
         <v>-400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>-1800</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>-300</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>-800</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AD27" s="3">
         <v>-400</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AE27" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2363,8 +2479,14 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2446,8 +2568,14 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2529,8 +2657,14 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2612,8 +2746,14 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2687,21 +2827,27 @@
         <v>0</v>
       </c>
       <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="3">
         <v>-100</v>
       </c>
-      <c r="AB32" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E33" s="3">
         <v>-200</v>
@@ -2710,76 +2856,82 @@
         <v>-100</v>
       </c>
       <c r="G33" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="H33" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K33" s="3">
         <v>-100</v>
       </c>
-      <c r="J33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M33" s="3">
         <v>-400</v>
       </c>
-      <c r="L33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-200</v>
-      </c>
       <c r="N33" s="3">
         <v>-200</v>
       </c>
       <c r="O33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-2000</v>
       </c>
-      <c r="P33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>-300</v>
-      </c>
       <c r="R33" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="S33" s="3">
         <v>-300</v>
       </c>
       <c r="T33" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="U33" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="V33" s="3">
         <v>-200</v>
       </c>
       <c r="W33" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="X33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="3">
         <v>-400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>-1800</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>-300</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>-800</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AD33" s="3">
         <v>-400</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AE33" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2861,13 +3013,19 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E35" s="3">
         <v>-200</v>
@@ -2876,164 +3034,176 @@
         <v>-100</v>
       </c>
       <c r="G35" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="H35" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K35" s="3">
         <v>-100</v>
       </c>
-      <c r="J35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M35" s="3">
         <v>-400</v>
       </c>
-      <c r="L35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-200</v>
-      </c>
       <c r="N35" s="3">
         <v>-200</v>
       </c>
       <c r="O35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-2000</v>
       </c>
-      <c r="P35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>-300</v>
-      </c>
       <c r="R35" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="S35" s="3">
         <v>-300</v>
       </c>
       <c r="T35" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="U35" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="V35" s="3">
         <v>-200</v>
       </c>
       <c r="W35" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="X35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="3">
         <v>-400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>-1800</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>-300</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>-800</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AD35" s="3">
         <v>-400</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AE35" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45077</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44985</v>
+      </c>
+      <c r="F38" s="2">
         <v>44895</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44804</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44712</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44620</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44530</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44439</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44347</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44255</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44165</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44074</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43982</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43890</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43799</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43708</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43616</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43524</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43434</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43343</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43251</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43159</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43069</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42978</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42886</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42794</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42704</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AE38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3063,8 +3233,10 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3094,22 +3266,24 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E41" s="3">
         <v>200</v>
       </c>
       <c r="F41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H41" s="3">
         <v>100</v>
@@ -3121,26 +3295,26 @@
         <v>100</v>
       </c>
       <c r="K41" s="3">
+        <v>100</v>
+      </c>
+      <c r="L41" s="3">
+        <v>100</v>
+      </c>
+      <c r="M41" s="3">
         <v>200</v>
       </c>
-      <c r="L41" s="3">
-        <v>100</v>
-      </c>
-      <c r="M41" s="3">
-        <v>100</v>
-      </c>
       <c r="N41" s="3">
         <v>100</v>
       </c>
       <c r="O41" s="3">
+        <v>100</v>
+      </c>
+      <c r="P41" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q41" s="3">
         <v>200</v>
       </c>
-      <c r="P41" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>100</v>
-      </c>
       <c r="R41" s="3">
         <v>100</v>
       </c>
@@ -3154,31 +3328,37 @@
         <v>100</v>
       </c>
       <c r="V41" s="3">
+        <v>100</v>
+      </c>
+      <c r="W41" s="3">
+        <v>100</v>
+      </c>
+      <c r="X41" s="3">
         <v>200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>600</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>600</v>
       </c>
-      <c r="Z41" s="3">
-        <v>100</v>
-      </c>
-      <c r="AA41" s="3">
-        <v>100</v>
-      </c>
       <c r="AB41" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC41" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD41" s="3">
         <v>500</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AE41" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3260,13 +3440,19 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E43" s="3">
         <v>0</v>
@@ -3275,16 +3461,16 @@
         <v>100</v>
       </c>
       <c r="G43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H43" s="3">
         <v>100</v>
       </c>
       <c r="I43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
@@ -3302,10 +3488,10 @@
         <v>0</v>
       </c>
       <c r="P43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R43" s="3">
         <v>100</v>
@@ -3317,19 +3503,19 @@
         <v>100</v>
       </c>
       <c r="U43" s="3">
+        <v>100</v>
+      </c>
+      <c r="V43" s="3">
+        <v>100</v>
+      </c>
+      <c r="W43" s="3">
         <v>200</v>
       </c>
-      <c r="V43" s="3">
-        <v>100</v>
-      </c>
-      <c r="W43" s="3">
-        <v>100</v>
-      </c>
       <c r="X43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z43" s="3">
         <v>0</v>
@@ -3343,8 +3529,14 @@
       <c r="AC43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3426,8 +3618,14 @@
       <c r="AC44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3492,36 +3690,42 @@
         <v>0</v>
       </c>
       <c r="X45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA45" s="3">
         <v>300</v>
       </c>
-      <c r="Z45" s="3">
-        <v>100</v>
-      </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC45" s="3">
         <v>400</v>
       </c>
-      <c r="AB45" s="3">
-        <v>100</v>
-      </c>
-      <c r="AC45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E46" s="3">
         <v>200</v>
       </c>
       <c r="F46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G46" s="3">
         <v>200</v>
@@ -3530,25 +3734,25 @@
         <v>100</v>
       </c>
       <c r="I46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J46" s="3">
         <v>100</v>
       </c>
       <c r="K46" s="3">
+        <v>100</v>
+      </c>
+      <c r="L46" s="3">
+        <v>100</v>
+      </c>
+      <c r="M46" s="3">
         <v>200</v>
       </c>
-      <c r="L46" s="3">
-        <v>100</v>
-      </c>
-      <c r="M46" s="3">
-        <v>100</v>
-      </c>
       <c r="N46" s="3">
         <v>100</v>
       </c>
       <c r="O46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P46" s="3">
         <v>100</v>
@@ -3557,43 +3761,49 @@
         <v>200</v>
       </c>
       <c r="R46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S46" s="3">
         <v>200</v>
       </c>
       <c r="T46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U46" s="3">
         <v>200</v>
       </c>
       <c r="V46" s="3">
+        <v>100</v>
+      </c>
+      <c r="W46" s="3">
+        <v>200</v>
+      </c>
+      <c r="X46" s="3">
         <v>300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>700</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>900</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>200</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>200</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AD46" s="3">
         <v>600</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AE46" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3675,13 +3885,19 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E48" s="3">
         <v>200</v>
@@ -3705,46 +3921,46 @@
         <v>200</v>
       </c>
       <c r="L48" s="3">
+        <v>200</v>
+      </c>
+      <c r="M48" s="3">
+        <v>200</v>
+      </c>
+      <c r="N48" s="3">
         <v>500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>2600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>2600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>2400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>2500</v>
-      </c>
-      <c r="T48" s="3">
-        <v>2600</v>
-      </c>
-      <c r="U48" s="3">
-        <v>2600</v>
       </c>
       <c r="V48" s="3">
         <v>2600</v>
       </c>
       <c r="W48" s="3">
+        <v>2600</v>
+      </c>
+      <c r="X48" s="3">
+        <v>2600</v>
+      </c>
+      <c r="Y48" s="3">
         <v>2700</v>
-      </c>
-      <c r="X48" s="3">
-        <v>900</v>
-      </c>
-      <c r="Y48" s="3">
-        <v>900</v>
       </c>
       <c r="Z48" s="3">
         <v>900</v>
@@ -3758,8 +3974,14 @@
       <c r="AC48" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD48" s="3">
+        <v>900</v>
+      </c>
+      <c r="AE48" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3841,8 +4063,14 @@
       <c r="AC49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3924,8 +4152,14 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4007,8 +4241,14 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4090,8 +4330,14 @@
       <c r="AC52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4173,19 +4419,25 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>200</v>
+      </c>
+      <c r="E54" s="3">
+        <v>300</v>
+      </c>
+      <c r="F54" s="3">
         <v>400</v>
-      </c>
-      <c r="E54" s="3">
-        <v>400</v>
-      </c>
-      <c r="F54" s="3">
-        <v>300</v>
       </c>
       <c r="G54" s="3">
         <v>400</v>
@@ -4194,70 +4446,76 @@
         <v>300</v>
       </c>
       <c r="I54" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="J54" s="3">
         <v>300</v>
       </c>
       <c r="K54" s="3">
+        <v>300</v>
+      </c>
+      <c r="L54" s="3">
+        <v>300</v>
+      </c>
+      <c r="M54" s="3">
         <v>400</v>
-      </c>
-      <c r="L54" s="3">
-        <v>700</v>
-      </c>
-      <c r="M54" s="3">
-        <v>700</v>
       </c>
       <c r="N54" s="3">
         <v>700</v>
       </c>
       <c r="O54" s="3">
+        <v>700</v>
+      </c>
+      <c r="P54" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q54" s="3">
         <v>900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>2700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>2800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>2600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>2700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>2700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>2900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>2900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>3000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>1600</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>1800</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>1100</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>1100</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AD54" s="3">
         <v>1500</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AE54" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4287,8 +4545,10 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4318,58 +4578,60 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>200</v>
+      </c>
+      <c r="E57" s="3">
+        <v>100</v>
+      </c>
+      <c r="F57" s="3">
         <v>500</v>
       </c>
-      <c r="E57" s="3">
-        <v>100</v>
-      </c>
-      <c r="F57" s="3">
-        <v>100</v>
-      </c>
       <c r="G57" s="3">
         <v>100</v>
       </c>
       <c r="H57" s="3">
+        <v>100</v>
+      </c>
+      <c r="I57" s="3">
+        <v>100</v>
+      </c>
+      <c r="J57" s="3">
         <v>500</v>
-      </c>
-      <c r="I57" s="3">
-        <v>400</v>
-      </c>
-      <c r="J57" s="3">
-        <v>400</v>
       </c>
       <c r="K57" s="3">
         <v>400</v>
       </c>
       <c r="L57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N57" s="3">
         <v>300</v>
       </c>
       <c r="O57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q57" s="3">
         <v>200</v>
       </c>
       <c r="R57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T57" s="3">
         <v>100</v>
@@ -4384,54 +4646,60 @@
         <v>100</v>
       </c>
       <c r="X57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB57" s="3">
         <v>400</v>
       </c>
-      <c r="AA57" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB57" s="3">
-        <v>0</v>
-      </c>
       <c r="AC57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>3800</v>
+      <c r="D58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>8</v>
+      <c r="F58" s="3">
+        <v>3800</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H58" s="3">
+      <c r="H58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J58" s="3">
         <v>3500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>3400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>3100</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>8</v>
@@ -4445,11 +4713,11 @@
       <c r="P58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
-      </c>
-      <c r="R58" s="3">
-        <v>0</v>
+      <c r="Q58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S58" s="3">
         <v>0</v>
@@ -4467,25 +4735,31 @@
         <v>0</v>
       </c>
       <c r="X58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="3">
         <v>800</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>800</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AB58" s="3">
         <v>300</v>
       </c>
-      <c r="AA58" s="3">
-        <v>100</v>
-      </c>
-      <c r="AB58" s="3" t="s">
+      <c r="AC58" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AC58" s="3" t="s">
+      <c r="AE58" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4559,66 +4833,72 @@
         <v>0</v>
       </c>
       <c r="AA59" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="AB59" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="AC59" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD59" s="3">
+        <v>400</v>
+      </c>
+      <c r="AE59" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>200</v>
+      </c>
+      <c r="E60" s="3">
+        <v>100</v>
+      </c>
+      <c r="F60" s="3">
         <v>4300</v>
       </c>
-      <c r="E60" s="3">
-        <v>100</v>
-      </c>
-      <c r="F60" s="3">
-        <v>100</v>
-      </c>
       <c r="G60" s="3">
         <v>100</v>
       </c>
       <c r="H60" s="3">
+        <v>100</v>
+      </c>
+      <c r="I60" s="3">
+        <v>100</v>
+      </c>
+      <c r="J60" s="3">
         <v>4000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>3800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>3500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>400</v>
-      </c>
-      <c r="L60" s="3">
-        <v>300</v>
-      </c>
-      <c r="M60" s="3">
-        <v>300</v>
       </c>
       <c r="N60" s="3">
         <v>300</v>
       </c>
       <c r="O60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q60" s="3">
         <v>200</v>
       </c>
       <c r="R60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T60" s="3">
         <v>100</v>
@@ -4633,94 +4913,100 @@
         <v>100</v>
       </c>
       <c r="X60" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y60" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z60" s="3">
         <v>800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>800</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>600</v>
-      </c>
-      <c r="AA60" s="3">
-        <v>400</v>
-      </c>
-      <c r="AB60" s="3">
-        <v>400</v>
       </c>
       <c r="AC60" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD60" s="3">
+        <v>400</v>
+      </c>
+      <c r="AE60" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>3900</v>
       </c>
       <c r="E61" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
         <v>3700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>3600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>3600</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>3200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>3100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>2900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>2800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>2700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>2500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>2400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>2100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>1900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>1700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>1700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>1600</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>1600</v>
       </c>
-      <c r="X61" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y61" s="3">
-        <v>0</v>
-      </c>
       <c r="Z61" s="3">
         <v>0</v>
       </c>
@@ -4733,29 +5019,35 @@
       <c r="AC61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="E62" s="3">
+        <v>600</v>
+      </c>
+      <c r="F62" s="3">
+        <v>100</v>
+      </c>
+      <c r="G62" s="3">
         <v>500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>400</v>
       </c>
-      <c r="H62" s="3">
-        <v>100</v>
-      </c>
-      <c r="I62" s="3">
-        <v>100</v>
-      </c>
       <c r="J62" s="3">
         <v>100</v>
       </c>
@@ -4799,10 +5091,10 @@
         <v>100</v>
       </c>
       <c r="X62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z62" s="3">
         <v>0</v>
@@ -4816,8 +5108,14 @@
       <c r="AC62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4899,8 +5197,14 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4982,8 +5286,14 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5065,91 +5375,103 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>4600</v>
+      </c>
+      <c r="F66" s="3">
         <v>4500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>4300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>4200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>4200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>4100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>3900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>3800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>3700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>3500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>3300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>3100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>3000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>2800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>2700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>2300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>2000</v>
-      </c>
-      <c r="T66" s="3">
-        <v>1800</v>
-      </c>
-      <c r="U66" s="3">
-        <v>1800</v>
       </c>
       <c r="V66" s="3">
         <v>1800</v>
       </c>
       <c r="W66" s="3">
+        <v>1800</v>
+      </c>
+      <c r="X66" s="3">
+        <v>1800</v>
+      </c>
+      <c r="Y66" s="3">
         <v>1700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>800</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>800</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>700</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>500</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>400</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AE66" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5179,8 +5501,10 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5262,8 +5586,14 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5345,8 +5675,14 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5428,8 +5764,14 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5511,91 +5853,103 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="F72" s="3">
         <v>-10500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-10300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-10300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-10200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-10100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-10000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-9900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-9700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-9200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-9000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-8800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-8600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-6500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-6300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-6000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-5700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-5300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-5100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-4900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-4700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-4700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-2800</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>-2500</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>-2200</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>-1400</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AE72" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5677,8 +6031,14 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5760,8 +6120,14 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5843,91 +6209,103 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="F76" s="3">
         <v>-4100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-3900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-3900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-3800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-3800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-3600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-3500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-3300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-2900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-2600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-2400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-2200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-100</v>
       </c>
-      <c r="Q76" s="3">
-        <v>100</v>
-      </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
+        <v>100</v>
+      </c>
+      <c r="T76" s="3">
         <v>400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>1000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>1200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>1300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>1000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>500</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>700</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AD76" s="3">
         <v>1100</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AE76" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6009,101 +6387,113 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45077</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44985</v>
+      </c>
+      <c r="F80" s="2">
         <v>44895</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44804</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44712</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44620</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44530</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44439</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44347</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44255</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44165</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44074</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43982</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43890</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43799</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43708</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43616</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43524</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43434</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43343</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43251</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43159</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43069</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42978</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42886</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42794</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42704</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AE80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E81" s="3">
         <v>-200</v>
@@ -6112,76 +6502,82 @@
         <v>-100</v>
       </c>
       <c r="G81" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="H81" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K81" s="3">
         <v>-100</v>
       </c>
-      <c r="J81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M81" s="3">
         <v>-400</v>
       </c>
-      <c r="L81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-200</v>
-      </c>
       <c r="N81" s="3">
         <v>-200</v>
       </c>
       <c r="O81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-2000</v>
       </c>
-      <c r="P81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>-300</v>
-      </c>
       <c r="R81" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="S81" s="3">
         <v>-300</v>
       </c>
       <c r="T81" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="U81" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="V81" s="3">
         <v>-200</v>
       </c>
       <c r="W81" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="X81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z81" s="3">
         <v>-400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>-1800</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>-300</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>-800</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AD81" s="3">
         <v>-400</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AE81" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6211,8 +6607,10 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6238,38 +6636,38 @@
         <v>0</v>
       </c>
       <c r="K83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
       </c>
       <c r="M83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
       </c>
       <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
         <v>600</v>
       </c>
-      <c r="P83" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>0</v>
-      </c>
       <c r="R83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S83" s="3">
+        <v>0</v>
+      </c>
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+      <c r="U83" s="3">
         <v>200</v>
       </c>
-      <c r="T83" s="3">
-        <v>0</v>
-      </c>
-      <c r="U83" s="3">
-        <v>0</v>
-      </c>
       <c r="V83" s="3">
         <v>0</v>
       </c>
@@ -6294,8 +6692,14 @@
       <c r="AC83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6377,8 +6781,14 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6460,8 +6870,14 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6543,8 +6959,14 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6626,8 +7048,14 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6709,8 +7137,14 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6733,19 +7167,19 @@
         <v>-100</v>
       </c>
       <c r="J89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="K89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L89" s="3">
         <v>-200</v>
       </c>
       <c r="M89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="O89" s="3">
         <v>-100</v>
@@ -6754,46 +7188,52 @@
         <v>-100</v>
       </c>
       <c r="Q89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="R89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="S89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U89" s="3">
         <v>-100</v>
       </c>
-      <c r="T89" s="3">
-        <v>0</v>
-      </c>
-      <c r="U89" s="3">
-        <v>-200</v>
-      </c>
       <c r="V89" s="3">
         <v>0</v>
       </c>
       <c r="W89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y89" s="3">
         <v>-300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>-100</v>
       </c>
-      <c r="Y89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="Z89" s="3">
-        <v>-200</v>
-      </c>
       <c r="AA89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AB89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AC89" s="3">
         <v>-500</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AD89" s="3">
         <v>-400</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AE89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6823,8 +7263,10 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6855,23 +7297,23 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N91" s="3" t="s">
+      <c r="P91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R91" s="3" t="s">
-        <v>8</v>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
       </c>
       <c r="S91" s="3" t="s">
         <v>8</v>
@@ -6885,29 +7327,35 @@
       <c r="V91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W91" s="3">
+      <c r="W91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y91" s="3">
         <v>-1600</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>200</v>
       </c>
-      <c r="Y91" s="3" t="s">
+      <c r="AA91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z91" s="3" t="s">
+      <c r="AB91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AC91" s="3">
         <v>-100</v>
       </c>
-      <c r="AB91" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC91" s="3" t="s">
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE91" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6989,8 +7437,14 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7072,8 +7526,14 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7104,59 +7564,65 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-      <c r="M94" s="3" t="s">
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>-300</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
       <c r="T94" s="3">
         <v>0</v>
       </c>
-      <c r="U94" s="3" t="s">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V94" s="3" t="s">
+      <c r="X94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-1600</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>200</v>
       </c>
-      <c r="Y94" s="3">
-        <v>-200</v>
-      </c>
-      <c r="Z94" s="3">
-        <v>0</v>
-      </c>
       <c r="AA94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC94" s="3">
         <v>-100</v>
       </c>
-      <c r="AB94" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7186,8 +7652,10 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7269,8 +7737,14 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7352,8 +7826,14 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7435,8 +7915,14 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7518,26 +8004,32 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>100</v>
+      <c r="D100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3" t="s">
+      <c r="F100" s="3">
+        <v>100</v>
+      </c>
+      <c r="G100" s="3">
+        <v>100</v>
+      </c>
+      <c r="H100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G100" s="3">
-        <v>100</v>
-      </c>
-      <c r="H100" s="3">
-        <v>100</v>
-      </c>
       <c r="I100" s="3">
         <v>100</v>
       </c>
@@ -7548,61 +8040,67 @@
         <v>100</v>
       </c>
       <c r="L100" s="3">
+        <v>100</v>
+      </c>
+      <c r="M100" s="3">
+        <v>100</v>
+      </c>
+      <c r="N100" s="3">
         <v>200</v>
       </c>
-      <c r="M100" s="3">
-        <v>100</v>
-      </c>
-      <c r="N100" s="3">
-        <v>100</v>
-      </c>
       <c r="O100" s="3">
+        <v>100</v>
+      </c>
+      <c r="P100" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q100" s="3">
         <v>200</v>
       </c>
-      <c r="P100" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
+        <v>100</v>
+      </c>
+      <c r="S100" s="3">
         <v>400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>200</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
-      <c r="U100" s="3">
-        <v>100</v>
-      </c>
       <c r="V100" s="3">
         <v>0</v>
       </c>
       <c r="W100" s="3">
+        <v>100</v>
+      </c>
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3">
         <v>1600</v>
       </c>
-      <c r="X100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="3">
         <v>900</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>200</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>200</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AD100" s="3">
         <v>600</v>
       </c>
-      <c r="AC100" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AE100" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7684,87 +8182,99 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
       </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
         <v>0</v>
       </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
-        <v>100</v>
-      </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N102" s="3">
         <v>0</v>
       </c>
       <c r="O102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P102" s="3">
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>100</v>
+      </c>
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
-      <c r="S102" s="3">
-        <v>100</v>
-      </c>
       <c r="T102" s="3">
         <v>0</v>
       </c>
       <c r="U102" s="3">
+        <v>100</v>
+      </c>
+      <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>-100</v>
       </c>
-      <c r="V102" s="3">
-        <v>0</v>
-      </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>-300</v>
       </c>
-      <c r="X102" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>500</v>
       </c>
-      <c r="Z102" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="3">
         <v>-400</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AD102" s="3">
         <v>200</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AE102" s="3">
         <v>-100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NRIS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NRIS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="92">
   <si>
     <t>NRIS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,130 +665,134 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45169</v>
+      </c>
+      <c r="E7" s="2">
         <v>45077</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44985</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44895</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44804</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44712</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44620</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44530</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44439</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44347</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44255</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44165</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44074</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43982</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43890</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43799</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43708</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43616</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43524</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43434</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43343</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43251</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43159</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43069</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42978</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42886</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42794</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42704</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -802,14 +806,14 @@
         <v>100</v>
       </c>
       <c r="G8" s="3">
+        <v>100</v>
+      </c>
+      <c r="H8" s="3">
         <v>400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>200</v>
       </c>
-      <c r="I8" s="3">
-        <v>100</v>
-      </c>
       <c r="J8" s="3">
         <v>100</v>
       </c>
@@ -829,17 +833,17 @@
         <v>100</v>
       </c>
       <c r="P8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R8" s="3">
+        <v>100</v>
+      </c>
+      <c r="S8" s="3">
         <v>200</v>
       </c>
-      <c r="S8" s="3">
-        <v>100</v>
-      </c>
       <c r="T8" s="3">
         <v>100</v>
       </c>
@@ -859,7 +863,7 @@
         <v>100</v>
       </c>
       <c r="Z8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA8" s="3">
         <v>0</v>
@@ -874,10 +878,13 @@
         <v>0</v>
       </c>
       <c r="AE8" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -885,16 +892,16 @@
         <v>100</v>
       </c>
       <c r="E9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F9" s="3">
         <v>200</v>
       </c>
       <c r="G9" s="3">
+        <v>200</v>
+      </c>
+      <c r="H9" s="3">
         <v>500</v>
-      </c>
-      <c r="H9" s="3">
-        <v>200</v>
       </c>
       <c r="I9" s="3">
         <v>200</v>
@@ -903,25 +910,25 @@
         <v>200</v>
       </c>
       <c r="K9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L9" s="3">
+        <v>100</v>
+      </c>
+      <c r="M9" s="3">
         <v>200</v>
       </c>
-      <c r="M9" s="3">
-        <v>100</v>
-      </c>
       <c r="N9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O9" s="3">
         <v>200</v>
       </c>
       <c r="P9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R9" s="3">
         <v>200</v>
@@ -933,7 +940,7 @@
         <v>200</v>
       </c>
       <c r="U9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V9" s="3">
         <v>100</v>
@@ -948,7 +955,7 @@
         <v>100</v>
       </c>
       <c r="Z9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA9" s="3">
         <v>0</v>
@@ -963,10 +970,13 @@
         <v>0</v>
       </c>
       <c r="AE9" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -974,7 +984,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F10" s="3">
         <v>-100</v>
@@ -983,25 +993,25 @@
         <v>-100</v>
       </c>
       <c r="H10" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I10" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J10" s="3">
         <v>-100</v>
       </c>
       <c r="K10" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
         <v>-100</v>
       </c>
-      <c r="M10" s="3">
-        <v>0</v>
-      </c>
       <c r="N10" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O10" s="3">
         <v>-100</v>
@@ -1013,16 +1023,16 @@
         <v>-100</v>
       </c>
       <c r="R10" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S10" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T10" s="3">
         <v>-100</v>
       </c>
       <c r="U10" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V10" s="3">
         <v>0</v>
@@ -1054,8 +1064,11 @@
       <c r="AE10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1087,8 +1100,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1176,8 +1190,11 @@
       <c r="AE12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1265,8 +1282,11 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1285,11 +1305,11 @@
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -1297,11 +1317,11 @@
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="3">
         <v>200</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>8</v>
@@ -1309,11 +1329,11 @@
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R14" s="3">
         <v>1300</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>8</v>
@@ -1324,29 +1344,29 @@
       <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
+      <c r="V14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W14" s="3">
         <v>0</v>
       </c>
-      <c r="X14" s="3" t="s">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
       <c r="Z14" s="3">
         <v>0</v>
       </c>
       <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3">
         <v>900</v>
       </c>
-      <c r="AB14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="3" t="s">
-        <v>8</v>
+      <c r="AC14" s="3">
+        <v>0</v>
       </c>
       <c r="AD14" s="3" t="s">
         <v>8</v>
@@ -1354,8 +1374,11 @@
       <c r="AE14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1374,12 +1397,12 @@
       <c r="H15" s="3">
         <v>0</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J15" s="3">
-        <v>0</v>
-      </c>
       <c r="K15" s="3">
         <v>0</v>
       </c>
@@ -1387,10 +1410,10 @@
         <v>0</v>
       </c>
       <c r="M15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O15" s="3">
         <v>0</v>
@@ -1399,22 +1422,22 @@
         <v>0</v>
       </c>
       <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
         <v>600</v>
       </c>
-      <c r="R15" s="3">
-        <v>100</v>
-      </c>
       <c r="S15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T15" s="3">
         <v>0</v>
       </c>
       <c r="U15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W15" s="3">
         <v>0</v>
@@ -1443,8 +1466,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1473,8 +1499,9 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1488,52 +1515,52 @@
         <v>200</v>
       </c>
       <c r="G17" s="3">
+        <v>200</v>
+      </c>
+      <c r="H17" s="3">
         <v>500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>300</v>
       </c>
-      <c r="I17" s="3">
-        <v>100</v>
-      </c>
       <c r="J17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K17" s="3">
         <v>200</v>
       </c>
       <c r="L17" s="3">
+        <v>200</v>
+      </c>
+      <c r="M17" s="3">
         <v>300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>500</v>
-      </c>
-      <c r="N17" s="3">
-        <v>300</v>
       </c>
       <c r="O17" s="3">
         <v>300</v>
       </c>
       <c r="P17" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q17" s="3">
         <v>200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>500</v>
-      </c>
-      <c r="T17" s="3">
-        <v>400</v>
       </c>
       <c r="U17" s="3">
         <v>400</v>
       </c>
       <c r="V17" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="W17" s="3">
         <v>300</v>
@@ -1542,28 +1569,31 @@
         <v>300</v>
       </c>
       <c r="Y17" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="Z17" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA17" s="3">
         <v>400</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>1800</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>300</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>800</v>
-      </c>
-      <c r="AD17" s="3">
-        <v>400</v>
       </c>
       <c r="AE17" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF17" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1583,23 +1613,23 @@
         <v>-100</v>
       </c>
       <c r="I18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K18" s="3">
         <v>-100</v>
       </c>
       <c r="L18" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="M18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N18" s="3">
         <v>-400</v>
       </c>
-      <c r="N18" s="3">
-        <v>-200</v>
-      </c>
       <c r="O18" s="3">
         <v>-200</v>
       </c>
@@ -1607,22 +1637,22 @@
         <v>-200</v>
       </c>
       <c r="Q18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R18" s="3">
         <v>-2100</v>
       </c>
-      <c r="R18" s="3">
-        <v>-200</v>
-      </c>
       <c r="S18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T18" s="3">
         <v>-400</v>
-      </c>
-      <c r="T18" s="3">
-        <v>-300</v>
       </c>
       <c r="U18" s="3">
         <v>-300</v>
       </c>
       <c r="V18" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="W18" s="3">
         <v>-200</v>
@@ -1631,28 +1661,31 @@
         <v>-200</v>
       </c>
       <c r="Y18" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="Z18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="3">
         <v>-400</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-1800</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-300</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>-800</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>-400</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1684,8 +1717,9 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1765,16 +1799,19 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AD20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AE20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1782,10 +1819,10 @@
         <v>-100</v>
       </c>
       <c r="E21" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="F21" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="G21" s="3">
         <v>-100</v>
@@ -1794,10 +1831,10 @@
         <v>-100</v>
       </c>
       <c r="I21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K21" s="3">
         <v>-100</v>
@@ -1806,64 +1843,67 @@
         <v>-100</v>
       </c>
       <c r="M21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N21" s="3">
         <v>-300</v>
       </c>
-      <c r="N21" s="3">
-        <v>-200</v>
-      </c>
       <c r="O21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P21" s="3">
         <v>-100</v>
       </c>
-      <c r="P21" s="3">
-        <v>-200</v>
-      </c>
       <c r="Q21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R21" s="3">
         <v>-1400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-300</v>
       </c>
-      <c r="T21" s="3">
-        <v>-200</v>
-      </c>
       <c r="U21" s="3">
         <v>-200</v>
       </c>
       <c r="V21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W21" s="3">
         <v>-100</v>
       </c>
-      <c r="W21" s="3">
-        <v>-200</v>
-      </c>
       <c r="X21" s="3">
         <v>-200</v>
       </c>
       <c r="Y21" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="Z21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="3">
         <v>-400</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-1800</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>-300</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>-700</v>
-      </c>
-      <c r="AD21" s="3">
-        <v>-400</v>
       </c>
       <c r="AE21" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF21" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1877,10 +1917,10 @@
         <v>0</v>
       </c>
       <c r="G22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
@@ -1945,50 +1985,53 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-      <c r="AD22" s="3" t="s">
-        <v>8</v>
+      <c r="AD22" s="3">
+        <v>0</v>
       </c>
       <c r="AE22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="E23" s="3">
         <v>-200</v>
       </c>
       <c r="F23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G23" s="3">
         <v>-100</v>
       </c>
-      <c r="G23" s="3">
-        <v>-200</v>
-      </c>
       <c r="H23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I23" s="3">
         <v>-100</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
       <c r="J23" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="K23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L23" s="3">
         <v>-100</v>
       </c>
-      <c r="L23" s="3">
-        <v>-200</v>
-      </c>
       <c r="M23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N23" s="3">
         <v>-400</v>
       </c>
-      <c r="N23" s="3">
-        <v>-200</v>
-      </c>
       <c r="O23" s="3">
         <v>-200</v>
       </c>
@@ -1996,13 +2039,13 @@
         <v>-200</v>
       </c>
       <c r="Q23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R23" s="3">
         <v>-2000</v>
       </c>
-      <c r="R23" s="3">
-        <v>-200</v>
-      </c>
       <c r="S23" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="T23" s="3">
         <v>-300</v>
@@ -2011,7 +2054,7 @@
         <v>-300</v>
       </c>
       <c r="V23" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="W23" s="3">
         <v>-200</v>
@@ -2020,28 +2063,31 @@
         <v>-200</v>
       </c>
       <c r="Y23" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="Z23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="3">
         <v>-400</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-1800</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-300</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-800</v>
-      </c>
-      <c r="AD23" s="3">
-        <v>-400</v>
       </c>
       <c r="AE23" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF23" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2129,8 +2175,11 @@
       <c r="AE24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2218,44 +2267,47 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="E26" s="3">
         <v>-200</v>
       </c>
       <c r="F26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G26" s="3">
         <v>-100</v>
       </c>
-      <c r="G26" s="3">
-        <v>-200</v>
-      </c>
       <c r="H26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I26" s="3">
         <v>-100</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
       <c r="J26" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="K26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L26" s="3">
         <v>-100</v>
       </c>
-      <c r="L26" s="3">
-        <v>-200</v>
-      </c>
       <c r="M26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N26" s="3">
         <v>-400</v>
       </c>
-      <c r="N26" s="3">
-        <v>-200</v>
-      </c>
       <c r="O26" s="3">
         <v>-200</v>
       </c>
@@ -2263,13 +2315,13 @@
         <v>-200</v>
       </c>
       <c r="Q26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R26" s="3">
         <v>-2000</v>
       </c>
-      <c r="R26" s="3">
-        <v>-200</v>
-      </c>
       <c r="S26" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="T26" s="3">
         <v>-300</v>
@@ -2278,7 +2330,7 @@
         <v>-300</v>
       </c>
       <c r="V26" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="W26" s="3">
         <v>-200</v>
@@ -2287,64 +2339,67 @@
         <v>-200</v>
       </c>
       <c r="Y26" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="Z26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="3">
         <v>-400</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-1800</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-300</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-800</v>
-      </c>
-      <c r="AD26" s="3">
-        <v>-400</v>
       </c>
       <c r="AE26" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF26" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="E27" s="3">
         <v>-200</v>
       </c>
       <c r="F27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G27" s="3">
         <v>-100</v>
       </c>
-      <c r="G27" s="3">
-        <v>-200</v>
-      </c>
       <c r="H27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I27" s="3">
         <v>-100</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
       <c r="J27" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="K27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L27" s="3">
         <v>-100</v>
       </c>
-      <c r="L27" s="3">
-        <v>-200</v>
-      </c>
       <c r="M27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N27" s="3">
         <v>-400</v>
       </c>
-      <c r="N27" s="3">
-        <v>-200</v>
-      </c>
       <c r="O27" s="3">
         <v>-200</v>
       </c>
@@ -2352,13 +2407,13 @@
         <v>-200</v>
       </c>
       <c r="Q27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R27" s="3">
         <v>-2000</v>
       </c>
-      <c r="R27" s="3">
-        <v>-200</v>
-      </c>
       <c r="S27" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="T27" s="3">
         <v>-300</v>
@@ -2367,7 +2422,7 @@
         <v>-300</v>
       </c>
       <c r="V27" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="W27" s="3">
         <v>-200</v>
@@ -2376,28 +2431,31 @@
         <v>-200</v>
       </c>
       <c r="Y27" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="Z27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="3">
         <v>-400</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-1800</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-300</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-800</v>
-      </c>
-      <c r="AD27" s="3">
-        <v>-400</v>
       </c>
       <c r="AE27" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF27" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2485,8 +2543,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2574,8 +2635,11 @@
       <c r="AE29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2663,8 +2727,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2752,8 +2819,11 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2833,52 +2903,55 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="3">
         <v>-100</v>
       </c>
-      <c r="AD32" s="3">
-        <v>0</v>
-      </c>
       <c r="AE32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="E33" s="3">
         <v>-200</v>
       </c>
       <c r="F33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G33" s="3">
         <v>-100</v>
       </c>
-      <c r="G33" s="3">
-        <v>-200</v>
-      </c>
       <c r="H33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I33" s="3">
         <v>-100</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
       <c r="J33" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="K33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L33" s="3">
         <v>-100</v>
       </c>
-      <c r="L33" s="3">
-        <v>-200</v>
-      </c>
       <c r="M33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N33" s="3">
         <v>-400</v>
       </c>
-      <c r="N33" s="3">
-        <v>-200</v>
-      </c>
       <c r="O33" s="3">
         <v>-200</v>
       </c>
@@ -2886,13 +2959,13 @@
         <v>-200</v>
       </c>
       <c r="Q33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R33" s="3">
         <v>-2000</v>
       </c>
-      <c r="R33" s="3">
-        <v>-200</v>
-      </c>
       <c r="S33" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="T33" s="3">
         <v>-300</v>
@@ -2901,7 +2974,7 @@
         <v>-300</v>
       </c>
       <c r="V33" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="W33" s="3">
         <v>-200</v>
@@ -2910,28 +2983,31 @@
         <v>-200</v>
       </c>
       <c r="Y33" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="Z33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="3">
         <v>-400</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-1800</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-300</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-800</v>
-      </c>
-      <c r="AD33" s="3">
-        <v>-400</v>
       </c>
       <c r="AE33" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF33" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3019,44 +3095,47 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="E35" s="3">
         <v>-200</v>
       </c>
       <c r="F35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G35" s="3">
         <v>-100</v>
       </c>
-      <c r="G35" s="3">
-        <v>-200</v>
-      </c>
       <c r="H35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I35" s="3">
         <v>-100</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
       <c r="J35" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="K35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L35" s="3">
         <v>-100</v>
       </c>
-      <c r="L35" s="3">
-        <v>-200</v>
-      </c>
       <c r="M35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N35" s="3">
         <v>-400</v>
       </c>
-      <c r="N35" s="3">
-        <v>-200</v>
-      </c>
       <c r="O35" s="3">
         <v>-200</v>
       </c>
@@ -3064,13 +3143,13 @@
         <v>-200</v>
       </c>
       <c r="Q35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R35" s="3">
         <v>-2000</v>
       </c>
-      <c r="R35" s="3">
-        <v>-200</v>
-      </c>
       <c r="S35" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="T35" s="3">
         <v>-300</v>
@@ -3079,7 +3158,7 @@
         <v>-300</v>
       </c>
       <c r="V35" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="W35" s="3">
         <v>-200</v>
@@ -3088,122 +3167,128 @@
         <v>-200</v>
       </c>
       <c r="Y35" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="Z35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="3">
         <v>-400</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-1800</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-300</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-800</v>
-      </c>
-      <c r="AD35" s="3">
-        <v>-400</v>
       </c>
       <c r="AE35" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF35" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45169</v>
+      </c>
+      <c r="E38" s="2">
         <v>45077</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44985</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44895</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44804</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44712</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44620</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44530</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44439</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44347</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44255</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44165</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44074</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43982</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43890</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43799</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43708</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43616</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43524</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43434</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43343</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43251</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43159</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43069</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42978</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42886</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42794</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42704</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3235,8 +3320,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3268,16 +3354,17 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E41" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F41" s="3">
         <v>200</v>
@@ -3286,7 +3373,7 @@
         <v>200</v>
       </c>
       <c r="H41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I41" s="3">
         <v>100</v>
@@ -3301,11 +3388,11 @@
         <v>100</v>
       </c>
       <c r="M41" s="3">
+        <v>100</v>
+      </c>
+      <c r="N41" s="3">
         <v>200</v>
       </c>
-      <c r="N41" s="3">
-        <v>100</v>
-      </c>
       <c r="O41" s="3">
         <v>100</v>
       </c>
@@ -3313,11 +3400,11 @@
         <v>100</v>
       </c>
       <c r="Q41" s="3">
+        <v>100</v>
+      </c>
+      <c r="R41" s="3">
         <v>200</v>
       </c>
-      <c r="R41" s="3">
-        <v>100</v>
-      </c>
       <c r="S41" s="3">
         <v>100</v>
       </c>
@@ -3334,31 +3421,34 @@
         <v>100</v>
       </c>
       <c r="X41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Y41" s="3">
         <v>200</v>
       </c>
       <c r="Z41" s="3">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="AA41" s="3">
         <v>600</v>
       </c>
       <c r="AB41" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="AC41" s="3">
         <v>100</v>
       </c>
       <c r="AD41" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE41" s="3">
         <v>500</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3446,8 +3536,11 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3458,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="F43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I43" s="3">
         <v>100</v>
@@ -3473,7 +3566,7 @@
         <v>100</v>
       </c>
       <c r="K43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
@@ -3494,7 +3587,7 @@
         <v>0</v>
       </c>
       <c r="R43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S43" s="3">
         <v>100</v>
@@ -3509,16 +3602,16 @@
         <v>100</v>
       </c>
       <c r="W43" s="3">
+        <v>100</v>
+      </c>
+      <c r="X43" s="3">
         <v>200</v>
       </c>
-      <c r="X43" s="3">
-        <v>100</v>
-      </c>
       <c r="Y43" s="3">
         <v>100</v>
       </c>
       <c r="Z43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA43" s="3">
         <v>0</v>
@@ -3535,8 +3628,11 @@
       <c r="AE43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3624,8 +3720,11 @@
       <c r="AE44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3696,25 +3795,28 @@
         <v>0</v>
       </c>
       <c r="Z45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA45" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB45" s="3">
         <v>300</v>
       </c>
-      <c r="AB45" s="3">
-        <v>100</v>
-      </c>
       <c r="AC45" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD45" s="3">
         <v>400</v>
       </c>
-      <c r="AD45" s="3">
-        <v>100</v>
-      </c>
       <c r="AE45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AF45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3722,7 +3824,7 @@
         <v>100</v>
       </c>
       <c r="E46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F46" s="3">
         <v>200</v>
@@ -3731,14 +3833,14 @@
         <v>200</v>
       </c>
       <c r="H46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I46" s="3">
+        <v>100</v>
+      </c>
+      <c r="J46" s="3">
         <v>200</v>
       </c>
-      <c r="J46" s="3">
-        <v>100</v>
-      </c>
       <c r="K46" s="3">
         <v>100</v>
       </c>
@@ -3746,11 +3848,11 @@
         <v>100</v>
       </c>
       <c r="M46" s="3">
+        <v>100</v>
+      </c>
+      <c r="N46" s="3">
         <v>200</v>
       </c>
-      <c r="N46" s="3">
-        <v>100</v>
-      </c>
       <c r="O46" s="3">
         <v>100</v>
       </c>
@@ -3758,13 +3860,13 @@
         <v>100</v>
       </c>
       <c r="Q46" s="3">
+        <v>100</v>
+      </c>
+      <c r="R46" s="3">
         <v>200</v>
       </c>
-      <c r="R46" s="3">
-        <v>100</v>
-      </c>
       <c r="S46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T46" s="3">
         <v>200</v>
@@ -3773,37 +3875,40 @@
         <v>200</v>
       </c>
       <c r="V46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W46" s="3">
+        <v>100</v>
+      </c>
+      <c r="X46" s="3">
         <v>200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>300</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>400</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>700</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>900</v>
-      </c>
-      <c r="AB46" s="3">
-        <v>200</v>
       </c>
       <c r="AC46" s="3">
         <v>200</v>
       </c>
       <c r="AD46" s="3">
+        <v>200</v>
+      </c>
+      <c r="AE46" s="3">
         <v>600</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3891,8 +3996,11 @@
       <c r="AE47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3900,7 +4008,7 @@
         <v>100</v>
       </c>
       <c r="E48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F48" s="3">
         <v>200</v>
@@ -3927,31 +4035,31 @@
         <v>200</v>
       </c>
       <c r="N48" s="3">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="O48" s="3">
         <v>500</v>
       </c>
       <c r="P48" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q48" s="3">
         <v>600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>700</v>
-      </c>
-      <c r="R48" s="3">
-        <v>2600</v>
       </c>
       <c r="S48" s="3">
         <v>2600</v>
       </c>
       <c r="T48" s="3">
+        <v>2600</v>
+      </c>
+      <c r="U48" s="3">
         <v>2400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2500</v>
-      </c>
-      <c r="V48" s="3">
-        <v>2600</v>
       </c>
       <c r="W48" s="3">
         <v>2600</v>
@@ -3960,10 +4068,10 @@
         <v>2600</v>
       </c>
       <c r="Y48" s="3">
+        <v>2600</v>
+      </c>
+      <c r="Z48" s="3">
         <v>2700</v>
-      </c>
-      <c r="Z48" s="3">
-        <v>900</v>
       </c>
       <c r="AA48" s="3">
         <v>900</v>
@@ -3980,8 +4088,11 @@
       <c r="AE48" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF48" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -4069,8 +4180,11 @@
       <c r="AE49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4158,8 +4272,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4247,8 +4364,11 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4336,8 +4456,11 @@
       <c r="AE52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4425,31 +4548,34 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>300</v>
+      </c>
+      <c r="E54" s="3">
         <v>200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>300</v>
-      </c>
-      <c r="F54" s="3">
-        <v>400</v>
       </c>
       <c r="G54" s="3">
         <v>400</v>
       </c>
       <c r="H54" s="3">
+        <v>400</v>
+      </c>
+      <c r="I54" s="3">
         <v>300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>400</v>
-      </c>
-      <c r="J54" s="3">
-        <v>300</v>
       </c>
       <c r="K54" s="3">
         <v>300</v>
@@ -4458,10 +4584,10 @@
         <v>300</v>
       </c>
       <c r="M54" s="3">
+        <v>300</v>
+      </c>
+      <c r="N54" s="3">
         <v>400</v>
-      </c>
-      <c r="N54" s="3">
-        <v>700</v>
       </c>
       <c r="O54" s="3">
         <v>700</v>
@@ -4470,52 +4596,55 @@
         <v>700</v>
       </c>
       <c r="Q54" s="3">
+        <v>700</v>
+      </c>
+      <c r="R54" s="3">
         <v>900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2600</v>
-      </c>
-      <c r="U54" s="3">
-        <v>2700</v>
       </c>
       <c r="V54" s="3">
         <v>2700</v>
       </c>
       <c r="W54" s="3">
-        <v>2900</v>
+        <v>2700</v>
       </c>
       <c r="X54" s="3">
         <v>2900</v>
       </c>
       <c r="Y54" s="3">
+        <v>2900</v>
+      </c>
+      <c r="Z54" s="3">
         <v>3000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>1600</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>1800</v>
-      </c>
-      <c r="AB54" s="3">
-        <v>1100</v>
       </c>
       <c r="AC54" s="3">
         <v>1100</v>
       </c>
       <c r="AD54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AE54" s="3">
         <v>1500</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4547,8 +4676,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4580,23 +4710,24 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>100</v>
+      </c>
+      <c r="E57" s="3">
         <v>200</v>
       </c>
-      <c r="E57" s="3">
-        <v>100</v>
-      </c>
       <c r="F57" s="3">
+        <v>100</v>
+      </c>
+      <c r="G57" s="3">
         <v>500</v>
       </c>
-      <c r="G57" s="3">
-        <v>100</v>
-      </c>
       <c r="H57" s="3">
         <v>100</v>
       </c>
@@ -4604,10 +4735,10 @@
         <v>100</v>
       </c>
       <c r="J57" s="3">
+        <v>100</v>
+      </c>
+      <c r="K57" s="3">
         <v>500</v>
-      </c>
-      <c r="K57" s="3">
-        <v>400</v>
       </c>
       <c r="L57" s="3">
         <v>400</v>
@@ -4616,7 +4747,7 @@
         <v>400</v>
       </c>
       <c r="N57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="O57" s="3">
         <v>300</v>
@@ -4625,7 +4756,7 @@
         <v>300</v>
       </c>
       <c r="Q57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="R57" s="3">
         <v>200</v>
@@ -4634,7 +4765,7 @@
         <v>200</v>
       </c>
       <c r="T57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U57" s="3">
         <v>100</v>
@@ -4652,25 +4783,28 @@
         <v>100</v>
       </c>
       <c r="Z57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA57" s="3">
         <v>0</v>
       </c>
       <c r="AB57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC57" s="3">
         <v>400</v>
       </c>
-      <c r="AC57" s="3">
-        <v>0</v>
-      </c>
       <c r="AD57" s="3">
         <v>0</v>
       </c>
       <c r="AE57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4680,11 +4814,11 @@
       <c r="E58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F58" s="3">
+      <c r="F58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G58" s="3">
         <v>3800</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>8</v>
@@ -4692,17 +4826,17 @@
       <c r="I58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J58" s="3">
+      <c r="J58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K58" s="3">
         <v>3500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3100</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>8</v>
@@ -4719,8 +4853,8 @@
       <c r="R58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S58" s="3">
-        <v>0</v>
+      <c r="S58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T58" s="3">
         <v>0</v>
@@ -4741,25 +4875,28 @@
         <v>0</v>
       </c>
       <c r="Z58" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="AA58" s="3">
         <v>800</v>
       </c>
       <c r="AB58" s="3">
+        <v>800</v>
+      </c>
+      <c r="AC58" s="3">
         <v>300</v>
       </c>
-      <c r="AC58" s="3">
-        <v>100</v>
-      </c>
-      <c r="AD58" s="3" t="s">
-        <v>8</v>
+      <c r="AD58" s="3">
+        <v>100</v>
       </c>
       <c r="AE58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4839,7 +4976,7 @@
         <v>0</v>
       </c>
       <c r="AC59" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="AD59" s="3">
         <v>400</v>
@@ -4847,23 +4984,26 @@
       <c r="AE59" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF59" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>100</v>
+      </c>
+      <c r="E60" s="3">
         <v>200</v>
       </c>
-      <c r="E60" s="3">
-        <v>100</v>
-      </c>
       <c r="F60" s="3">
+        <v>100</v>
+      </c>
+      <c r="G60" s="3">
         <v>4300</v>
       </c>
-      <c r="G60" s="3">
-        <v>100</v>
-      </c>
       <c r="H60" s="3">
         <v>100</v>
       </c>
@@ -4871,19 +5011,19 @@
         <v>100</v>
       </c>
       <c r="J60" s="3">
+        <v>100</v>
+      </c>
+      <c r="K60" s="3">
         <v>4000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>400</v>
-      </c>
-      <c r="N60" s="3">
-        <v>300</v>
       </c>
       <c r="O60" s="3">
         <v>300</v>
@@ -4892,7 +5032,7 @@
         <v>300</v>
       </c>
       <c r="Q60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="R60" s="3">
         <v>200</v>
@@ -4901,7 +5041,7 @@
         <v>200</v>
       </c>
       <c r="T60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U60" s="3">
         <v>100</v>
@@ -4919,16 +5059,16 @@
         <v>100</v>
       </c>
       <c r="Z60" s="3">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="AA60" s="3">
         <v>800</v>
       </c>
       <c r="AB60" s="3">
+        <v>800</v>
+      </c>
+      <c r="AC60" s="3">
         <v>600</v>
-      </c>
-      <c r="AC60" s="3">
-        <v>400</v>
       </c>
       <c r="AD60" s="3">
         <v>400</v>
@@ -4936,79 +5076,82 @@
       <c r="AE60" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF60" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3900</v>
+        <v>4100</v>
       </c>
       <c r="E61" s="3">
         <v>3900</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>3900</v>
       </c>
       <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
         <v>3700</v>
-      </c>
-      <c r="H61" s="3">
-        <v>3600</v>
       </c>
       <c r="I61" s="3">
         <v>3600</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>3600</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1900</v>
-      </c>
-      <c r="V61" s="3">
-        <v>1700</v>
       </c>
       <c r="W61" s="3">
         <v>1700</v>
       </c>
       <c r="X61" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="Y61" s="3">
         <v>1600</v>
       </c>
       <c r="Z61" s="3">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="AA61" s="3">
         <v>0</v>
@@ -5025,32 +5168,35 @@
       <c r="AE61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E62" s="3">
         <v>600</v>
       </c>
       <c r="F62" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="G62" s="3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="H62" s="3">
         <v>500</v>
       </c>
       <c r="I62" s="3">
+        <v>500</v>
+      </c>
+      <c r="J62" s="3">
         <v>400</v>
       </c>
-      <c r="J62" s="3">
-        <v>100</v>
-      </c>
       <c r="K62" s="3">
         <v>100</v>
       </c>
@@ -5097,7 +5243,7 @@
         <v>100</v>
       </c>
       <c r="Z62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA62" s="3">
         <v>0</v>
@@ -5114,8 +5260,11 @@
       <c r="AE62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5203,8 +5352,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5292,8 +5444,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5381,67 +5536,70 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E66" s="3">
         <v>4700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4300</v>
-      </c>
-      <c r="H66" s="3">
-        <v>4200</v>
       </c>
       <c r="I66" s="3">
         <v>4200</v>
       </c>
       <c r="J66" s="3">
+        <v>4200</v>
+      </c>
+      <c r="K66" s="3">
         <v>4100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2000</v>
-      </c>
-      <c r="V66" s="3">
-        <v>1800</v>
       </c>
       <c r="W66" s="3">
         <v>1800</v>
@@ -5450,28 +5608,31 @@
         <v>1800</v>
       </c>
       <c r="Y66" s="3">
+        <v>1800</v>
+      </c>
+      <c r="Z66" s="3">
         <v>1700</v>
-      </c>
-      <c r="Z66" s="3">
-        <v>800</v>
       </c>
       <c r="AA66" s="3">
         <v>800</v>
       </c>
       <c r="AB66" s="3">
+        <v>800</v>
+      </c>
+      <c r="AC66" s="3">
         <v>700</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>500</v>
-      </c>
-      <c r="AD66" s="3">
-        <v>400</v>
       </c>
       <c r="AE66" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF66" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5503,8 +5664,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5592,8 +5754,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5681,8 +5846,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5770,8 +5938,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5859,97 +6030,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-10900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-10700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-10500</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-10300</v>
       </c>
       <c r="H72" s="3">
         <v>-10300</v>
       </c>
       <c r="I72" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="J72" s="3">
         <v>-10200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-10100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-10000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-9900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-9700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-9200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-9000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-8800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-8600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-6500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-6300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-6000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-5700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-5300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-5100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-4900</v>
-      </c>
-      <c r="Y72" s="3">
-        <v>-4700</v>
       </c>
       <c r="Z72" s="3">
         <v>-4700</v>
       </c>
       <c r="AA72" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="AB72" s="3">
         <v>-2800</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-2500</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-2200</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-1400</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6037,8 +6214,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6126,8 +6306,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6215,97 +6398,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E76" s="3">
         <v>-4500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-4300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-4100</v>
-      </c>
-      <c r="G76" s="3">
-        <v>-3900</v>
       </c>
       <c r="H76" s="3">
         <v>-3900</v>
       </c>
       <c r="I76" s="3">
-        <v>-3800</v>
+        <v>-3900</v>
       </c>
       <c r="J76" s="3">
         <v>-3800</v>
       </c>
       <c r="K76" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="L76" s="3">
         <v>-3600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-3500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-3300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-2900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-2600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-2200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-100</v>
       </c>
-      <c r="S76" s="3">
-        <v>100</v>
-      </c>
       <c r="T76" s="3">
+        <v>100</v>
+      </c>
+      <c r="U76" s="3">
         <v>400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>1300</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>800</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>1000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>500</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>700</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>1100</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6393,138 +6582,144 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45169</v>
+      </c>
+      <c r="E80" s="2">
         <v>45077</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44985</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44895</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44804</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44712</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44620</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44530</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44439</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44347</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44255</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44165</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44074</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43982</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43890</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43799</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43708</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43616</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43524</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43434</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43343</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43251</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43159</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43069</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42978</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42886</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42794</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42704</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="E81" s="3">
         <v>-200</v>
       </c>
       <c r="F81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G81" s="3">
         <v>-100</v>
       </c>
-      <c r="G81" s="3">
-        <v>-200</v>
-      </c>
       <c r="H81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I81" s="3">
         <v>-100</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
       <c r="J81" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="K81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L81" s="3">
         <v>-100</v>
       </c>
-      <c r="L81" s="3">
-        <v>-200</v>
-      </c>
       <c r="M81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N81" s="3">
         <v>-400</v>
       </c>
-      <c r="N81" s="3">
-        <v>-200</v>
-      </c>
       <c r="O81" s="3">
         <v>-200</v>
       </c>
@@ -6532,13 +6727,13 @@
         <v>-200</v>
       </c>
       <c r="Q81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R81" s="3">
         <v>-2000</v>
       </c>
-      <c r="R81" s="3">
-        <v>-200</v>
-      </c>
       <c r="S81" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="T81" s="3">
         <v>-300</v>
@@ -6547,7 +6742,7 @@
         <v>-300</v>
       </c>
       <c r="V81" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="W81" s="3">
         <v>-200</v>
@@ -6556,28 +6751,31 @@
         <v>-200</v>
       </c>
       <c r="Y81" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="Z81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA81" s="3">
         <v>-400</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-1800</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-300</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-800</v>
-      </c>
-      <c r="AD81" s="3">
-        <v>-400</v>
       </c>
       <c r="AE81" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF81" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6609,8 +6807,9 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6642,10 +6841,10 @@
         <v>0</v>
       </c>
       <c r="M83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
@@ -6654,23 +6853,23 @@
         <v>0</v>
       </c>
       <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
         <v>600</v>
       </c>
-      <c r="R83" s="3">
-        <v>100</v>
-      </c>
       <c r="S83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T83" s="3">
         <v>0</v>
       </c>
       <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
         <v>200</v>
       </c>
-      <c r="V83" s="3">
-        <v>0</v>
-      </c>
       <c r="W83" s="3">
         <v>0</v>
       </c>
@@ -6698,8 +6897,11 @@
       <c r="AE83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6787,8 +6989,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6876,8 +7081,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6965,8 +7173,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7054,8 +7265,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7143,13 +7357,16 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E89" s="3">
         <v>-100</v>
@@ -7173,16 +7390,16 @@
         <v>-100</v>
       </c>
       <c r="L89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="M89" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="N89" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="O89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="P89" s="3">
         <v>-100</v>
@@ -7194,46 +7411,49 @@
         <v>-100</v>
       </c>
       <c r="S89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="T89" s="3">
         <v>-200</v>
       </c>
       <c r="U89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V89" s="3">
         <v>-100</v>
       </c>
-      <c r="V89" s="3">
-        <v>0</v>
-      </c>
       <c r="W89" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="X89" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z89" s="3">
         <v>-300</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-100</v>
       </c>
-      <c r="AA89" s="3">
-        <v>-200</v>
-      </c>
       <c r="AB89" s="3">
         <v>-200</v>
       </c>
       <c r="AC89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AD89" s="3">
         <v>-500</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>-400</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7265,8 +7485,9 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7303,20 +7524,20 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>8</v>
+      <c r="O91" s="3">
+        <v>0</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>8</v>
+      <c r="S91" s="3">
+        <v>0</v>
       </c>
       <c r="T91" s="3" t="s">
         <v>8</v>
@@ -7333,29 +7554,32 @@
       <c r="X91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Y91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z91" s="3">
         <v>-1600</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>200</v>
-      </c>
-      <c r="AA91" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AB91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AC91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD91" s="3">
         <v>-100</v>
       </c>
-      <c r="AD91" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE91" s="3" t="s">
+      <c r="AE91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF91" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7443,8 +7667,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7532,8 +7759,11 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7570,12 +7800,12 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-      <c r="O94" s="3" t="s">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
         <v>0</v>
       </c>
@@ -7583,46 +7813,49 @@
         <v>0</v>
       </c>
       <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>-300</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
       <c r="U94" s="3">
         <v>0</v>
       </c>
       <c r="V94" s="3">
         <v>0</v>
       </c>
-      <c r="W94" s="3" t="s">
-        <v>8</v>
+      <c r="W94" s="3">
+        <v>0</v>
       </c>
       <c r="X94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Y94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z94" s="3">
         <v>-1600</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>200</v>
       </c>
-      <c r="AA94" s="3">
-        <v>-200</v>
-      </c>
       <c r="AB94" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD94" s="3">
         <v>-100</v>
       </c>
-      <c r="AD94" s="3">
-        <v>0</v>
-      </c>
       <c r="AE94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7654,8 +7887,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7743,8 +7977,11 @@
       <c r="AE96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7832,8 +8069,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7921,8 +8161,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8010,16 +8253,19 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E100" s="3">
-        <v>100</v>
+      <c r="E100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F100" s="3">
         <v>100</v>
@@ -8027,12 +8273,12 @@
       <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3" t="s">
+      <c r="H100" s="3">
+        <v>100</v>
+      </c>
+      <c r="I100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I100" s="3">
-        <v>100</v>
-      </c>
       <c r="J100" s="3">
         <v>100</v>
       </c>
@@ -8046,61 +8292,64 @@
         <v>100</v>
       </c>
       <c r="N100" s="3">
+        <v>100</v>
+      </c>
+      <c r="O100" s="3">
         <v>200</v>
       </c>
-      <c r="O100" s="3">
-        <v>100</v>
-      </c>
       <c r="P100" s="3">
         <v>100</v>
       </c>
       <c r="Q100" s="3">
+        <v>100</v>
+      </c>
+      <c r="R100" s="3">
         <v>200</v>
       </c>
-      <c r="R100" s="3">
-        <v>100</v>
-      </c>
       <c r="S100" s="3">
+        <v>100</v>
+      </c>
+      <c r="T100" s="3">
         <v>400</v>
-      </c>
-      <c r="T100" s="3">
-        <v>200</v>
       </c>
       <c r="U100" s="3">
         <v>200</v>
       </c>
       <c r="V100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="W100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3">
         <v>1600</v>
       </c>
-      <c r="Z100" s="3">
-        <v>0</v>
-      </c>
       <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB100" s="3">
         <v>900</v>
-      </c>
-      <c r="AB100" s="3">
-        <v>200</v>
       </c>
       <c r="AC100" s="3">
         <v>200</v>
       </c>
       <c r="AD100" s="3">
+        <v>200</v>
+      </c>
+      <c r="AE100" s="3">
         <v>600</v>
       </c>
-      <c r="AE100" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF100" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -8188,17 +8437,20 @@
       <c r="AE101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
         <v>0</v>
       </c>
@@ -8206,11 +8458,11 @@
         <v>0</v>
       </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
         <v>0</v>
       </c>
@@ -8218,13 +8470,13 @@
         <v>0</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
-        <v>100</v>
-      </c>
       <c r="N102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O102" s="3">
         <v>0</v>
@@ -8233,48 +8485,51 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
       <c r="U102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>-100</v>
       </c>
-      <c r="X102" s="3">
-        <v>0</v>
-      </c>
       <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>-300</v>
       </c>
-      <c r="Z102" s="3">
-        <v>0</v>
-      </c>
       <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3">
         <v>500</v>
       </c>
-      <c r="AB102" s="3">
-        <v>0</v>
-      </c>
       <c r="AC102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD102" s="3">
         <v>-400</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>200</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>-100</v>
       </c>
     </row>
